--- a/Data Barang Template.xlsx
+++ b/Data Barang Template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aee950134d9413b7/ドキュメント/Gentanusa/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\GOS_FxApps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A4EEA14-4999-4FCD-8D24-206C0C47F6E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1832863-6BC1-413E-8261-8BDCEF3443CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -463,7 +463,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="52">
+  <fonts count="52" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1933,6 +1933,93 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="50" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="9" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="2" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="15" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="14" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="43" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="9" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="47" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="3" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="9" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="2" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="13" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="42" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="14" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="13" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="23" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="30" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="31" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="12" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="48" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="44" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="45" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="46" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="49" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="45" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="46" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="4" borderId="39" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="4" borderId="40" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="4" borderId="41" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="23" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1958,6 +2045,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="27" fillId="4" borderId="37" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="50" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="47" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="28" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="29" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="4" borderId="42" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="4" borderId="14" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="4" borderId="43" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1991,117 +2102,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="4" borderId="22" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="27" fillId="4" borderId="39" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="27" fillId="4" borderId="40" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="27" fillId="4" borderId="41" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="28" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="29" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="27" fillId="4" borderId="42" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="27" fillId="4" borderId="14" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="27" fillId="4" borderId="43" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="50" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="47" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="23" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="30" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="31" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="12" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="48" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="9" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="47" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="44" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="45" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="46" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="3" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="9" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="2" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="49" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="45" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="46" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="50" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="9" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="2" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="15" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="14" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="43" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="13" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="42" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="14" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="13" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5377,10 +5377,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A2:BR722" totalsRowShown="0" headerRowDxfId="74" dataDxfId="72" headerRowBorderDxfId="73" tableBorderDxfId="71" totalsRowBorderDxfId="70" headerRowCellStyle="Normal 2 2" dataCellStyle="Normal_GAJI JAN 2013">
   <autoFilter ref="A2:BR722" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
@@ -5750,15 +5746,15 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BR722"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="40" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="40" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="BD3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E22" sqref="E22"/>
       <selection pane="topRight" activeCell="E22" sqref="E22"/>
       <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
-      <selection pane="bottomRight" activeCell="CF28" sqref="CF28"/>
+      <selection pane="bottomRight" activeCell="BT5" sqref="BT5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.140625" style="1" customWidth="1"/>
@@ -5769,11 +5765,11 @@
     <col min="7" max="7" width="11.85546875" style="1" customWidth="1"/>
     <col min="8" max="38" width="8.7109375" style="20" customWidth="1"/>
     <col min="39" max="69" width="8.7109375" style="21" customWidth="1"/>
-    <col min="70" max="70" width="23" style="6" customWidth="1"/>
+    <col min="70" max="70" width="20.28515625" style="6" customWidth="1"/>
     <col min="71" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70">
+    <row r="1" spans="1:70" x14ac:dyDescent="0.3">
       <c r="H1" s="20">
         <v>1</v>
       </c>
@@ -5961,7 +5957,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:70" s="5" customFormat="1" ht="27" customHeight="1">
+    <row r="2" spans="1:70" s="5" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
@@ -6173,7 +6169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:70" ht="99.95" customHeight="1">
+    <row r="3" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="123"/>
       <c r="B3" s="10"/>
       <c r="C3" s="3"/>
@@ -6245,7 +6241,7 @@
       <c r="BQ3" s="23"/>
       <c r="BR3" s="11"/>
     </row>
-    <row r="4" spans="1:70" ht="99.95" customHeight="1">
+    <row r="4" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="123"/>
       <c r="B4" s="10"/>
       <c r="C4" s="3"/>
@@ -6317,7 +6313,7 @@
       <c r="BQ4" s="23"/>
       <c r="BR4" s="11"/>
     </row>
-    <row r="5" spans="1:70" ht="99.95" customHeight="1">
+    <row r="5" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="123"/>
       <c r="B5" s="10"/>
       <c r="C5" s="3"/>
@@ -6389,7 +6385,7 @@
       <c r="BQ5" s="23"/>
       <c r="BR5" s="11"/>
     </row>
-    <row r="6" spans="1:70" ht="99.95" customHeight="1">
+    <row r="6" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="123"/>
       <c r="B6" s="10"/>
       <c r="C6" s="3"/>
@@ -6461,7 +6457,7 @@
       <c r="BQ6" s="23"/>
       <c r="BR6" s="11"/>
     </row>
-    <row r="7" spans="1:70" ht="99.95" customHeight="1">
+    <row r="7" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="123"/>
       <c r="B7" s="10"/>
       <c r="C7" s="3"/>
@@ -6533,7 +6529,7 @@
       <c r="BQ7" s="23"/>
       <c r="BR7" s="11"/>
     </row>
-    <row r="8" spans="1:70" ht="99.95" customHeight="1">
+    <row r="8" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="123"/>
       <c r="B8" s="10"/>
       <c r="C8" s="3"/>
@@ -6605,7 +6601,7 @@
       <c r="BQ8" s="23"/>
       <c r="BR8" s="11"/>
     </row>
-    <row r="9" spans="1:70" ht="99.95" customHeight="1">
+    <row r="9" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="123"/>
       <c r="B9" s="10"/>
       <c r="C9" s="3"/>
@@ -6677,7 +6673,7 @@
       <c r="BQ9" s="23"/>
       <c r="BR9" s="11"/>
     </row>
-    <row r="10" spans="1:70" ht="99.95" customHeight="1">
+    <row r="10" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="123"/>
       <c r="B10" s="10"/>
       <c r="C10" s="3"/>
@@ -6749,7 +6745,7 @@
       <c r="BQ10" s="23"/>
       <c r="BR10" s="11"/>
     </row>
-    <row r="11" spans="1:70" ht="99.95" customHeight="1">
+    <row r="11" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="123"/>
       <c r="B11" s="10"/>
       <c r="C11" s="3"/>
@@ -6821,7 +6817,7 @@
       <c r="BQ11" s="23"/>
       <c r="BR11" s="11"/>
     </row>
-    <row r="12" spans="1:70" ht="99.95" customHeight="1">
+    <row r="12" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="123"/>
       <c r="B12" s="10"/>
       <c r="C12" s="3"/>
@@ -6893,7 +6889,7 @@
       <c r="BQ12" s="23"/>
       <c r="BR12" s="11"/>
     </row>
-    <row r="13" spans="1:70" ht="99.95" customHeight="1">
+    <row r="13" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="123"/>
       <c r="B13" s="10"/>
       <c r="C13" s="3"/>
@@ -6965,7 +6961,7 @@
       <c r="BQ13" s="23"/>
       <c r="BR13" s="11"/>
     </row>
-    <row r="14" spans="1:70" ht="99.95" customHeight="1">
+    <row r="14" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="123"/>
       <c r="B14" s="10"/>
       <c r="C14" s="130"/>
@@ -7037,7 +7033,7 @@
       <c r="BQ14" s="23"/>
       <c r="BR14" s="11"/>
     </row>
-    <row r="15" spans="1:70" ht="99.95" customHeight="1">
+    <row r="15" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="123"/>
       <c r="B15" s="10"/>
       <c r="C15" s="3"/>
@@ -7109,7 +7105,7 @@
       <c r="BQ15" s="23"/>
       <c r="BR15" s="11"/>
     </row>
-    <row r="16" spans="1:70" ht="99.95" customHeight="1">
+    <row r="16" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="123"/>
       <c r="B16" s="10"/>
       <c r="C16" s="3"/>
@@ -7181,7 +7177,7 @@
       <c r="BQ16" s="23"/>
       <c r="BR16" s="11"/>
     </row>
-    <row r="17" spans="1:70" ht="99.95" customHeight="1">
+    <row r="17" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="123"/>
       <c r="B17" s="10"/>
       <c r="C17" s="3"/>
@@ -7253,7 +7249,7 @@
       <c r="BQ17" s="23"/>
       <c r="BR17" s="11"/>
     </row>
-    <row r="18" spans="1:70" ht="99.95" customHeight="1">
+    <row r="18" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="123"/>
       <c r="B18" s="10"/>
       <c r="C18" s="3"/>
@@ -7325,7 +7321,7 @@
       <c r="BQ18" s="23"/>
       <c r="BR18" s="11"/>
     </row>
-    <row r="19" spans="1:70" ht="99.95" customHeight="1">
+    <row r="19" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="123"/>
       <c r="B19" s="10"/>
       <c r="C19" s="3"/>
@@ -7397,7 +7393,7 @@
       <c r="BQ19" s="23"/>
       <c r="BR19" s="11"/>
     </row>
-    <row r="20" spans="1:70" ht="99.95" customHeight="1">
+    <row r="20" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="123"/>
       <c r="B20" s="10"/>
       <c r="C20" s="3"/>
@@ -7469,7 +7465,7 @@
       <c r="BQ20" s="23"/>
       <c r="BR20" s="11"/>
     </row>
-    <row r="21" spans="1:70" ht="99.95" customHeight="1">
+    <row r="21" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="123"/>
       <c r="B21" s="10"/>
       <c r="C21" s="3"/>
@@ -7541,7 +7537,7 @@
       <c r="BQ21" s="23"/>
       <c r="BR21" s="11"/>
     </row>
-    <row r="22" spans="1:70" ht="99.95" customHeight="1">
+    <row r="22" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="123"/>
       <c r="B22" s="10"/>
       <c r="C22" s="3"/>
@@ -7613,7 +7609,7 @@
       <c r="BQ22" s="23"/>
       <c r="BR22" s="11"/>
     </row>
-    <row r="23" spans="1:70" ht="99.95" customHeight="1">
+    <row r="23" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="123"/>
       <c r="B23" s="10"/>
       <c r="C23" s="3"/>
@@ -7685,7 +7681,7 @@
       <c r="BQ23" s="23"/>
       <c r="BR23" s="11"/>
     </row>
-    <row r="24" spans="1:70" ht="99.95" customHeight="1">
+    <row r="24" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="123"/>
       <c r="B24" s="10"/>
       <c r="C24" s="3"/>
@@ -7757,7 +7753,7 @@
       <c r="BQ24" s="23"/>
       <c r="BR24" s="11"/>
     </row>
-    <row r="25" spans="1:70" ht="99.95" customHeight="1">
+    <row r="25" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="123"/>
       <c r="B25" s="10"/>
       <c r="C25" s="3"/>
@@ -7829,7 +7825,7 @@
       <c r="BQ25" s="23"/>
       <c r="BR25" s="11"/>
     </row>
-    <row r="26" spans="1:70" ht="99.95" customHeight="1">
+    <row r="26" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="123"/>
       <c r="B26" s="10"/>
       <c r="C26" s="3"/>
@@ -7901,7 +7897,7 @@
       <c r="BQ26" s="23"/>
       <c r="BR26" s="11"/>
     </row>
-    <row r="27" spans="1:70" ht="99.95" customHeight="1">
+    <row r="27" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="123"/>
       <c r="B27" s="10"/>
       <c r="C27" s="3"/>
@@ -7973,7 +7969,7 @@
       <c r="BQ27" s="23"/>
       <c r="BR27" s="11"/>
     </row>
-    <row r="28" spans="1:70" ht="99.95" customHeight="1">
+    <row r="28" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="123"/>
       <c r="B28" s="10"/>
       <c r="C28" s="3"/>
@@ -8045,7 +8041,7 @@
       <c r="BQ28" s="23"/>
       <c r="BR28" s="11"/>
     </row>
-    <row r="29" spans="1:70" ht="99.95" customHeight="1">
+    <row r="29" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="123"/>
       <c r="B29" s="10"/>
       <c r="C29" s="3"/>
@@ -8117,7 +8113,7 @@
       <c r="BQ29" s="23"/>
       <c r="BR29" s="11"/>
     </row>
-    <row r="30" spans="1:70" ht="99.95" customHeight="1">
+    <row r="30" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="123"/>
       <c r="B30" s="10"/>
       <c r="C30" s="3"/>
@@ -8189,7 +8185,7 @@
       <c r="BQ30" s="23"/>
       <c r="BR30" s="11"/>
     </row>
-    <row r="31" spans="1:70" ht="99.95" customHeight="1">
+    <row r="31" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="123"/>
       <c r="B31" s="10"/>
       <c r="C31" s="3"/>
@@ -8261,7 +8257,7 @@
       <c r="BQ31" s="23"/>
       <c r="BR31" s="11"/>
     </row>
-    <row r="32" spans="1:70" ht="99.95" customHeight="1">
+    <row r="32" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="123"/>
       <c r="B32" s="10"/>
       <c r="C32" s="3"/>
@@ -8333,7 +8329,7 @@
       <c r="BQ32" s="23"/>
       <c r="BR32" s="11"/>
     </row>
-    <row r="33" spans="1:70" ht="99.95" customHeight="1">
+    <row r="33" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="123"/>
       <c r="B33" s="10"/>
       <c r="C33" s="3"/>
@@ -8405,7 +8401,7 @@
       <c r="BQ33" s="23"/>
       <c r="BR33" s="11"/>
     </row>
-    <row r="34" spans="1:70" ht="99.95" customHeight="1">
+    <row r="34" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="123"/>
       <c r="B34" s="10"/>
       <c r="C34" s="3"/>
@@ -8477,7 +8473,7 @@
       <c r="BQ34" s="23"/>
       <c r="BR34" s="11"/>
     </row>
-    <row r="35" spans="1:70" ht="99.95" customHeight="1">
+    <row r="35" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="123"/>
       <c r="B35" s="10"/>
       <c r="C35" s="3"/>
@@ -8549,7 +8545,7 @@
       <c r="BQ35" s="23"/>
       <c r="BR35" s="11"/>
     </row>
-    <row r="36" spans="1:70" ht="99.95" customHeight="1">
+    <row r="36" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="123"/>
       <c r="B36" s="10"/>
       <c r="C36" s="3"/>
@@ -8621,7 +8617,7 @@
       <c r="BQ36" s="23"/>
       <c r="BR36" s="11"/>
     </row>
-    <row r="37" spans="1:70" ht="99.95" customHeight="1">
+    <row r="37" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="123"/>
       <c r="B37" s="10"/>
       <c r="C37" s="3"/>
@@ -8693,7 +8689,7 @@
       <c r="BQ37" s="23"/>
       <c r="BR37" s="11"/>
     </row>
-    <row r="38" spans="1:70" ht="99.95" customHeight="1">
+    <row r="38" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="123"/>
       <c r="B38" s="10"/>
       <c r="C38" s="3"/>
@@ -8765,7 +8761,7 @@
       <c r="BQ38" s="23"/>
       <c r="BR38" s="11"/>
     </row>
-    <row r="39" spans="1:70" ht="99.95" customHeight="1">
+    <row r="39" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="123"/>
       <c r="B39" s="10"/>
       <c r="C39" s="3"/>
@@ -8837,7 +8833,7 @@
       <c r="BQ39" s="23"/>
       <c r="BR39" s="11"/>
     </row>
-    <row r="40" spans="1:70" ht="99.95" customHeight="1">
+    <row r="40" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="123"/>
       <c r="B40" s="10"/>
       <c r="C40" s="3"/>
@@ -8909,7 +8905,7 @@
       <c r="BQ40" s="23"/>
       <c r="BR40" s="11"/>
     </row>
-    <row r="41" spans="1:70" ht="99.95" customHeight="1">
+    <row r="41" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="123"/>
       <c r="B41" s="10"/>
       <c r="C41" s="3"/>
@@ -8981,7 +8977,7 @@
       <c r="BQ41" s="23"/>
       <c r="BR41" s="11"/>
     </row>
-    <row r="42" spans="1:70" ht="99.95" customHeight="1">
+    <row r="42" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="123"/>
       <c r="B42" s="10"/>
       <c r="C42" s="3"/>
@@ -9053,7 +9049,7 @@
       <c r="BQ42" s="23"/>
       <c r="BR42" s="11"/>
     </row>
-    <row r="43" spans="1:70" ht="99.95" customHeight="1">
+    <row r="43" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="123"/>
       <c r="B43" s="10"/>
       <c r="C43" s="3"/>
@@ -9125,7 +9121,7 @@
       <c r="BQ43" s="23"/>
       <c r="BR43" s="11"/>
     </row>
-    <row r="44" spans="1:70" ht="99.95" customHeight="1">
+    <row r="44" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="123"/>
       <c r="B44" s="10"/>
       <c r="C44" s="3"/>
@@ -9197,7 +9193,7 @@
       <c r="BQ44" s="23"/>
       <c r="BR44" s="11"/>
     </row>
-    <row r="45" spans="1:70" ht="99.95" customHeight="1">
+    <row r="45" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="123"/>
       <c r="B45" s="10"/>
       <c r="C45" s="3"/>
@@ -9269,7 +9265,7 @@
       <c r="BQ45" s="23"/>
       <c r="BR45" s="11"/>
     </row>
-    <row r="46" spans="1:70" ht="99.95" customHeight="1">
+    <row r="46" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="123"/>
       <c r="B46" s="10"/>
       <c r="C46" s="3"/>
@@ -9341,7 +9337,7 @@
       <c r="BQ46" s="23"/>
       <c r="BR46" s="11"/>
     </row>
-    <row r="47" spans="1:70" ht="99.95" customHeight="1">
+    <row r="47" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="123"/>
       <c r="B47" s="10"/>
       <c r="C47" s="3"/>
@@ -9413,7 +9409,7 @@
       <c r="BQ47" s="23"/>
       <c r="BR47" s="11"/>
     </row>
-    <row r="48" spans="1:70" ht="99.95" customHeight="1">
+    <row r="48" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="123"/>
       <c r="B48" s="10"/>
       <c r="C48" s="3"/>
@@ -9485,7 +9481,7 @@
       <c r="BQ48" s="23"/>
       <c r="BR48" s="11"/>
     </row>
-    <row r="49" spans="1:70" ht="99.95" customHeight="1">
+    <row r="49" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="123"/>
       <c r="B49" s="10"/>
       <c r="C49" s="3"/>
@@ -9557,7 +9553,7 @@
       <c r="BQ49" s="23"/>
       <c r="BR49" s="11"/>
     </row>
-    <row r="50" spans="1:70" ht="99.95" customHeight="1">
+    <row r="50" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="123"/>
       <c r="B50" s="10"/>
       <c r="C50" s="3"/>
@@ -9629,7 +9625,7 @@
       <c r="BQ50" s="23"/>
       <c r="BR50" s="11"/>
     </row>
-    <row r="51" spans="1:70" ht="99.95" customHeight="1">
+    <row r="51" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="123"/>
       <c r="B51" s="10"/>
       <c r="C51" s="3"/>
@@ -9701,7 +9697,7 @@
       <c r="BQ51" s="23"/>
       <c r="BR51" s="11"/>
     </row>
-    <row r="52" spans="1:70" ht="99.95" customHeight="1">
+    <row r="52" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="123"/>
       <c r="B52" s="10"/>
       <c r="C52" s="3"/>
@@ -9773,7 +9769,7 @@
       <c r="BQ52" s="23"/>
       <c r="BR52" s="11"/>
     </row>
-    <row r="53" spans="1:70" ht="99.95" customHeight="1">
+    <row r="53" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="123"/>
       <c r="B53" s="10"/>
       <c r="C53" s="3"/>
@@ -9845,7 +9841,7 @@
       <c r="BQ53" s="23"/>
       <c r="BR53" s="11"/>
     </row>
-    <row r="54" spans="1:70" ht="99.95" customHeight="1">
+    <row r="54" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="123"/>
       <c r="B54" s="10"/>
       <c r="C54" s="3"/>
@@ -9917,7 +9913,7 @@
       <c r="BQ54" s="23"/>
       <c r="BR54" s="11"/>
     </row>
-    <row r="55" spans="1:70" ht="99.95" customHeight="1">
+    <row r="55" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="123"/>
       <c r="B55" s="10"/>
       <c r="C55" s="3"/>
@@ -9989,7 +9985,7 @@
       <c r="BQ55" s="23"/>
       <c r="BR55" s="11"/>
     </row>
-    <row r="56" spans="1:70" ht="99.95" customHeight="1">
+    <row r="56" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="123"/>
       <c r="B56" s="10"/>
       <c r="C56" s="3"/>
@@ -10061,7 +10057,7 @@
       <c r="BQ56" s="23"/>
       <c r="BR56" s="11"/>
     </row>
-    <row r="57" spans="1:70" ht="99.95" customHeight="1">
+    <row r="57" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="123"/>
       <c r="B57" s="10"/>
       <c r="C57" s="3"/>
@@ -10133,7 +10129,7 @@
       <c r="BQ57" s="23"/>
       <c r="BR57" s="11"/>
     </row>
-    <row r="58" spans="1:70" ht="99.95" customHeight="1">
+    <row r="58" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="123"/>
       <c r="B58" s="10"/>
       <c r="C58" s="3"/>
@@ -10205,7 +10201,7 @@
       <c r="BQ58" s="23"/>
       <c r="BR58" s="11"/>
     </row>
-    <row r="59" spans="1:70" ht="99.95" customHeight="1">
+    <row r="59" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="123"/>
       <c r="B59" s="10"/>
       <c r="C59" s="3"/>
@@ -10277,7 +10273,7 @@
       <c r="BQ59" s="23"/>
       <c r="BR59" s="11"/>
     </row>
-    <row r="60" spans="1:70" ht="99.95" customHeight="1">
+    <row r="60" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="123"/>
       <c r="B60" s="10"/>
       <c r="C60" s="3"/>
@@ -10349,7 +10345,7 @@
       <c r="BQ60" s="23"/>
       <c r="BR60" s="11"/>
     </row>
-    <row r="61" spans="1:70" ht="99.95" customHeight="1">
+    <row r="61" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="123"/>
       <c r="B61" s="10"/>
       <c r="C61" s="3"/>
@@ -10421,7 +10417,7 @@
       <c r="BQ61" s="23"/>
       <c r="BR61" s="11"/>
     </row>
-    <row r="62" spans="1:70" ht="99.95" customHeight="1">
+    <row r="62" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="123"/>
       <c r="B62" s="10"/>
       <c r="C62" s="3"/>
@@ -10493,7 +10489,7 @@
       <c r="BQ62" s="23"/>
       <c r="BR62" s="11"/>
     </row>
-    <row r="63" spans="1:70" ht="99.95" customHeight="1">
+    <row r="63" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="123"/>
       <c r="B63" s="10"/>
       <c r="C63" s="3"/>
@@ -10565,7 +10561,7 @@
       <c r="BQ63" s="23"/>
       <c r="BR63" s="11"/>
     </row>
-    <row r="64" spans="1:70" ht="99.95" customHeight="1">
+    <row r="64" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="123"/>
       <c r="B64" s="10"/>
       <c r="C64" s="3"/>
@@ -10637,7 +10633,7 @@
       <c r="BQ64" s="23"/>
       <c r="BR64" s="11"/>
     </row>
-    <row r="65" spans="1:70" ht="99.95" customHeight="1">
+    <row r="65" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="123"/>
       <c r="B65" s="10"/>
       <c r="C65" s="3"/>
@@ -10709,7 +10705,7 @@
       <c r="BQ65" s="23"/>
       <c r="BR65" s="11"/>
     </row>
-    <row r="66" spans="1:70" ht="99.95" customHeight="1">
+    <row r="66" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="123"/>
       <c r="B66" s="10"/>
       <c r="C66" s="3"/>
@@ -10781,7 +10777,7 @@
       <c r="BQ66" s="23"/>
       <c r="BR66" s="11"/>
     </row>
-    <row r="67" spans="1:70" ht="99.95" customHeight="1">
+    <row r="67" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="123"/>
       <c r="B67" s="10"/>
       <c r="C67" s="3"/>
@@ -10853,7 +10849,7 @@
       <c r="BQ67" s="23"/>
       <c r="BR67" s="11"/>
     </row>
-    <row r="68" spans="1:70" ht="99.95" customHeight="1">
+    <row r="68" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="123"/>
       <c r="B68" s="10"/>
       <c r="C68" s="3"/>
@@ -10925,7 +10921,7 @@
       <c r="BQ68" s="23"/>
       <c r="BR68" s="11"/>
     </row>
-    <row r="69" spans="1:70" ht="99.95" customHeight="1">
+    <row r="69" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="123"/>
       <c r="B69" s="10"/>
       <c r="C69" s="3"/>
@@ -10997,7 +10993,7 @@
       <c r="BQ69" s="23"/>
       <c r="BR69" s="11"/>
     </row>
-    <row r="70" spans="1:70" ht="99.95" customHeight="1">
+    <row r="70" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="123"/>
       <c r="B70" s="10"/>
       <c r="C70" s="3"/>
@@ -11069,7 +11065,7 @@
       <c r="BQ70" s="23"/>
       <c r="BR70" s="11"/>
     </row>
-    <row r="71" spans="1:70" ht="99.95" customHeight="1">
+    <row r="71" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="123"/>
       <c r="B71" s="10"/>
       <c r="C71" s="3"/>
@@ -11141,7 +11137,7 @@
       <c r="BQ71" s="23"/>
       <c r="BR71" s="11"/>
     </row>
-    <row r="72" spans="1:70" ht="99.95" customHeight="1">
+    <row r="72" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="123"/>
       <c r="B72" s="10"/>
       <c r="C72" s="3"/>
@@ -11213,7 +11209,7 @@
       <c r="BQ72" s="23"/>
       <c r="BR72" s="11"/>
     </row>
-    <row r="73" spans="1:70" ht="99.95" customHeight="1">
+    <row r="73" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="123"/>
       <c r="B73" s="10"/>
       <c r="C73" s="3"/>
@@ -11285,7 +11281,7 @@
       <c r="BQ73" s="23"/>
       <c r="BR73" s="11"/>
     </row>
-    <row r="74" spans="1:70" ht="99.95" customHeight="1">
+    <row r="74" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="123"/>
       <c r="B74" s="10"/>
       <c r="C74" s="3"/>
@@ -11357,7 +11353,7 @@
       <c r="BQ74" s="23"/>
       <c r="BR74" s="11"/>
     </row>
-    <row r="75" spans="1:70" ht="99.95" customHeight="1">
+    <row r="75" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="123"/>
       <c r="B75" s="10"/>
       <c r="C75" s="3"/>
@@ -11429,7 +11425,7 @@
       <c r="BQ75" s="23"/>
       <c r="BR75" s="11"/>
     </row>
-    <row r="76" spans="1:70" ht="99.95" customHeight="1">
+    <row r="76" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="123"/>
       <c r="B76" s="10"/>
       <c r="C76" s="3"/>
@@ -11501,7 +11497,7 @@
       <c r="BQ76" s="23"/>
       <c r="BR76" s="11"/>
     </row>
-    <row r="77" spans="1:70" ht="99.95" customHeight="1">
+    <row r="77" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="123"/>
       <c r="B77" s="10"/>
       <c r="C77" s="3"/>
@@ -11573,7 +11569,7 @@
       <c r="BQ77" s="23"/>
       <c r="BR77" s="11"/>
     </row>
-    <row r="78" spans="1:70" ht="99.95" customHeight="1">
+    <row r="78" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="123"/>
       <c r="B78" s="10"/>
       <c r="C78" s="3"/>
@@ -11645,7 +11641,7 @@
       <c r="BQ78" s="23"/>
       <c r="BR78" s="11"/>
     </row>
-    <row r="79" spans="1:70" ht="99.95" customHeight="1">
+    <row r="79" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="123"/>
       <c r="B79" s="10"/>
       <c r="C79" s="3"/>
@@ -11717,7 +11713,7 @@
       <c r="BQ79" s="23"/>
       <c r="BR79" s="11"/>
     </row>
-    <row r="80" spans="1:70" ht="99.95" customHeight="1">
+    <row r="80" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="123"/>
       <c r="B80" s="10"/>
       <c r="C80" s="3"/>
@@ -11789,7 +11785,7 @@
       <c r="BQ80" s="23"/>
       <c r="BR80" s="11"/>
     </row>
-    <row r="81" spans="1:70" ht="99.95" customHeight="1">
+    <row r="81" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="123"/>
       <c r="B81" s="10"/>
       <c r="C81" s="3"/>
@@ -11861,7 +11857,7 @@
       <c r="BQ81" s="23"/>
       <c r="BR81" s="11"/>
     </row>
-    <row r="82" spans="1:70" ht="99.95" customHeight="1">
+    <row r="82" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="123"/>
       <c r="B82" s="10"/>
       <c r="C82" s="3"/>
@@ -11933,7 +11929,7 @@
       <c r="BQ82" s="23"/>
       <c r="BR82" s="11"/>
     </row>
-    <row r="83" spans="1:70" ht="99.95" customHeight="1">
+    <row r="83" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="123"/>
       <c r="B83" s="10"/>
       <c r="C83" s="3"/>
@@ -12005,7 +12001,7 @@
       <c r="BQ83" s="96"/>
       <c r="BR83" s="98"/>
     </row>
-    <row r="84" spans="1:70" ht="99.95" customHeight="1">
+    <row r="84" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="123"/>
       <c r="B84" s="10"/>
       <c r="C84" s="3"/>
@@ -12077,7 +12073,7 @@
       <c r="BQ84" s="23"/>
       <c r="BR84" s="11"/>
     </row>
-    <row r="85" spans="1:70" ht="99.95" customHeight="1">
+    <row r="85" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="123"/>
       <c r="B85" s="10"/>
       <c r="C85" s="3"/>
@@ -12149,7 +12145,7 @@
       <c r="BQ85" s="23"/>
       <c r="BR85" s="11"/>
     </row>
-    <row r="86" spans="1:70" ht="99.95" customHeight="1">
+    <row r="86" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="123"/>
       <c r="B86" s="10"/>
       <c r="C86" s="3"/>
@@ -12221,7 +12217,7 @@
       <c r="BQ86" s="23"/>
       <c r="BR86" s="11"/>
     </row>
-    <row r="87" spans="1:70" ht="99.95" customHeight="1">
+    <row r="87" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="123"/>
       <c r="B87" s="10"/>
       <c r="C87" s="3"/>
@@ -12293,7 +12289,7 @@
       <c r="BQ87" s="23"/>
       <c r="BR87" s="11"/>
     </row>
-    <row r="88" spans="1:70" ht="99.95" customHeight="1">
+    <row r="88" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="123"/>
       <c r="B88" s="10"/>
       <c r="C88" s="3"/>
@@ -12365,7 +12361,7 @@
       <c r="BQ88" s="23"/>
       <c r="BR88" s="11"/>
     </row>
-    <row r="89" spans="1:70" ht="99.95" customHeight="1">
+    <row r="89" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="123"/>
       <c r="B89" s="10"/>
       <c r="C89" s="3"/>
@@ -12437,7 +12433,7 @@
       <c r="BQ89" s="23"/>
       <c r="BR89" s="11"/>
     </row>
-    <row r="90" spans="1:70" ht="99.95" customHeight="1">
+    <row r="90" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="123"/>
       <c r="B90" s="10"/>
       <c r="C90" s="3"/>
@@ -12509,7 +12505,7 @@
       <c r="BQ90" s="23"/>
       <c r="BR90" s="11"/>
     </row>
-    <row r="91" spans="1:70" ht="99.95" customHeight="1">
+    <row r="91" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="123"/>
       <c r="B91" s="10"/>
       <c r="C91" s="3"/>
@@ -12581,7 +12577,7 @@
       <c r="BQ91" s="23"/>
       <c r="BR91" s="11"/>
     </row>
-    <row r="92" spans="1:70" ht="99.95" customHeight="1">
+    <row r="92" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="123"/>
       <c r="B92" s="10"/>
       <c r="C92" s="3"/>
@@ -12653,7 +12649,7 @@
       <c r="BQ92" s="23"/>
       <c r="BR92" s="11"/>
     </row>
-    <row r="93" spans="1:70" ht="99.95" customHeight="1">
+    <row r="93" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="123"/>
       <c r="B93" s="10"/>
       <c r="C93" s="3"/>
@@ -12725,7 +12721,7 @@
       <c r="BQ93" s="23"/>
       <c r="BR93" s="11"/>
     </row>
-    <row r="94" spans="1:70" ht="99.95" customHeight="1">
+    <row r="94" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="123"/>
       <c r="B94" s="10"/>
       <c r="C94" s="3"/>
@@ -12797,7 +12793,7 @@
       <c r="BQ94" s="23"/>
       <c r="BR94" s="11"/>
     </row>
-    <row r="95" spans="1:70" ht="99.95" customHeight="1">
+    <row r="95" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="123"/>
       <c r="B95" s="10"/>
       <c r="C95" s="3"/>
@@ -12869,7 +12865,7 @@
       <c r="BQ95" s="23"/>
       <c r="BR95" s="11"/>
     </row>
-    <row r="96" spans="1:70" ht="99.95" customHeight="1">
+    <row r="96" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="123"/>
       <c r="B96" s="10"/>
       <c r="C96" s="3"/>
@@ -12941,7 +12937,7 @@
       <c r="BQ96" s="23"/>
       <c r="BR96" s="11"/>
     </row>
-    <row r="97" spans="1:70" ht="99.95" customHeight="1">
+    <row r="97" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="123"/>
       <c r="B97" s="10"/>
       <c r="C97" s="3"/>
@@ -13013,7 +13009,7 @@
       <c r="BQ97" s="23"/>
       <c r="BR97" s="11"/>
     </row>
-    <row r="98" spans="1:70" ht="99.95" customHeight="1">
+    <row r="98" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="123"/>
       <c r="B98" s="10"/>
       <c r="C98" s="3"/>
@@ -13085,7 +13081,7 @@
       <c r="BQ98" s="23"/>
       <c r="BR98" s="11"/>
     </row>
-    <row r="99" spans="1:70" ht="99.95" customHeight="1">
+    <row r="99" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="123"/>
       <c r="B99" s="10"/>
       <c r="C99" s="3"/>
@@ -13157,7 +13153,7 @@
       <c r="BQ99" s="23"/>
       <c r="BR99" s="11"/>
     </row>
-    <row r="100" spans="1:70" ht="99.95" customHeight="1">
+    <row r="100" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="123"/>
       <c r="B100" s="10"/>
       <c r="C100" s="3"/>
@@ -13229,7 +13225,7 @@
       <c r="BQ100" s="23"/>
       <c r="BR100" s="11"/>
     </row>
-    <row r="101" spans="1:70" ht="99.95" customHeight="1">
+    <row r="101" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="123"/>
       <c r="B101" s="10"/>
       <c r="C101" s="3"/>
@@ -13301,7 +13297,7 @@
       <c r="BQ101" s="23"/>
       <c r="BR101" s="11"/>
     </row>
-    <row r="102" spans="1:70" ht="99.95" customHeight="1">
+    <row r="102" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="123"/>
       <c r="B102" s="10"/>
       <c r="C102" s="3"/>
@@ -13373,7 +13369,7 @@
       <c r="BQ102" s="23"/>
       <c r="BR102" s="11"/>
     </row>
-    <row r="103" spans="1:70" ht="99.95" customHeight="1">
+    <row r="103" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="123"/>
       <c r="B103" s="10"/>
       <c r="C103" s="3"/>
@@ -13445,7 +13441,7 @@
       <c r="BQ103" s="23"/>
       <c r="BR103" s="11"/>
     </row>
-    <row r="104" spans="1:70" ht="99.95" customHeight="1">
+    <row r="104" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="123"/>
       <c r="B104" s="10"/>
       <c r="C104" s="3"/>
@@ -13517,7 +13513,7 @@
       <c r="BQ104" s="23"/>
       <c r="BR104" s="11"/>
     </row>
-    <row r="105" spans="1:70" ht="99.95" customHeight="1">
+    <row r="105" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="123"/>
       <c r="B105" s="10"/>
       <c r="C105" s="3"/>
@@ -13589,7 +13585,7 @@
       <c r="BQ105" s="23"/>
       <c r="BR105" s="11"/>
     </row>
-    <row r="106" spans="1:70" ht="99.95" customHeight="1">
+    <row r="106" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="123"/>
       <c r="B106" s="10"/>
       <c r="C106" s="3"/>
@@ -13661,7 +13657,7 @@
       <c r="BQ106" s="23"/>
       <c r="BR106" s="11"/>
     </row>
-    <row r="107" spans="1:70" ht="99.95" customHeight="1">
+    <row r="107" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="123"/>
       <c r="B107" s="10"/>
       <c r="C107" s="3"/>
@@ -13733,7 +13729,7 @@
       <c r="BQ107" s="23"/>
       <c r="BR107" s="11"/>
     </row>
-    <row r="108" spans="1:70" ht="99.95" customHeight="1">
+    <row r="108" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="123"/>
       <c r="B108" s="10"/>
       <c r="C108" s="3"/>
@@ -13805,7 +13801,7 @@
       <c r="BQ108" s="23"/>
       <c r="BR108" s="11"/>
     </row>
-    <row r="109" spans="1:70" ht="99.95" customHeight="1">
+    <row r="109" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="123"/>
       <c r="B109" s="10"/>
       <c r="C109" s="3"/>
@@ -13877,7 +13873,7 @@
       <c r="BQ109" s="23"/>
       <c r="BR109" s="11"/>
     </row>
-    <row r="110" spans="1:70" ht="99.95" customHeight="1">
+    <row r="110" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="123"/>
       <c r="B110" s="10"/>
       <c r="C110" s="3"/>
@@ -13949,7 +13945,7 @@
       <c r="BQ110" s="23"/>
       <c r="BR110" s="11"/>
     </row>
-    <row r="111" spans="1:70" ht="99.95" customHeight="1">
+    <row r="111" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="123"/>
       <c r="B111" s="10"/>
       <c r="C111" s="3"/>
@@ -14021,7 +14017,7 @@
       <c r="BQ111" s="23"/>
       <c r="BR111" s="11"/>
     </row>
-    <row r="112" spans="1:70" ht="99.95" customHeight="1">
+    <row r="112" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="123"/>
       <c r="B112" s="10"/>
       <c r="C112" s="3"/>
@@ -14093,7 +14089,7 @@
       <c r="BQ112" s="23"/>
       <c r="BR112" s="11"/>
     </row>
-    <row r="113" spans="1:70" ht="99.95" customHeight="1">
+    <row r="113" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="123"/>
       <c r="B113" s="10"/>
       <c r="C113" s="3"/>
@@ -14165,7 +14161,7 @@
       <c r="BQ113" s="23"/>
       <c r="BR113" s="11"/>
     </row>
-    <row r="114" spans="1:70" ht="99.95" customHeight="1">
+    <row r="114" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="123"/>
       <c r="B114" s="10"/>
       <c r="C114" s="3"/>
@@ -14237,7 +14233,7 @@
       <c r="BQ114" s="23"/>
       <c r="BR114" s="11"/>
     </row>
-    <row r="115" spans="1:70" ht="99.95" customHeight="1">
+    <row r="115" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="123"/>
       <c r="B115" s="10"/>
       <c r="C115" s="3"/>
@@ -14309,7 +14305,7 @@
       <c r="BQ115" s="23"/>
       <c r="BR115" s="11"/>
     </row>
-    <row r="116" spans="1:70" ht="99.95" customHeight="1">
+    <row r="116" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="123"/>
       <c r="B116" s="10"/>
       <c r="C116" s="3"/>
@@ -14381,7 +14377,7 @@
       <c r="BQ116" s="23"/>
       <c r="BR116" s="11"/>
     </row>
-    <row r="117" spans="1:70" ht="99.95" customHeight="1">
+    <row r="117" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="123"/>
       <c r="B117" s="10"/>
       <c r="C117" s="3"/>
@@ -14453,7 +14449,7 @@
       <c r="BQ117" s="23"/>
       <c r="BR117" s="11"/>
     </row>
-    <row r="118" spans="1:70" ht="99.95" customHeight="1">
+    <row r="118" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="123"/>
       <c r="B118" s="10"/>
       <c r="C118" s="3"/>
@@ -14525,7 +14521,7 @@
       <c r="BQ118" s="23"/>
       <c r="BR118" s="11"/>
     </row>
-    <row r="119" spans="1:70" ht="99.95" customHeight="1">
+    <row r="119" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="123"/>
       <c r="B119" s="10"/>
       <c r="C119" s="3"/>
@@ -14597,7 +14593,7 @@
       <c r="BQ119" s="23"/>
       <c r="BR119" s="11"/>
     </row>
-    <row r="120" spans="1:70" ht="99.95" customHeight="1">
+    <row r="120" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="123"/>
       <c r="B120" s="10"/>
       <c r="C120" s="3"/>
@@ -14669,7 +14665,7 @@
       <c r="BQ120" s="23"/>
       <c r="BR120" s="11"/>
     </row>
-    <row r="121" spans="1:70" ht="99.95" customHeight="1">
+    <row r="121" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="123"/>
       <c r="B121" s="10"/>
       <c r="C121" s="3"/>
@@ -14741,7 +14737,7 @@
       <c r="BQ121" s="23"/>
       <c r="BR121" s="11"/>
     </row>
-    <row r="122" spans="1:70" ht="99.95" customHeight="1">
+    <row r="122" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="123"/>
       <c r="B122" s="10"/>
       <c r="C122" s="3"/>
@@ -14813,7 +14809,7 @@
       <c r="BQ122" s="23"/>
       <c r="BR122" s="11"/>
     </row>
-    <row r="123" spans="1:70" ht="99.95" customHeight="1">
+    <row r="123" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="123"/>
       <c r="B123" s="10"/>
       <c r="C123" s="3"/>
@@ -14885,7 +14881,7 @@
       <c r="BQ123" s="23"/>
       <c r="BR123" s="11"/>
     </row>
-    <row r="124" spans="1:70" ht="99.95" customHeight="1">
+    <row r="124" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="123"/>
       <c r="B124" s="10"/>
       <c r="C124" s="3"/>
@@ -14957,7 +14953,7 @@
       <c r="BQ124" s="23"/>
       <c r="BR124" s="11"/>
     </row>
-    <row r="125" spans="1:70" ht="99.95" customHeight="1">
+    <row r="125" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="123"/>
       <c r="B125" s="10"/>
       <c r="C125" s="3"/>
@@ -15029,7 +15025,7 @@
       <c r="BQ125" s="23"/>
       <c r="BR125" s="11"/>
     </row>
-    <row r="126" spans="1:70" ht="99.95" customHeight="1">
+    <row r="126" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="123"/>
       <c r="B126" s="10"/>
       <c r="C126" s="3"/>
@@ -15101,7 +15097,7 @@
       <c r="BQ126" s="23"/>
       <c r="BR126" s="11"/>
     </row>
-    <row r="127" spans="1:70" ht="99.95" customHeight="1">
+    <row r="127" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="123"/>
       <c r="B127" s="10"/>
       <c r="C127" s="3"/>
@@ -15173,7 +15169,7 @@
       <c r="BQ127" s="23"/>
       <c r="BR127" s="11"/>
     </row>
-    <row r="128" spans="1:70" ht="99.95" customHeight="1">
+    <row r="128" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="123"/>
       <c r="B128" s="10"/>
       <c r="C128" s="3"/>
@@ -15245,7 +15241,7 @@
       <c r="BQ128" s="23"/>
       <c r="BR128" s="11"/>
     </row>
-    <row r="129" spans="1:70" ht="99.95" customHeight="1">
+    <row r="129" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="123"/>
       <c r="B129" s="10"/>
       <c r="C129" s="3"/>
@@ -15317,7 +15313,7 @@
       <c r="BQ129" s="23"/>
       <c r="BR129" s="11"/>
     </row>
-    <row r="130" spans="1:70" ht="99.95" customHeight="1">
+    <row r="130" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="123"/>
       <c r="B130" s="10"/>
       <c r="C130" s="3"/>
@@ -15389,7 +15385,7 @@
       <c r="BQ130" s="23"/>
       <c r="BR130" s="11"/>
     </row>
-    <row r="131" spans="1:70" ht="99.95" customHeight="1">
+    <row r="131" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="123"/>
       <c r="B131" s="10"/>
       <c r="C131" s="3"/>
@@ -15461,7 +15457,7 @@
       <c r="BQ131" s="23"/>
       <c r="BR131" s="11"/>
     </row>
-    <row r="132" spans="1:70" ht="99.95" customHeight="1">
+    <row r="132" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="123"/>
       <c r="B132" s="10"/>
       <c r="C132" s="3"/>
@@ -15533,7 +15529,7 @@
       <c r="BQ132" s="23"/>
       <c r="BR132" s="11"/>
     </row>
-    <row r="133" spans="1:70" ht="99.95" customHeight="1">
+    <row r="133" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="123"/>
       <c r="B133" s="10"/>
       <c r="C133" s="3"/>
@@ -15605,7 +15601,7 @@
       <c r="BQ133" s="23"/>
       <c r="BR133" s="11"/>
     </row>
-    <row r="134" spans="1:70" ht="99.95" customHeight="1">
+    <row r="134" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="123"/>
       <c r="B134" s="10"/>
       <c r="C134" s="3"/>
@@ -15677,7 +15673,7 @@
       <c r="BQ134" s="23"/>
       <c r="BR134" s="11"/>
     </row>
-    <row r="135" spans="1:70" ht="99.95" customHeight="1">
+    <row r="135" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="123"/>
       <c r="B135" s="10"/>
       <c r="C135" s="3"/>
@@ -15749,7 +15745,7 @@
       <c r="BQ135" s="23"/>
       <c r="BR135" s="11"/>
     </row>
-    <row r="136" spans="1:70" ht="99.95" customHeight="1">
+    <row r="136" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="123"/>
       <c r="B136" s="10"/>
       <c r="C136" s="3"/>
@@ -15821,7 +15817,7 @@
       <c r="BQ136" s="23"/>
       <c r="BR136" s="11"/>
     </row>
-    <row r="137" spans="1:70" ht="99.95" customHeight="1">
+    <row r="137" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="123"/>
       <c r="B137" s="10"/>
       <c r="C137" s="3"/>
@@ -15893,7 +15889,7 @@
       <c r="BQ137" s="23"/>
       <c r="BR137" s="11"/>
     </row>
-    <row r="138" spans="1:70" ht="99.95" customHeight="1">
+    <row r="138" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="123"/>
       <c r="B138" s="10"/>
       <c r="C138" s="3"/>
@@ -15965,7 +15961,7 @@
       <c r="BQ138" s="23"/>
       <c r="BR138" s="11"/>
     </row>
-    <row r="139" spans="1:70" ht="99.95" customHeight="1">
+    <row r="139" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="123"/>
       <c r="B139" s="10"/>
       <c r="C139" s="3"/>
@@ -16037,7 +16033,7 @@
       <c r="BQ139" s="23"/>
       <c r="BR139" s="11"/>
     </row>
-    <row r="140" spans="1:70" ht="99.95" customHeight="1">
+    <row r="140" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="123"/>
       <c r="B140" s="10"/>
       <c r="C140" s="3"/>
@@ -16109,7 +16105,7 @@
       <c r="BQ140" s="23"/>
       <c r="BR140" s="11"/>
     </row>
-    <row r="141" spans="1:70" ht="99.95" customHeight="1">
+    <row r="141" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="123"/>
       <c r="B141" s="10"/>
       <c r="C141" s="3"/>
@@ -16181,7 +16177,7 @@
       <c r="BQ141" s="23"/>
       <c r="BR141" s="11"/>
     </row>
-    <row r="142" spans="1:70" ht="99.95" customHeight="1">
+    <row r="142" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="123"/>
       <c r="B142" s="10"/>
       <c r="C142" s="3"/>
@@ -16253,7 +16249,7 @@
       <c r="BQ142" s="23"/>
       <c r="BR142" s="11"/>
     </row>
-    <row r="143" spans="1:70" ht="99.95" customHeight="1">
+    <row r="143" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="123"/>
       <c r="B143" s="10"/>
       <c r="C143" s="3"/>
@@ -16325,7 +16321,7 @@
       <c r="BQ143" s="23"/>
       <c r="BR143" s="11"/>
     </row>
-    <row r="144" spans="1:70" ht="99.95" customHeight="1">
+    <row r="144" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="123"/>
       <c r="B144" s="10"/>
       <c r="C144" s="3"/>
@@ -16397,7 +16393,7 @@
       <c r="BQ144" s="23"/>
       <c r="BR144" s="11"/>
     </row>
-    <row r="145" spans="1:70" ht="99.95" customHeight="1">
+    <row r="145" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="123"/>
       <c r="B145" s="10"/>
       <c r="C145" s="3"/>
@@ -16469,7 +16465,7 @@
       <c r="BQ145" s="23"/>
       <c r="BR145" s="11"/>
     </row>
-    <row r="146" spans="1:70" ht="99.95" customHeight="1">
+    <row r="146" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="123"/>
       <c r="B146" s="10"/>
       <c r="C146" s="3"/>
@@ -16541,7 +16537,7 @@
       <c r="BQ146" s="23"/>
       <c r="BR146" s="11"/>
     </row>
-    <row r="147" spans="1:70" ht="99.95" customHeight="1">
+    <row r="147" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="123"/>
       <c r="B147" s="10"/>
       <c r="C147" s="3"/>
@@ -16613,7 +16609,7 @@
       <c r="BQ147" s="23"/>
       <c r="BR147" s="11"/>
     </row>
-    <row r="148" spans="1:70" ht="99.95" customHeight="1">
+    <row r="148" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="123"/>
       <c r="B148" s="10"/>
       <c r="C148" s="3"/>
@@ -16685,7 +16681,7 @@
       <c r="BQ148" s="23"/>
       <c r="BR148" s="11"/>
     </row>
-    <row r="149" spans="1:70" ht="99.95" customHeight="1">
+    <row r="149" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="123"/>
       <c r="B149" s="10"/>
       <c r="C149" s="3"/>
@@ -16757,7 +16753,7 @@
       <c r="BQ149" s="23"/>
       <c r="BR149" s="11"/>
     </row>
-    <row r="150" spans="1:70" ht="99.95" customHeight="1">
+    <row r="150" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="123"/>
       <c r="B150" s="10"/>
       <c r="C150" s="3"/>
@@ -16829,7 +16825,7 @@
       <c r="BQ150" s="23"/>
       <c r="BR150" s="11"/>
     </row>
-    <row r="151" spans="1:70" ht="99.95" customHeight="1">
+    <row r="151" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="123"/>
       <c r="B151" s="10"/>
       <c r="C151" s="3"/>
@@ -16901,7 +16897,7 @@
       <c r="BQ151" s="23"/>
       <c r="BR151" s="11"/>
     </row>
-    <row r="152" spans="1:70" ht="99.95" customHeight="1">
+    <row r="152" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="123"/>
       <c r="B152" s="10"/>
       <c r="C152" s="3"/>
@@ -16973,7 +16969,7 @@
       <c r="BQ152" s="23"/>
       <c r="BR152" s="11"/>
     </row>
-    <row r="153" spans="1:70" ht="99.95" customHeight="1">
+    <row r="153" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="123"/>
       <c r="B153" s="10"/>
       <c r="C153" s="3"/>
@@ -17045,7 +17041,7 @@
       <c r="BQ153" s="23"/>
       <c r="BR153" s="11"/>
     </row>
-    <row r="154" spans="1:70" ht="99.95" customHeight="1">
+    <row r="154" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="123"/>
       <c r="B154" s="10"/>
       <c r="C154" s="3"/>
@@ -17117,7 +17113,7 @@
       <c r="BQ154" s="23"/>
       <c r="BR154" s="11"/>
     </row>
-    <row r="155" spans="1:70" ht="99.95" customHeight="1">
+    <row r="155" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="123"/>
       <c r="B155" s="10"/>
       <c r="C155" s="3"/>
@@ -17189,7 +17185,7 @@
       <c r="BQ155" s="23"/>
       <c r="BR155" s="11"/>
     </row>
-    <row r="156" spans="1:70" ht="99.95" customHeight="1">
+    <row r="156" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="123"/>
       <c r="B156" s="10"/>
       <c r="C156" s="3"/>
@@ -17261,7 +17257,7 @@
       <c r="BQ156" s="23"/>
       <c r="BR156" s="11"/>
     </row>
-    <row r="157" spans="1:70" ht="99.95" customHeight="1">
+    <row r="157" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="123"/>
       <c r="B157" s="10"/>
       <c r="C157" s="3"/>
@@ -17333,7 +17329,7 @@
       <c r="BQ157" s="23"/>
       <c r="BR157" s="11"/>
     </row>
-    <row r="158" spans="1:70" ht="99.95" customHeight="1">
+    <row r="158" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="123"/>
       <c r="B158" s="10"/>
       <c r="C158" s="3"/>
@@ -17405,7 +17401,7 @@
       <c r="BQ158" s="23"/>
       <c r="BR158" s="11"/>
     </row>
-    <row r="159" spans="1:70" ht="99.95" customHeight="1">
+    <row r="159" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="123"/>
       <c r="B159" s="10"/>
       <c r="C159" s="3"/>
@@ -17477,7 +17473,7 @@
       <c r="BQ159" s="23"/>
       <c r="BR159" s="11"/>
     </row>
-    <row r="160" spans="1:70" ht="99.95" customHeight="1">
+    <row r="160" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="123"/>
       <c r="B160" s="10"/>
       <c r="C160" s="3"/>
@@ -17549,7 +17545,7 @@
       <c r="BQ160" s="23"/>
       <c r="BR160" s="11"/>
     </row>
-    <row r="161" spans="1:70" ht="99.95" customHeight="1">
+    <row r="161" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="123"/>
       <c r="B161" s="10"/>
       <c r="C161" s="3"/>
@@ -17621,7 +17617,7 @@
       <c r="BQ161" s="23"/>
       <c r="BR161" s="11"/>
     </row>
-    <row r="162" spans="1:70" ht="99.95" customHeight="1">
+    <row r="162" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="123"/>
       <c r="B162" s="10"/>
       <c r="C162" s="3"/>
@@ -17693,7 +17689,7 @@
       <c r="BQ162" s="23"/>
       <c r="BR162" s="11"/>
     </row>
-    <row r="163" spans="1:70" ht="99.95" customHeight="1">
+    <row r="163" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="123"/>
       <c r="B163" s="10"/>
       <c r="C163" s="3"/>
@@ -17765,7 +17761,7 @@
       <c r="BQ163" s="23"/>
       <c r="BR163" s="11"/>
     </row>
-    <row r="164" spans="1:70" ht="99.95" customHeight="1">
+    <row r="164" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="123"/>
       <c r="B164" s="10"/>
       <c r="C164" s="3"/>
@@ -17837,7 +17833,7 @@
       <c r="BQ164" s="23"/>
       <c r="BR164" s="11"/>
     </row>
-    <row r="165" spans="1:70" ht="99.95" customHeight="1">
+    <row r="165" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="123"/>
       <c r="B165" s="10"/>
       <c r="C165" s="3"/>
@@ -17909,7 +17905,7 @@
       <c r="BQ165" s="23"/>
       <c r="BR165" s="11"/>
     </row>
-    <row r="166" spans="1:70" ht="99.95" customHeight="1">
+    <row r="166" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="123"/>
       <c r="B166" s="10"/>
       <c r="C166" s="3"/>
@@ -17981,7 +17977,7 @@
       <c r="BQ166" s="23"/>
       <c r="BR166" s="11"/>
     </row>
-    <row r="167" spans="1:70" ht="99.95" customHeight="1">
+    <row r="167" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="123"/>
       <c r="B167" s="10"/>
       <c r="C167" s="3"/>
@@ -18053,7 +18049,7 @@
       <c r="BQ167" s="23"/>
       <c r="BR167" s="11"/>
     </row>
-    <row r="168" spans="1:70" ht="99.95" customHeight="1">
+    <row r="168" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="123"/>
       <c r="B168" s="10"/>
       <c r="C168" s="3"/>
@@ -18125,7 +18121,7 @@
       <c r="BQ168" s="23"/>
       <c r="BR168" s="11"/>
     </row>
-    <row r="169" spans="1:70" ht="99.95" customHeight="1">
+    <row r="169" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="123"/>
       <c r="B169" s="10"/>
       <c r="C169" s="3"/>
@@ -18197,7 +18193,7 @@
       <c r="BQ169" s="23"/>
       <c r="BR169" s="11"/>
     </row>
-    <row r="170" spans="1:70" ht="99.95" customHeight="1">
+    <row r="170" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="123"/>
       <c r="B170" s="10"/>
       <c r="C170" s="3"/>
@@ -18269,7 +18265,7 @@
       <c r="BQ170" s="23"/>
       <c r="BR170" s="11"/>
     </row>
-    <row r="171" spans="1:70" ht="99.95" customHeight="1">
+    <row r="171" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="123"/>
       <c r="B171" s="10"/>
       <c r="C171" s="3"/>
@@ -18341,7 +18337,7 @@
       <c r="BQ171" s="23"/>
       <c r="BR171" s="11"/>
     </row>
-    <row r="172" spans="1:70" ht="99.95" customHeight="1">
+    <row r="172" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="123"/>
       <c r="B172" s="10"/>
       <c r="C172" s="3"/>
@@ -18413,7 +18409,7 @@
       <c r="BQ172" s="23"/>
       <c r="BR172" s="11"/>
     </row>
-    <row r="173" spans="1:70" ht="99.95" customHeight="1">
+    <row r="173" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="123"/>
       <c r="B173" s="10"/>
       <c r="C173" s="3"/>
@@ -18485,7 +18481,7 @@
       <c r="BQ173" s="23"/>
       <c r="BR173" s="11"/>
     </row>
-    <row r="174" spans="1:70" ht="99.95" customHeight="1">
+    <row r="174" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="123"/>
       <c r="B174" s="10"/>
       <c r="C174" s="3"/>
@@ -18557,7 +18553,7 @@
       <c r="BQ174" s="23"/>
       <c r="BR174" s="11"/>
     </row>
-    <row r="175" spans="1:70" ht="99.95" customHeight="1">
+    <row r="175" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="123"/>
       <c r="B175" s="10"/>
       <c r="C175" s="3"/>
@@ -18629,7 +18625,7 @@
       <c r="BQ175" s="23"/>
       <c r="BR175" s="11"/>
     </row>
-    <row r="176" spans="1:70" ht="99.95" customHeight="1">
+    <row r="176" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="123"/>
       <c r="B176" s="10"/>
       <c r="C176" s="3"/>
@@ -18701,7 +18697,7 @@
       <c r="BQ176" s="23"/>
       <c r="BR176" s="11"/>
     </row>
-    <row r="177" spans="1:70" ht="99.95" customHeight="1">
+    <row r="177" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="123"/>
       <c r="B177" s="10"/>
       <c r="C177" s="3"/>
@@ -18773,7 +18769,7 @@
       <c r="BQ177" s="23"/>
       <c r="BR177" s="11"/>
     </row>
-    <row r="178" spans="1:70" ht="99.95" customHeight="1">
+    <row r="178" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="123"/>
       <c r="B178" s="10"/>
       <c r="C178" s="3"/>
@@ -18845,7 +18841,7 @@
       <c r="BQ178" s="23"/>
       <c r="BR178" s="11"/>
     </row>
-    <row r="179" spans="1:70" ht="99.95" customHeight="1">
+    <row r="179" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="123"/>
       <c r="B179" s="10"/>
       <c r="C179" s="3"/>
@@ -18917,7 +18913,7 @@
       <c r="BQ179" s="23"/>
       <c r="BR179" s="11"/>
     </row>
-    <row r="180" spans="1:70" ht="99.95" customHeight="1">
+    <row r="180" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="123"/>
       <c r="B180" s="10"/>
       <c r="C180" s="3"/>
@@ -18989,7 +18985,7 @@
       <c r="BQ180" s="23"/>
       <c r="BR180" s="11"/>
     </row>
-    <row r="181" spans="1:70" ht="99.95" customHeight="1">
+    <row r="181" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="123"/>
       <c r="B181" s="10"/>
       <c r="C181" s="3"/>
@@ -19061,7 +19057,7 @@
       <c r="BQ181" s="23"/>
       <c r="BR181" s="11"/>
     </row>
-    <row r="182" spans="1:70" ht="99.95" customHeight="1">
+    <row r="182" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="123"/>
       <c r="B182" s="10"/>
       <c r="C182" s="3"/>
@@ -19133,7 +19129,7 @@
       <c r="BQ182" s="23"/>
       <c r="BR182" s="11"/>
     </row>
-    <row r="183" spans="1:70" ht="99.95" customHeight="1">
+    <row r="183" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="123"/>
       <c r="B183" s="10"/>
       <c r="C183" s="3"/>
@@ -19205,7 +19201,7 @@
       <c r="BQ183" s="23"/>
       <c r="BR183" s="11"/>
     </row>
-    <row r="184" spans="1:70" ht="99.95" customHeight="1">
+    <row r="184" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="123"/>
       <c r="B184" s="10"/>
       <c r="C184" s="3"/>
@@ -19277,7 +19273,7 @@
       <c r="BQ184" s="23"/>
       <c r="BR184" s="11"/>
     </row>
-    <row r="185" spans="1:70" ht="99.95" customHeight="1">
+    <row r="185" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="123"/>
       <c r="B185" s="10"/>
       <c r="C185" s="3"/>
@@ -19349,7 +19345,7 @@
       <c r="BQ185" s="23"/>
       <c r="BR185" s="11"/>
     </row>
-    <row r="186" spans="1:70" ht="99.95" customHeight="1">
+    <row r="186" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="123"/>
       <c r="B186" s="10"/>
       <c r="C186" s="3"/>
@@ -19421,7 +19417,7 @@
       <c r="BQ186" s="23"/>
       <c r="BR186" s="11"/>
     </row>
-    <row r="187" spans="1:70" ht="99.95" customHeight="1">
+    <row r="187" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="123"/>
       <c r="B187" s="10"/>
       <c r="C187" s="3"/>
@@ -19493,7 +19489,7 @@
       <c r="BQ187" s="23"/>
       <c r="BR187" s="11"/>
     </row>
-    <row r="188" spans="1:70" ht="99.95" customHeight="1">
+    <row r="188" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="123"/>
       <c r="B188" s="10"/>
       <c r="C188" s="3"/>
@@ -19565,7 +19561,7 @@
       <c r="BQ188" s="23"/>
       <c r="BR188" s="11"/>
     </row>
-    <row r="189" spans="1:70" ht="99.95" customHeight="1">
+    <row r="189" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="123"/>
       <c r="B189" s="10"/>
       <c r="C189" s="3"/>
@@ -19637,7 +19633,7 @@
       <c r="BQ189" s="23"/>
       <c r="BR189" s="11"/>
     </row>
-    <row r="190" spans="1:70" ht="99.95" customHeight="1">
+    <row r="190" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="123"/>
       <c r="B190" s="10"/>
       <c r="C190" s="3"/>
@@ -19709,7 +19705,7 @@
       <c r="BQ190" s="23"/>
       <c r="BR190" s="11"/>
     </row>
-    <row r="191" spans="1:70" ht="99.95" customHeight="1">
+    <row r="191" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="123"/>
       <c r="B191" s="10"/>
       <c r="C191" s="3"/>
@@ -19781,7 +19777,7 @@
       <c r="BQ191" s="23"/>
       <c r="BR191" s="11"/>
     </row>
-    <row r="192" spans="1:70" ht="99.95" customHeight="1">
+    <row r="192" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="123"/>
       <c r="B192" s="10"/>
       <c r="C192" s="3"/>
@@ -19853,7 +19849,7 @@
       <c r="BQ192" s="23"/>
       <c r="BR192" s="11"/>
     </row>
-    <row r="193" spans="1:70" ht="99.95" customHeight="1">
+    <row r="193" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="123"/>
       <c r="B193" s="10"/>
       <c r="C193" s="3"/>
@@ -19925,7 +19921,7 @@
       <c r="BQ193" s="23"/>
       <c r="BR193" s="11"/>
     </row>
-    <row r="194" spans="1:70" ht="99.95" customHeight="1">
+    <row r="194" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="123"/>
       <c r="B194" s="10"/>
       <c r="C194" s="3"/>
@@ -19997,7 +19993,7 @@
       <c r="BQ194" s="23"/>
       <c r="BR194" s="11"/>
     </row>
-    <row r="195" spans="1:70" ht="99.95" customHeight="1">
+    <row r="195" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="123"/>
       <c r="B195" s="10"/>
       <c r="C195" s="3"/>
@@ -20069,7 +20065,7 @@
       <c r="BQ195" s="23"/>
       <c r="BR195" s="11"/>
     </row>
-    <row r="196" spans="1:70" ht="99.95" customHeight="1">
+    <row r="196" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="123"/>
       <c r="B196" s="10"/>
       <c r="C196" s="3"/>
@@ -20141,7 +20137,7 @@
       <c r="BQ196" s="23"/>
       <c r="BR196" s="11"/>
     </row>
-    <row r="197" spans="1:70" ht="99.95" customHeight="1">
+    <row r="197" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="123"/>
       <c r="B197" s="10"/>
       <c r="C197" s="3"/>
@@ -20213,7 +20209,7 @@
       <c r="BQ197" s="23"/>
       <c r="BR197" s="11"/>
     </row>
-    <row r="198" spans="1:70" ht="99.95" customHeight="1">
+    <row r="198" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="123"/>
       <c r="B198" s="10"/>
       <c r="C198" s="3"/>
@@ -20285,7 +20281,7 @@
       <c r="BQ198" s="23"/>
       <c r="BR198" s="11"/>
     </row>
-    <row r="199" spans="1:70" ht="99.95" customHeight="1">
+    <row r="199" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="123"/>
       <c r="B199" s="10"/>
       <c r="C199" s="3"/>
@@ -20357,7 +20353,7 @@
       <c r="BQ199" s="23"/>
       <c r="BR199" s="11"/>
     </row>
-    <row r="200" spans="1:70" ht="99.95" customHeight="1">
+    <row r="200" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="123"/>
       <c r="B200" s="10"/>
       <c r="C200" s="3"/>
@@ -20429,7 +20425,7 @@
       <c r="BQ200" s="23"/>
       <c r="BR200" s="11"/>
     </row>
-    <row r="201" spans="1:70" ht="99.95" customHeight="1">
+    <row r="201" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="123"/>
       <c r="B201" s="10"/>
       <c r="C201" s="3"/>
@@ -20501,7 +20497,7 @@
       <c r="BQ201" s="23"/>
       <c r="BR201" s="11"/>
     </row>
-    <row r="202" spans="1:70" ht="99.95" customHeight="1">
+    <row r="202" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="123"/>
       <c r="B202" s="10"/>
       <c r="C202" s="3"/>
@@ -20573,7 +20569,7 @@
       <c r="BQ202" s="23"/>
       <c r="BR202" s="11"/>
     </row>
-    <row r="203" spans="1:70" ht="99.95" customHeight="1">
+    <row r="203" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="123"/>
       <c r="B203" s="10"/>
       <c r="C203" s="3"/>
@@ -20645,7 +20641,7 @@
       <c r="BQ203" s="23"/>
       <c r="BR203" s="11"/>
     </row>
-    <row r="204" spans="1:70" ht="99.95" customHeight="1">
+    <row r="204" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="123"/>
       <c r="B204" s="10"/>
       <c r="C204" s="3"/>
@@ -20717,7 +20713,7 @@
       <c r="BQ204" s="23"/>
       <c r="BR204" s="11"/>
     </row>
-    <row r="205" spans="1:70" ht="99.95" customHeight="1">
+    <row r="205" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="123"/>
       <c r="B205" s="10"/>
       <c r="C205" s="3"/>
@@ -20789,7 +20785,7 @@
       <c r="BQ205" s="23"/>
       <c r="BR205" s="11"/>
     </row>
-    <row r="206" spans="1:70" ht="99.95" customHeight="1">
+    <row r="206" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="123"/>
       <c r="B206" s="10"/>
       <c r="C206" s="3"/>
@@ -20861,7 +20857,7 @@
       <c r="BQ206" s="23"/>
       <c r="BR206" s="11"/>
     </row>
-    <row r="207" spans="1:70" ht="99.95" customHeight="1">
+    <row r="207" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="123"/>
       <c r="B207" s="10"/>
       <c r="C207" s="3"/>
@@ -20933,7 +20929,7 @@
       <c r="BQ207" s="23"/>
       <c r="BR207" s="11"/>
     </row>
-    <row r="208" spans="1:70" ht="99.95" customHeight="1">
+    <row r="208" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="123"/>
       <c r="B208" s="10"/>
       <c r="C208" s="3"/>
@@ -21005,7 +21001,7 @@
       <c r="BQ208" s="23"/>
       <c r="BR208" s="11"/>
     </row>
-    <row r="209" spans="1:70" ht="99.95" customHeight="1">
+    <row r="209" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="123"/>
       <c r="B209" s="10"/>
       <c r="C209" s="3"/>
@@ -21077,7 +21073,7 @@
       <c r="BQ209" s="23"/>
       <c r="BR209" s="11"/>
     </row>
-    <row r="210" spans="1:70" ht="99.95" customHeight="1">
+    <row r="210" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="123"/>
       <c r="B210" s="10"/>
       <c r="C210" s="3"/>
@@ -21149,7 +21145,7 @@
       <c r="BQ210" s="23"/>
       <c r="BR210" s="11"/>
     </row>
-    <row r="211" spans="1:70" ht="99.95" customHeight="1">
+    <row r="211" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="123"/>
       <c r="B211" s="10"/>
       <c r="C211" s="3"/>
@@ -21221,7 +21217,7 @@
       <c r="BQ211" s="23"/>
       <c r="BR211" s="11"/>
     </row>
-    <row r="212" spans="1:70" ht="99.95" customHeight="1">
+    <row r="212" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="123"/>
       <c r="B212" s="10"/>
       <c r="C212" s="3"/>
@@ -21293,7 +21289,7 @@
       <c r="BQ212" s="23"/>
       <c r="BR212" s="11"/>
     </row>
-    <row r="213" spans="1:70" ht="99.95" customHeight="1">
+    <row r="213" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="123"/>
       <c r="B213" s="10"/>
       <c r="C213" s="3"/>
@@ -21365,7 +21361,7 @@
       <c r="BQ213" s="23"/>
       <c r="BR213" s="11"/>
     </row>
-    <row r="214" spans="1:70" ht="99.95" customHeight="1">
+    <row r="214" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="123"/>
       <c r="B214" s="10"/>
       <c r="C214" s="3"/>
@@ -21437,7 +21433,7 @@
       <c r="BQ214" s="23"/>
       <c r="BR214" s="11"/>
     </row>
-    <row r="215" spans="1:70" ht="99.95" customHeight="1">
+    <row r="215" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="123"/>
       <c r="B215" s="10"/>
       <c r="C215" s="3"/>
@@ -21509,7 +21505,7 @@
       <c r="BQ215" s="23"/>
       <c r="BR215" s="11"/>
     </row>
-    <row r="216" spans="1:70" ht="99.95" customHeight="1">
+    <row r="216" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="123"/>
       <c r="B216" s="10"/>
       <c r="C216" s="3"/>
@@ -21581,7 +21577,7 @@
       <c r="BQ216" s="23"/>
       <c r="BR216" s="11"/>
     </row>
-    <row r="217" spans="1:70" ht="99.95" customHeight="1">
+    <row r="217" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="123"/>
       <c r="B217" s="10"/>
       <c r="C217" s="3"/>
@@ -21653,7 +21649,7 @@
       <c r="BQ217" s="23"/>
       <c r="BR217" s="11"/>
     </row>
-    <row r="218" spans="1:70" ht="99.95" customHeight="1">
+    <row r="218" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="123"/>
       <c r="B218" s="10"/>
       <c r="C218" s="3"/>
@@ -21725,7 +21721,7 @@
       <c r="BQ218" s="23"/>
       <c r="BR218" s="11"/>
     </row>
-    <row r="219" spans="1:70" ht="99.95" customHeight="1">
+    <row r="219" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="123"/>
       <c r="B219" s="10"/>
       <c r="C219" s="3"/>
@@ -21797,7 +21793,7 @@
       <c r="BQ219" s="23"/>
       <c r="BR219" s="11"/>
     </row>
-    <row r="220" spans="1:70" ht="99.95" customHeight="1">
+    <row r="220" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="123"/>
       <c r="B220" s="10"/>
       <c r="C220" s="3"/>
@@ -21869,7 +21865,7 @@
       <c r="BQ220" s="23"/>
       <c r="BR220" s="11"/>
     </row>
-    <row r="221" spans="1:70" ht="99.95" customHeight="1">
+    <row r="221" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="123"/>
       <c r="B221" s="10"/>
       <c r="C221" s="3"/>
@@ -21941,7 +21937,7 @@
       <c r="BQ221" s="23"/>
       <c r="BR221" s="11"/>
     </row>
-    <row r="222" spans="1:70" ht="99.95" customHeight="1">
+    <row r="222" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="123"/>
       <c r="B222" s="10"/>
       <c r="C222" s="3"/>
@@ -22013,7 +22009,7 @@
       <c r="BQ222" s="23"/>
       <c r="BR222" s="11"/>
     </row>
-    <row r="223" spans="1:70" ht="99.95" customHeight="1">
+    <row r="223" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="123"/>
       <c r="B223" s="10"/>
       <c r="C223" s="3"/>
@@ -22085,7 +22081,7 @@
       <c r="BQ223" s="23"/>
       <c r="BR223" s="11"/>
     </row>
-    <row r="224" spans="1:70" ht="99.95" customHeight="1">
+    <row r="224" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="123"/>
       <c r="B224" s="10"/>
       <c r="C224" s="3"/>
@@ -22157,7 +22153,7 @@
       <c r="BQ224" s="23"/>
       <c r="BR224" s="11"/>
     </row>
-    <row r="225" spans="1:70" ht="99.95" customHeight="1">
+    <row r="225" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="123"/>
       <c r="B225" s="10"/>
       <c r="C225" s="3"/>
@@ -22229,7 +22225,7 @@
       <c r="BQ225" s="23"/>
       <c r="BR225" s="11"/>
     </row>
-    <row r="226" spans="1:70" ht="99.95" customHeight="1">
+    <row r="226" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="123"/>
       <c r="B226" s="10"/>
       <c r="C226" s="3"/>
@@ -22301,7 +22297,7 @@
       <c r="BQ226" s="23"/>
       <c r="BR226" s="11"/>
     </row>
-    <row r="227" spans="1:70" ht="99.95" customHeight="1">
+    <row r="227" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="123"/>
       <c r="B227" s="10"/>
       <c r="C227" s="3"/>
@@ -22373,7 +22369,7 @@
       <c r="BQ227" s="23"/>
       <c r="BR227" s="11"/>
     </row>
-    <row r="228" spans="1:70" ht="99.95" customHeight="1">
+    <row r="228" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="123"/>
       <c r="B228" s="10"/>
       <c r="C228" s="3"/>
@@ -22445,7 +22441,7 @@
       <c r="BQ228" s="23"/>
       <c r="BR228" s="11"/>
     </row>
-    <row r="229" spans="1:70" ht="99.95" customHeight="1">
+    <row r="229" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="123"/>
       <c r="B229" s="10"/>
       <c r="C229" s="3"/>
@@ -22517,7 +22513,7 @@
       <c r="BQ229" s="23"/>
       <c r="BR229" s="11"/>
     </row>
-    <row r="230" spans="1:70" ht="99.95" customHeight="1">
+    <row r="230" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="123"/>
       <c r="B230" s="10"/>
       <c r="C230" s="3"/>
@@ -22589,7 +22585,7 @@
       <c r="BQ230" s="23"/>
       <c r="BR230" s="11"/>
     </row>
-    <row r="231" spans="1:70" ht="99.95" customHeight="1">
+    <row r="231" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="123"/>
       <c r="B231" s="10"/>
       <c r="C231" s="3"/>
@@ -22661,7 +22657,7 @@
       <c r="BQ231" s="23"/>
       <c r="BR231" s="11"/>
     </row>
-    <row r="232" spans="1:70" ht="99.95" customHeight="1">
+    <row r="232" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="123"/>
       <c r="B232" s="10"/>
       <c r="C232" s="3"/>
@@ -22733,7 +22729,7 @@
       <c r="BQ232" s="23"/>
       <c r="BR232" s="11"/>
     </row>
-    <row r="233" spans="1:70" ht="99.95" customHeight="1">
+    <row r="233" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="123"/>
       <c r="B233" s="10"/>
       <c r="C233" s="3"/>
@@ -22805,7 +22801,7 @@
       <c r="BQ233" s="23"/>
       <c r="BR233" s="11"/>
     </row>
-    <row r="234" spans="1:70" ht="99.95" customHeight="1">
+    <row r="234" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="123"/>
       <c r="B234" s="10"/>
       <c r="C234" s="3"/>
@@ -22877,7 +22873,7 @@
       <c r="BQ234" s="23"/>
       <c r="BR234" s="11"/>
     </row>
-    <row r="235" spans="1:70" ht="99.95" customHeight="1">
+    <row r="235" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="123"/>
       <c r="B235" s="10"/>
       <c r="C235" s="3"/>
@@ -22949,7 +22945,7 @@
       <c r="BQ235" s="23"/>
       <c r="BR235" s="11"/>
     </row>
-    <row r="236" spans="1:70" ht="99.95" customHeight="1">
+    <row r="236" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="123"/>
       <c r="B236" s="10"/>
       <c r="C236" s="3"/>
@@ -23021,7 +23017,7 @@
       <c r="BQ236" s="23"/>
       <c r="BR236" s="11"/>
     </row>
-    <row r="237" spans="1:70" ht="99.95" customHeight="1">
+    <row r="237" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="123"/>
       <c r="B237" s="10"/>
       <c r="C237" s="3"/>
@@ -23093,7 +23089,7 @@
       <c r="BQ237" s="23"/>
       <c r="BR237" s="11"/>
     </row>
-    <row r="238" spans="1:70" ht="99.95" customHeight="1">
+    <row r="238" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="123"/>
       <c r="B238" s="10"/>
       <c r="C238" s="3"/>
@@ -23165,7 +23161,7 @@
       <c r="BQ238" s="23"/>
       <c r="BR238" s="11"/>
     </row>
-    <row r="239" spans="1:70" ht="99.95" customHeight="1">
+    <row r="239" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="123"/>
       <c r="B239" s="10"/>
       <c r="C239" s="3"/>
@@ -23237,7 +23233,7 @@
       <c r="BQ239" s="23"/>
       <c r="BR239" s="11"/>
     </row>
-    <row r="240" spans="1:70" ht="99.95" customHeight="1">
+    <row r="240" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="123"/>
       <c r="B240" s="10"/>
       <c r="C240" s="3"/>
@@ -23309,7 +23305,7 @@
       <c r="BQ240" s="23"/>
       <c r="BR240" s="11"/>
     </row>
-    <row r="241" spans="1:70" ht="99.95" customHeight="1">
+    <row r="241" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="123"/>
       <c r="B241" s="10"/>
       <c r="C241" s="3"/>
@@ -23381,7 +23377,7 @@
       <c r="BQ241" s="23"/>
       <c r="BR241" s="11"/>
     </row>
-    <row r="242" spans="1:70" ht="99.95" customHeight="1">
+    <row r="242" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="123"/>
       <c r="B242" s="10"/>
       <c r="C242" s="3"/>
@@ -23453,7 +23449,7 @@
       <c r="BQ242" s="23"/>
       <c r="BR242" s="11"/>
     </row>
-    <row r="243" spans="1:70" ht="99.95" customHeight="1">
+    <row r="243" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="123"/>
       <c r="B243" s="10"/>
       <c r="C243" s="3"/>
@@ -23525,7 +23521,7 @@
       <c r="BQ243" s="23"/>
       <c r="BR243" s="11"/>
     </row>
-    <row r="244" spans="1:70" ht="99.95" customHeight="1">
+    <row r="244" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="123"/>
       <c r="B244" s="10"/>
       <c r="C244" s="3"/>
@@ -23597,7 +23593,7 @@
       <c r="BQ244" s="23"/>
       <c r="BR244" s="11"/>
     </row>
-    <row r="245" spans="1:70" ht="99.95" customHeight="1">
+    <row r="245" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="123"/>
       <c r="B245" s="10"/>
       <c r="C245" s="3"/>
@@ -23669,7 +23665,7 @@
       <c r="BQ245" s="23"/>
       <c r="BR245" s="11"/>
     </row>
-    <row r="246" spans="1:70" ht="99.95" customHeight="1">
+    <row r="246" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="123"/>
       <c r="B246" s="10"/>
       <c r="C246" s="3"/>
@@ -23741,7 +23737,7 @@
       <c r="BQ246" s="23"/>
       <c r="BR246" s="11"/>
     </row>
-    <row r="247" spans="1:70" ht="99.95" customHeight="1">
+    <row r="247" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="123"/>
       <c r="B247" s="10"/>
       <c r="C247" s="3"/>
@@ -23813,7 +23809,7 @@
       <c r="BQ247" s="23"/>
       <c r="BR247" s="11"/>
     </row>
-    <row r="248" spans="1:70" ht="99.95" customHeight="1">
+    <row r="248" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="123"/>
       <c r="B248" s="10"/>
       <c r="C248" s="3"/>
@@ -23885,7 +23881,7 @@
       <c r="BQ248" s="23"/>
       <c r="BR248" s="11"/>
     </row>
-    <row r="249" spans="1:70" ht="99.95" customHeight="1">
+    <row r="249" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="123"/>
       <c r="B249" s="10"/>
       <c r="C249" s="3"/>
@@ -23957,7 +23953,7 @@
       <c r="BQ249" s="23"/>
       <c r="BR249" s="11"/>
     </row>
-    <row r="250" spans="1:70" ht="99.95" customHeight="1">
+    <row r="250" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="123"/>
       <c r="B250" s="10"/>
       <c r="C250" s="3"/>
@@ -24029,7 +24025,7 @@
       <c r="BQ250" s="23"/>
       <c r="BR250" s="11"/>
     </row>
-    <row r="251" spans="1:70" ht="99.95" customHeight="1">
+    <row r="251" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="123"/>
       <c r="B251" s="10"/>
       <c r="C251" s="3"/>
@@ -24101,7 +24097,7 @@
       <c r="BQ251" s="23"/>
       <c r="BR251" s="11"/>
     </row>
-    <row r="252" spans="1:70" ht="99.95" customHeight="1">
+    <row r="252" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="123"/>
       <c r="B252" s="10"/>
       <c r="C252" s="3"/>
@@ -24173,7 +24169,7 @@
       <c r="BQ252" s="23"/>
       <c r="BR252" s="11"/>
     </row>
-    <row r="253" spans="1:70" ht="99.95" customHeight="1">
+    <row r="253" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="123"/>
       <c r="B253" s="10"/>
       <c r="C253" s="3"/>
@@ -24245,7 +24241,7 @@
       <c r="BQ253" s="23"/>
       <c r="BR253" s="11"/>
     </row>
-    <row r="254" spans="1:70" ht="99.95" customHeight="1">
+    <row r="254" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="123"/>
       <c r="B254" s="10"/>
       <c r="C254" s="3"/>
@@ -24317,7 +24313,7 @@
       <c r="BQ254" s="23"/>
       <c r="BR254" s="11"/>
     </row>
-    <row r="255" spans="1:70" ht="99.95" customHeight="1">
+    <row r="255" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="123"/>
       <c r="B255" s="10"/>
       <c r="C255" s="3"/>
@@ -24389,7 +24385,7 @@
       <c r="BQ255" s="23"/>
       <c r="BR255" s="11"/>
     </row>
-    <row r="256" spans="1:70" ht="99.95" customHeight="1">
+    <row r="256" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="123"/>
       <c r="B256" s="10"/>
       <c r="C256" s="3"/>
@@ -24461,7 +24457,7 @@
       <c r="BQ256" s="23"/>
       <c r="BR256" s="11"/>
     </row>
-    <row r="257" spans="1:70" ht="99.95" customHeight="1">
+    <row r="257" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="123"/>
       <c r="B257" s="10"/>
       <c r="C257" s="3"/>
@@ -24533,7 +24529,7 @@
       <c r="BQ257" s="23"/>
       <c r="BR257" s="11"/>
     </row>
-    <row r="258" spans="1:70" ht="99.95" customHeight="1">
+    <row r="258" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="123"/>
       <c r="B258" s="10"/>
       <c r="C258" s="3"/>
@@ -24605,7 +24601,7 @@
       <c r="BQ258" s="23"/>
       <c r="BR258" s="11"/>
     </row>
-    <row r="259" spans="1:70" ht="99.95" customHeight="1">
+    <row r="259" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="123"/>
       <c r="B259" s="10"/>
       <c r="C259" s="3"/>
@@ -24677,7 +24673,7 @@
       <c r="BQ259" s="23"/>
       <c r="BR259" s="11"/>
     </row>
-    <row r="260" spans="1:70" ht="99.95" customHeight="1">
+    <row r="260" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="123"/>
       <c r="B260" s="10"/>
       <c r="C260" s="3"/>
@@ -24749,7 +24745,7 @@
       <c r="BQ260" s="23"/>
       <c r="BR260" s="11"/>
     </row>
-    <row r="261" spans="1:70" ht="99.95" customHeight="1">
+    <row r="261" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="123"/>
       <c r="B261" s="10"/>
       <c r="C261" s="3"/>
@@ -24821,7 +24817,7 @@
       <c r="BQ261" s="23"/>
       <c r="BR261" s="11"/>
     </row>
-    <row r="262" spans="1:70" ht="99.95" customHeight="1">
+    <row r="262" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="123"/>
       <c r="B262" s="10"/>
       <c r="C262" s="3"/>
@@ -24893,7 +24889,7 @@
       <c r="BQ262" s="23"/>
       <c r="BR262" s="11"/>
     </row>
-    <row r="263" spans="1:70" ht="99.95" customHeight="1">
+    <row r="263" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="123"/>
       <c r="B263" s="10"/>
       <c r="C263" s="3"/>
@@ -24965,7 +24961,7 @@
       <c r="BQ263" s="23"/>
       <c r="BR263" s="11"/>
     </row>
-    <row r="264" spans="1:70" ht="99.95" customHeight="1">
+    <row r="264" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="123"/>
       <c r="B264" s="10"/>
       <c r="C264" s="3"/>
@@ -25037,7 +25033,7 @@
       <c r="BQ264" s="23"/>
       <c r="BR264" s="11"/>
     </row>
-    <row r="265" spans="1:70" ht="99.95" customHeight="1">
+    <row r="265" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="123"/>
       <c r="B265" s="10"/>
       <c r="C265" s="3"/>
@@ -25109,7 +25105,7 @@
       <c r="BQ265" s="23"/>
       <c r="BR265" s="11"/>
     </row>
-    <row r="266" spans="1:70" ht="99.95" customHeight="1">
+    <row r="266" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="123"/>
       <c r="B266" s="10"/>
       <c r="C266" s="3"/>
@@ -25181,7 +25177,7 @@
       <c r="BQ266" s="23"/>
       <c r="BR266" s="11"/>
     </row>
-    <row r="267" spans="1:70" ht="99.95" customHeight="1">
+    <row r="267" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="123"/>
       <c r="B267" s="10"/>
       <c r="C267" s="3"/>
@@ -25253,7 +25249,7 @@
       <c r="BQ267" s="23"/>
       <c r="BR267" s="11"/>
     </row>
-    <row r="268" spans="1:70" ht="99.95" customHeight="1">
+    <row r="268" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="123"/>
       <c r="B268" s="10"/>
       <c r="C268" s="3"/>
@@ -25325,7 +25321,7 @@
       <c r="BQ268" s="23"/>
       <c r="BR268" s="11"/>
     </row>
-    <row r="269" spans="1:70" ht="99.95" customHeight="1">
+    <row r="269" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="123"/>
       <c r="B269" s="10"/>
       <c r="C269" s="3"/>
@@ -25397,7 +25393,7 @@
       <c r="BQ269" s="23"/>
       <c r="BR269" s="11"/>
     </row>
-    <row r="270" spans="1:70" ht="99.95" customHeight="1">
+    <row r="270" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="123"/>
       <c r="B270" s="10"/>
       <c r="C270" s="3"/>
@@ -25469,7 +25465,7 @@
       <c r="BQ270" s="23"/>
       <c r="BR270" s="11"/>
     </row>
-    <row r="271" spans="1:70" ht="99.95" customHeight="1">
+    <row r="271" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="123"/>
       <c r="B271" s="10"/>
       <c r="C271" s="3"/>
@@ -25541,7 +25537,7 @@
       <c r="BQ271" s="23"/>
       <c r="BR271" s="11"/>
     </row>
-    <row r="272" spans="1:70" ht="99.95" customHeight="1">
+    <row r="272" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="123"/>
       <c r="B272" s="10"/>
       <c r="C272" s="3"/>
@@ -25613,7 +25609,7 @@
       <c r="BQ272" s="23"/>
       <c r="BR272" s="11"/>
     </row>
-    <row r="273" spans="1:70" ht="99.95" customHeight="1">
+    <row r="273" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="123"/>
       <c r="B273" s="10"/>
       <c r="C273" s="3"/>
@@ -25685,7 +25681,7 @@
       <c r="BQ273" s="23"/>
       <c r="BR273" s="11"/>
     </row>
-    <row r="274" spans="1:70" ht="99.95" customHeight="1">
+    <row r="274" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="123"/>
       <c r="B274" s="10"/>
       <c r="C274" s="3"/>
@@ -25757,7 +25753,7 @@
       <c r="BQ274" s="23"/>
       <c r="BR274" s="11"/>
     </row>
-    <row r="275" spans="1:70" ht="99.95" customHeight="1">
+    <row r="275" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="123"/>
       <c r="B275" s="10"/>
       <c r="C275" s="3"/>
@@ -25829,7 +25825,7 @@
       <c r="BQ275" s="23"/>
       <c r="BR275" s="11"/>
     </row>
-    <row r="276" spans="1:70" ht="99.95" customHeight="1">
+    <row r="276" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="123"/>
       <c r="B276" s="10"/>
       <c r="C276" s="3"/>
@@ -25901,7 +25897,7 @@
       <c r="BQ276" s="23"/>
       <c r="BR276" s="11"/>
     </row>
-    <row r="277" spans="1:70" ht="99.95" customHeight="1">
+    <row r="277" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="123"/>
       <c r="B277" s="10"/>
       <c r="C277" s="3"/>
@@ -25973,7 +25969,7 @@
       <c r="BQ277" s="23"/>
       <c r="BR277" s="11"/>
     </row>
-    <row r="278" spans="1:70" s="7" customFormat="1" ht="99.95" customHeight="1">
+    <row r="278" spans="1:70" s="7" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="123"/>
       <c r="B278" s="10"/>
       <c r="C278" s="3"/>
@@ -26045,7 +26041,7 @@
       <c r="BQ278" s="23"/>
       <c r="BR278" s="11"/>
     </row>
-    <row r="279" spans="1:70" s="7" customFormat="1" ht="99.95" customHeight="1">
+    <row r="279" spans="1:70" s="7" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="123"/>
       <c r="B279" s="10"/>
       <c r="C279" s="3"/>
@@ -26117,7 +26113,7 @@
       <c r="BQ279" s="23"/>
       <c r="BR279" s="11"/>
     </row>
-    <row r="280" spans="1:70" s="7" customFormat="1" ht="99.95" customHeight="1">
+    <row r="280" spans="1:70" s="7" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="123"/>
       <c r="B280" s="10"/>
       <c r="C280" s="3"/>
@@ -26189,7 +26185,7 @@
       <c r="BQ280" s="23"/>
       <c r="BR280" s="11"/>
     </row>
-    <row r="281" spans="1:70" s="7" customFormat="1" ht="99.95" customHeight="1">
+    <row r="281" spans="1:70" s="7" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="123"/>
       <c r="B281" s="10"/>
       <c r="C281" s="3"/>
@@ -26261,7 +26257,7 @@
       <c r="BQ281" s="23"/>
       <c r="BR281" s="11"/>
     </row>
-    <row r="282" spans="1:70" s="7" customFormat="1" ht="99.95" customHeight="1">
+    <row r="282" spans="1:70" s="7" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="123"/>
       <c r="B282" s="10"/>
       <c r="C282" s="3"/>
@@ -26333,7 +26329,7 @@
       <c r="BQ282" s="23"/>
       <c r="BR282" s="11"/>
     </row>
-    <row r="283" spans="1:70" ht="99.95" customHeight="1">
+    <row r="283" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="123"/>
       <c r="B283" s="10"/>
       <c r="C283" s="3"/>
@@ -26405,7 +26401,7 @@
       <c r="BQ283" s="23"/>
       <c r="BR283" s="11"/>
     </row>
-    <row r="284" spans="1:70" ht="99.95" customHeight="1">
+    <row r="284" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="123"/>
       <c r="B284" s="10"/>
       <c r="C284" s="3"/>
@@ -26477,7 +26473,7 @@
       <c r="BQ284" s="23"/>
       <c r="BR284" s="11"/>
     </row>
-    <row r="285" spans="1:70" ht="99.95" customHeight="1">
+    <row r="285" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="123"/>
       <c r="B285" s="10"/>
       <c r="C285" s="3"/>
@@ -26549,7 +26545,7 @@
       <c r="BQ285" s="23"/>
       <c r="BR285" s="11"/>
     </row>
-    <row r="286" spans="1:70" ht="99.95" customHeight="1">
+    <row r="286" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="123"/>
       <c r="B286" s="10"/>
       <c r="C286" s="3"/>
@@ -26621,7 +26617,7 @@
       <c r="BQ286" s="23"/>
       <c r="BR286" s="11"/>
     </row>
-    <row r="287" spans="1:70" ht="99.95" customHeight="1">
+    <row r="287" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="123"/>
       <c r="B287" s="10"/>
       <c r="C287" s="3"/>
@@ -26693,7 +26689,7 @@
       <c r="BQ287" s="23"/>
       <c r="BR287" s="11"/>
     </row>
-    <row r="288" spans="1:70" ht="99.95" customHeight="1">
+    <row r="288" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="123"/>
       <c r="B288" s="10"/>
       <c r="C288" s="3"/>
@@ -26765,7 +26761,7 @@
       <c r="BQ288" s="23"/>
       <c r="BR288" s="11"/>
     </row>
-    <row r="289" spans="1:70" ht="99.95" customHeight="1">
+    <row r="289" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="123"/>
       <c r="B289" s="10"/>
       <c r="C289" s="3"/>
@@ -26837,7 +26833,7 @@
       <c r="BQ289" s="23"/>
       <c r="BR289" s="11"/>
     </row>
-    <row r="290" spans="1:70" ht="99.95" customHeight="1">
+    <row r="290" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="123"/>
       <c r="B290" s="10"/>
       <c r="C290" s="3"/>
@@ -26909,7 +26905,7 @@
       <c r="BQ290" s="23"/>
       <c r="BR290" s="11"/>
     </row>
-    <row r="291" spans="1:70" ht="99.95" customHeight="1">
+    <row r="291" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="123"/>
       <c r="B291" s="10"/>
       <c r="C291" s="3"/>
@@ -26981,7 +26977,7 @@
       <c r="BQ291" s="23"/>
       <c r="BR291" s="11"/>
     </row>
-    <row r="292" spans="1:70" ht="99.95" customHeight="1">
+    <row r="292" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="123"/>
       <c r="B292" s="10"/>
       <c r="C292" s="3"/>
@@ -27053,7 +27049,7 @@
       <c r="BQ292" s="23"/>
       <c r="BR292" s="11"/>
     </row>
-    <row r="293" spans="1:70" ht="99.95" customHeight="1">
+    <row r="293" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="123"/>
       <c r="B293" s="10"/>
       <c r="C293" s="3"/>
@@ -27125,7 +27121,7 @@
       <c r="BQ293" s="23"/>
       <c r="BR293" s="11"/>
     </row>
-    <row r="294" spans="1:70" ht="99.95" customHeight="1">
+    <row r="294" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="123"/>
       <c r="B294" s="10"/>
       <c r="C294" s="3"/>
@@ -27197,7 +27193,7 @@
       <c r="BQ294" s="23"/>
       <c r="BR294" s="11"/>
     </row>
-    <row r="295" spans="1:70" ht="99.95" customHeight="1">
+    <row r="295" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="123"/>
       <c r="B295" s="10"/>
       <c r="C295" s="3"/>
@@ -27269,7 +27265,7 @@
       <c r="BQ295" s="23"/>
       <c r="BR295" s="11"/>
     </row>
-    <row r="296" spans="1:70" ht="99.95" customHeight="1">
+    <row r="296" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="123"/>
       <c r="B296" s="10"/>
       <c r="C296" s="3"/>
@@ -27341,7 +27337,7 @@
       <c r="BQ296" s="23"/>
       <c r="BR296" s="11"/>
     </row>
-    <row r="297" spans="1:70" ht="99.95" customHeight="1">
+    <row r="297" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="123"/>
       <c r="B297" s="10"/>
       <c r="C297" s="3"/>
@@ -27413,7 +27409,7 @@
       <c r="BQ297" s="23"/>
       <c r="BR297" s="11"/>
     </row>
-    <row r="298" spans="1:70" ht="99.95" customHeight="1">
+    <row r="298" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="123"/>
       <c r="B298" s="10"/>
       <c r="C298" s="3"/>
@@ -27485,7 +27481,7 @@
       <c r="BQ298" s="23"/>
       <c r="BR298" s="11"/>
     </row>
-    <row r="299" spans="1:70" ht="99.95" customHeight="1">
+    <row r="299" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="123"/>
       <c r="B299" s="10"/>
       <c r="C299" s="3"/>
@@ -27557,7 +27553,7 @@
       <c r="BQ299" s="23"/>
       <c r="BR299" s="11"/>
     </row>
-    <row r="300" spans="1:70" ht="99.95" customHeight="1">
+    <row r="300" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="123"/>
       <c r="B300" s="10"/>
       <c r="C300" s="3"/>
@@ -27629,7 +27625,7 @@
       <c r="BQ300" s="23"/>
       <c r="BR300" s="11"/>
     </row>
-    <row r="301" spans="1:70" ht="99.95" customHeight="1">
+    <row r="301" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="123"/>
       <c r="B301" s="10"/>
       <c r="C301" s="3"/>
@@ -27701,7 +27697,7 @@
       <c r="BQ301" s="23"/>
       <c r="BR301" s="11"/>
     </row>
-    <row r="302" spans="1:70" ht="99.95" customHeight="1">
+    <row r="302" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="123"/>
       <c r="B302" s="10"/>
       <c r="C302" s="3"/>
@@ -27773,7 +27769,7 @@
       <c r="BQ302" s="23"/>
       <c r="BR302" s="11"/>
     </row>
-    <row r="303" spans="1:70" ht="99.95" customHeight="1">
+    <row r="303" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="123"/>
       <c r="B303" s="10"/>
       <c r="C303" s="3"/>
@@ -27845,7 +27841,7 @@
       <c r="BQ303" s="23"/>
       <c r="BR303" s="11"/>
     </row>
-    <row r="304" spans="1:70" ht="99.95" customHeight="1">
+    <row r="304" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="123"/>
       <c r="B304" s="10"/>
       <c r="C304" s="3"/>
@@ -27917,7 +27913,7 @@
       <c r="BQ304" s="23"/>
       <c r="BR304" s="11"/>
     </row>
-    <row r="305" spans="1:70" ht="99.95" customHeight="1">
+    <row r="305" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="123"/>
       <c r="B305" s="10"/>
       <c r="C305" s="3"/>
@@ -27989,7 +27985,7 @@
       <c r="BQ305" s="23"/>
       <c r="BR305" s="11"/>
     </row>
-    <row r="306" spans="1:70" ht="99.95" customHeight="1">
+    <row r="306" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="123"/>
       <c r="B306" s="10"/>
       <c r="C306" s="3"/>
@@ -28061,7 +28057,7 @@
       <c r="BQ306" s="23"/>
       <c r="BR306" s="11"/>
     </row>
-    <row r="307" spans="1:70" ht="99.95" customHeight="1">
+    <row r="307" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="123"/>
       <c r="B307" s="10"/>
       <c r="C307" s="3"/>
@@ -28133,7 +28129,7 @@
       <c r="BQ307" s="23"/>
       <c r="BR307" s="11"/>
     </row>
-    <row r="308" spans="1:70" ht="99.95" customHeight="1">
+    <row r="308" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="123"/>
       <c r="B308" s="10"/>
       <c r="C308" s="3"/>
@@ -28205,7 +28201,7 @@
       <c r="BQ308" s="23"/>
       <c r="BR308" s="11"/>
     </row>
-    <row r="309" spans="1:70" ht="99.95" customHeight="1">
+    <row r="309" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="123"/>
       <c r="B309" s="10"/>
       <c r="C309" s="3"/>
@@ -28277,7 +28273,7 @@
       <c r="BQ309" s="23"/>
       <c r="BR309" s="11"/>
     </row>
-    <row r="310" spans="1:70" ht="99.95" customHeight="1">
+    <row r="310" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="123"/>
       <c r="B310" s="10"/>
       <c r="C310" s="3"/>
@@ -28349,7 +28345,7 @@
       <c r="BQ310" s="23"/>
       <c r="BR310" s="11"/>
     </row>
-    <row r="311" spans="1:70" ht="99.95" customHeight="1">
+    <row r="311" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="123"/>
       <c r="B311" s="10"/>
       <c r="C311" s="3"/>
@@ -28421,7 +28417,7 @@
       <c r="BQ311" s="23"/>
       <c r="BR311" s="11"/>
     </row>
-    <row r="312" spans="1:70" ht="99.95" customHeight="1">
+    <row r="312" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="123"/>
       <c r="B312" s="10"/>
       <c r="C312" s="3"/>
@@ -28493,7 +28489,7 @@
       <c r="BQ312" s="23"/>
       <c r="BR312" s="11"/>
     </row>
-    <row r="313" spans="1:70" ht="99.95" customHeight="1">
+    <row r="313" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="123"/>
       <c r="B313" s="10"/>
       <c r="C313" s="3"/>
@@ -28565,7 +28561,7 @@
       <c r="BQ313" s="23"/>
       <c r="BR313" s="11"/>
     </row>
-    <row r="314" spans="1:70" ht="99.95" customHeight="1">
+    <row r="314" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="123"/>
       <c r="B314" s="10"/>
       <c r="C314" s="3"/>
@@ -28637,7 +28633,7 @@
       <c r="BQ314" s="23"/>
       <c r="BR314" s="11"/>
     </row>
-    <row r="315" spans="1:70" ht="99.95" customHeight="1">
+    <row r="315" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="123"/>
       <c r="B315" s="10"/>
       <c r="C315" s="3"/>
@@ -28709,7 +28705,7 @@
       <c r="BQ315" s="23"/>
       <c r="BR315" s="11"/>
     </row>
-    <row r="316" spans="1:70" ht="99.95" customHeight="1">
+    <row r="316" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="123"/>
       <c r="B316" s="10"/>
       <c r="C316" s="3"/>
@@ -28781,7 +28777,7 @@
       <c r="BQ316" s="23"/>
       <c r="BR316" s="11"/>
     </row>
-    <row r="317" spans="1:70" ht="99.95" customHeight="1">
+    <row r="317" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="123"/>
       <c r="B317" s="10"/>
       <c r="C317" s="3"/>
@@ -28853,7 +28849,7 @@
       <c r="BQ317" s="23"/>
       <c r="BR317" s="11"/>
     </row>
-    <row r="318" spans="1:70" ht="99.95" customHeight="1">
+    <row r="318" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="123"/>
       <c r="B318" s="10"/>
       <c r="C318" s="3"/>
@@ -28925,7 +28921,7 @@
       <c r="BQ318" s="23"/>
       <c r="BR318" s="11"/>
     </row>
-    <row r="319" spans="1:70" ht="99.95" customHeight="1">
+    <row r="319" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="123"/>
       <c r="B319" s="10"/>
       <c r="C319" s="3"/>
@@ -28997,7 +28993,7 @@
       <c r="BQ319" s="23"/>
       <c r="BR319" s="11"/>
     </row>
-    <row r="320" spans="1:70" ht="99.95" customHeight="1">
+    <row r="320" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="123"/>
       <c r="B320" s="10"/>
       <c r="C320" s="3"/>
@@ -29069,7 +29065,7 @@
       <c r="BQ320" s="23"/>
       <c r="BR320" s="11"/>
     </row>
-    <row r="321" spans="1:70" ht="99.95" customHeight="1">
+    <row r="321" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="123"/>
       <c r="B321" s="10"/>
       <c r="C321" s="3"/>
@@ -29141,7 +29137,7 @@
       <c r="BQ321" s="23"/>
       <c r="BR321" s="11"/>
     </row>
-    <row r="322" spans="1:70" ht="99.95" customHeight="1">
+    <row r="322" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="123"/>
       <c r="B322" s="10"/>
       <c r="C322" s="3"/>
@@ -29213,7 +29209,7 @@
       <c r="BQ322" s="23"/>
       <c r="BR322" s="11"/>
     </row>
-    <row r="323" spans="1:70" ht="99.95" customHeight="1">
+    <row r="323" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="123"/>
       <c r="B323" s="10"/>
       <c r="C323" s="3"/>
@@ -29285,7 +29281,7 @@
       <c r="BQ323" s="23"/>
       <c r="BR323" s="11"/>
     </row>
-    <row r="324" spans="1:70" ht="99.95" customHeight="1">
+    <row r="324" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="123"/>
       <c r="B324" s="10"/>
       <c r="C324" s="3"/>
@@ -29357,7 +29353,7 @@
       <c r="BQ324" s="23"/>
       <c r="BR324" s="11"/>
     </row>
-    <row r="325" spans="1:70" ht="99.95" customHeight="1">
+    <row r="325" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="123"/>
       <c r="B325" s="10"/>
       <c r="C325" s="3"/>
@@ -29429,7 +29425,7 @@
       <c r="BQ325" s="23"/>
       <c r="BR325" s="11"/>
     </row>
-    <row r="326" spans="1:70" ht="99.95" customHeight="1">
+    <row r="326" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="123"/>
       <c r="B326" s="10"/>
       <c r="C326" s="3"/>
@@ -29501,7 +29497,7 @@
       <c r="BQ326" s="23"/>
       <c r="BR326" s="11"/>
     </row>
-    <row r="327" spans="1:70" ht="99.95" customHeight="1">
+    <row r="327" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="123"/>
       <c r="B327" s="10"/>
       <c r="C327" s="3"/>
@@ -29573,7 +29569,7 @@
       <c r="BQ327" s="23"/>
       <c r="BR327" s="11"/>
     </row>
-    <row r="328" spans="1:70" ht="99.95" customHeight="1">
+    <row r="328" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="123"/>
       <c r="B328" s="10"/>
       <c r="C328" s="3"/>
@@ -29645,7 +29641,7 @@
       <c r="BQ328" s="23"/>
       <c r="BR328" s="11"/>
     </row>
-    <row r="329" spans="1:70" ht="99.95" customHeight="1">
+    <row r="329" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="123"/>
       <c r="B329" s="10"/>
       <c r="C329" s="3"/>
@@ -29717,7 +29713,7 @@
       <c r="BQ329" s="23"/>
       <c r="BR329" s="11"/>
     </row>
-    <row r="330" spans="1:70" ht="99.95" customHeight="1">
+    <row r="330" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="123"/>
       <c r="B330" s="10"/>
       <c r="C330" s="3"/>
@@ -29789,7 +29785,7 @@
       <c r="BQ330" s="23"/>
       <c r="BR330" s="11"/>
     </row>
-    <row r="331" spans="1:70" ht="99.95" customHeight="1">
+    <row r="331" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="123"/>
       <c r="B331" s="10"/>
       <c r="C331" s="3"/>
@@ -29861,7 +29857,7 @@
       <c r="BQ331" s="23"/>
       <c r="BR331" s="11"/>
     </row>
-    <row r="332" spans="1:70" ht="99.95" customHeight="1">
+    <row r="332" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="123"/>
       <c r="B332" s="10"/>
       <c r="C332" s="3"/>
@@ -29933,7 +29929,7 @@
       <c r="BQ332" s="23"/>
       <c r="BR332" s="11"/>
     </row>
-    <row r="333" spans="1:70" ht="99.95" customHeight="1">
+    <row r="333" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="123"/>
       <c r="B333" s="10"/>
       <c r="C333" s="3"/>
@@ -30005,7 +30001,7 @@
       <c r="BQ333" s="23"/>
       <c r="BR333" s="11"/>
     </row>
-    <row r="334" spans="1:70" ht="99.95" customHeight="1">
+    <row r="334" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="123"/>
       <c r="B334" s="10"/>
       <c r="C334" s="3"/>
@@ -30077,7 +30073,7 @@
       <c r="BQ334" s="23"/>
       <c r="BR334" s="11"/>
     </row>
-    <row r="335" spans="1:70" ht="99.95" customHeight="1">
+    <row r="335" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="123"/>
       <c r="B335" s="10"/>
       <c r="C335" s="3"/>
@@ -30149,7 +30145,7 @@
       <c r="BQ335" s="23"/>
       <c r="BR335" s="11"/>
     </row>
-    <row r="336" spans="1:70" ht="99.95" customHeight="1">
+    <row r="336" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="123"/>
       <c r="B336" s="10"/>
       <c r="C336" s="3"/>
@@ -30221,7 +30217,7 @@
       <c r="BQ336" s="23"/>
       <c r="BR336" s="11"/>
     </row>
-    <row r="337" spans="1:70" ht="99.95" customHeight="1">
+    <row r="337" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="123"/>
       <c r="B337" s="10"/>
       <c r="C337" s="3"/>
@@ -30293,7 +30289,7 @@
       <c r="BQ337" s="23"/>
       <c r="BR337" s="11"/>
     </row>
-    <row r="338" spans="1:70" ht="99.95" customHeight="1">
+    <row r="338" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="123"/>
       <c r="B338" s="10"/>
       <c r="C338" s="3"/>
@@ -30365,7 +30361,7 @@
       <c r="BQ338" s="23"/>
       <c r="BR338" s="11"/>
     </row>
-    <row r="339" spans="1:70" ht="99.95" customHeight="1">
+    <row r="339" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="123"/>
       <c r="B339" s="10"/>
       <c r="C339" s="3"/>
@@ -30437,7 +30433,7 @@
       <c r="BQ339" s="23"/>
       <c r="BR339" s="11"/>
     </row>
-    <row r="340" spans="1:70" ht="99.95" customHeight="1">
+    <row r="340" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="123"/>
       <c r="B340" s="10"/>
       <c r="C340" s="3"/>
@@ -30509,7 +30505,7 @@
       <c r="BQ340" s="23"/>
       <c r="BR340" s="11"/>
     </row>
-    <row r="341" spans="1:70" ht="99.95" customHeight="1">
+    <row r="341" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="123"/>
       <c r="B341" s="10"/>
       <c r="C341" s="3"/>
@@ -30581,7 +30577,7 @@
       <c r="BQ341" s="23"/>
       <c r="BR341" s="11"/>
     </row>
-    <row r="342" spans="1:70" ht="99.95" customHeight="1">
+    <row r="342" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="123"/>
       <c r="B342" s="10"/>
       <c r="C342" s="3"/>
@@ -30653,7 +30649,7 @@
       <c r="BQ342" s="23"/>
       <c r="BR342" s="11"/>
     </row>
-    <row r="343" spans="1:70" ht="99.95" customHeight="1">
+    <row r="343" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="123"/>
       <c r="B343" s="10"/>
       <c r="C343" s="3"/>
@@ -30725,7 +30721,7 @@
       <c r="BQ343" s="23"/>
       <c r="BR343" s="11"/>
     </row>
-    <row r="344" spans="1:70" ht="99.95" customHeight="1">
+    <row r="344" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="123"/>
       <c r="B344" s="10"/>
       <c r="C344" s="3"/>
@@ -30797,7 +30793,7 @@
       <c r="BQ344" s="23"/>
       <c r="BR344" s="11"/>
     </row>
-    <row r="345" spans="1:70" ht="99.95" customHeight="1">
+    <row r="345" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="123"/>
       <c r="B345" s="10"/>
       <c r="C345" s="3"/>
@@ -30869,7 +30865,7 @@
       <c r="BQ345" s="23"/>
       <c r="BR345" s="11"/>
     </row>
-    <row r="346" spans="1:70" ht="99.95" customHeight="1">
+    <row r="346" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="123"/>
       <c r="B346" s="10"/>
       <c r="C346" s="3"/>
@@ -30941,7 +30937,7 @@
       <c r="BQ346" s="23"/>
       <c r="BR346" s="11"/>
     </row>
-    <row r="347" spans="1:70" ht="99.95" customHeight="1">
+    <row r="347" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="123"/>
       <c r="B347" s="10"/>
       <c r="C347" s="3"/>
@@ -31013,7 +31009,7 @@
       <c r="BQ347" s="23"/>
       <c r="BR347" s="11"/>
     </row>
-    <row r="348" spans="1:70" ht="99.95" customHeight="1">
+    <row r="348" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="123"/>
       <c r="B348" s="10"/>
       <c r="C348" s="3"/>
@@ -31085,7 +31081,7 @@
       <c r="BQ348" s="23"/>
       <c r="BR348" s="11"/>
     </row>
-    <row r="349" spans="1:70" ht="99.95" customHeight="1">
+    <row r="349" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="123"/>
       <c r="B349" s="10"/>
       <c r="C349" s="3"/>
@@ -31157,7 +31153,7 @@
       <c r="BQ349" s="23"/>
       <c r="BR349" s="11"/>
     </row>
-    <row r="350" spans="1:70" ht="99.95" customHeight="1">
+    <row r="350" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="123"/>
       <c r="B350" s="10"/>
       <c r="C350" s="3"/>
@@ -31229,7 +31225,7 @@
       <c r="BQ350" s="23"/>
       <c r="BR350" s="11"/>
     </row>
-    <row r="351" spans="1:70" ht="99.95" customHeight="1">
+    <row r="351" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="123"/>
       <c r="B351" s="10"/>
       <c r="C351" s="3"/>
@@ -31301,7 +31297,7 @@
       <c r="BQ351" s="23"/>
       <c r="BR351" s="11"/>
     </row>
-    <row r="352" spans="1:70" ht="99.95" customHeight="1">
+    <row r="352" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="123"/>
       <c r="B352" s="10"/>
       <c r="C352" s="3"/>
@@ -31373,7 +31369,7 @@
       <c r="BQ352" s="23"/>
       <c r="BR352" s="11"/>
     </row>
-    <row r="353" spans="1:70" ht="99.95" customHeight="1">
+    <row r="353" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="123"/>
       <c r="B353" s="10"/>
       <c r="C353" s="3"/>
@@ -31445,7 +31441,7 @@
       <c r="BQ353" s="23"/>
       <c r="BR353" s="11"/>
     </row>
-    <row r="354" spans="1:70" ht="99.95" customHeight="1">
+    <row r="354" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="123"/>
       <c r="B354" s="10"/>
       <c r="C354" s="3"/>
@@ -31517,7 +31513,7 @@
       <c r="BQ354" s="23"/>
       <c r="BR354" s="11"/>
     </row>
-    <row r="355" spans="1:70" ht="99.95" customHeight="1">
+    <row r="355" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="123"/>
       <c r="B355" s="10"/>
       <c r="C355" s="3"/>
@@ -31589,7 +31585,7 @@
       <c r="BQ355" s="23"/>
       <c r="BR355" s="11"/>
     </row>
-    <row r="356" spans="1:70" ht="99.95" customHeight="1">
+    <row r="356" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="123"/>
       <c r="B356" s="10"/>
       <c r="C356" s="3"/>
@@ -31661,7 +31657,7 @@
       <c r="BQ356" s="23"/>
       <c r="BR356" s="11"/>
     </row>
-    <row r="357" spans="1:70" ht="99.95" customHeight="1">
+    <row r="357" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="123"/>
       <c r="B357" s="10"/>
       <c r="C357" s="3"/>
@@ -31733,7 +31729,7 @@
       <c r="BQ357" s="23"/>
       <c r="BR357" s="11"/>
     </row>
-    <row r="358" spans="1:70" ht="99.95" customHeight="1">
+    <row r="358" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="123"/>
       <c r="B358" s="10"/>
       <c r="C358" s="3"/>
@@ -31805,7 +31801,7 @@
       <c r="BQ358" s="23"/>
       <c r="BR358" s="11"/>
     </row>
-    <row r="359" spans="1:70" ht="99.95" customHeight="1">
+    <row r="359" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="123"/>
       <c r="B359" s="10"/>
       <c r="C359" s="3"/>
@@ -31877,7 +31873,7 @@
       <c r="BQ359" s="23"/>
       <c r="BR359" s="11"/>
     </row>
-    <row r="360" spans="1:70" ht="99.95" customHeight="1">
+    <row r="360" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="123"/>
       <c r="B360" s="10"/>
       <c r="C360" s="3"/>
@@ -31949,7 +31945,7 @@
       <c r="BQ360" s="23"/>
       <c r="BR360" s="11"/>
     </row>
-    <row r="361" spans="1:70" ht="99.95" customHeight="1">
+    <row r="361" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="123"/>
       <c r="B361" s="10"/>
       <c r="C361" s="3"/>
@@ -32021,7 +32017,7 @@
       <c r="BQ361" s="23"/>
       <c r="BR361" s="11"/>
     </row>
-    <row r="362" spans="1:70" ht="99.95" customHeight="1">
+    <row r="362" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="123"/>
       <c r="B362" s="10"/>
       <c r="C362" s="3"/>
@@ -32093,7 +32089,7 @@
       <c r="BQ362" s="23"/>
       <c r="BR362" s="11"/>
     </row>
-    <row r="363" spans="1:70" ht="99.95" customHeight="1">
+    <row r="363" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="123"/>
       <c r="B363" s="10"/>
       <c r="C363" s="3"/>
@@ -32165,7 +32161,7 @@
       <c r="BQ363" s="23"/>
       <c r="BR363" s="11"/>
     </row>
-    <row r="364" spans="1:70" ht="99.95" customHeight="1">
+    <row r="364" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="123"/>
       <c r="B364" s="10"/>
       <c r="C364" s="3"/>
@@ -32237,7 +32233,7 @@
       <c r="BQ364" s="23"/>
       <c r="BR364" s="11"/>
     </row>
-    <row r="365" spans="1:70" ht="99.95" customHeight="1">
+    <row r="365" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="123"/>
       <c r="B365" s="10"/>
       <c r="C365" s="3"/>
@@ -32309,7 +32305,7 @@
       <c r="BQ365" s="23"/>
       <c r="BR365" s="11"/>
     </row>
-    <row r="366" spans="1:70" ht="99.95" customHeight="1">
+    <row r="366" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="123"/>
       <c r="B366" s="10"/>
       <c r="C366" s="3"/>
@@ -32381,7 +32377,7 @@
       <c r="BQ366" s="23"/>
       <c r="BR366" s="11"/>
     </row>
-    <row r="367" spans="1:70" ht="99.95" customHeight="1">
+    <row r="367" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="123"/>
       <c r="B367" s="10"/>
       <c r="C367" s="3"/>
@@ -32453,7 +32449,7 @@
       <c r="BQ367" s="23"/>
       <c r="BR367" s="11"/>
     </row>
-    <row r="368" spans="1:70" ht="99.95" customHeight="1">
+    <row r="368" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="123"/>
       <c r="B368" s="10"/>
       <c r="C368" s="3"/>
@@ -32525,7 +32521,7 @@
       <c r="BQ368" s="23"/>
       <c r="BR368" s="11"/>
     </row>
-    <row r="369" spans="1:70" ht="99.95" customHeight="1">
+    <row r="369" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="123"/>
       <c r="B369" s="10"/>
       <c r="C369" s="3"/>
@@ -32597,7 +32593,7 @@
       <c r="BQ369" s="23"/>
       <c r="BR369" s="11"/>
     </row>
-    <row r="370" spans="1:70" ht="99.95" customHeight="1">
+    <row r="370" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="123"/>
       <c r="B370" s="10"/>
       <c r="C370" s="3"/>
@@ -32669,7 +32665,7 @@
       <c r="BQ370" s="23"/>
       <c r="BR370" s="11"/>
     </row>
-    <row r="371" spans="1:70" ht="99.95" customHeight="1">
+    <row r="371" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="123"/>
       <c r="B371" s="10"/>
       <c r="C371" s="3"/>
@@ -32741,7 +32737,7 @@
       <c r="BQ371" s="23"/>
       <c r="BR371" s="11"/>
     </row>
-    <row r="372" spans="1:70" ht="99.95" customHeight="1">
+    <row r="372" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="123"/>
       <c r="B372" s="10"/>
       <c r="C372" s="3"/>
@@ -32813,7 +32809,7 @@
       <c r="BQ372" s="23"/>
       <c r="BR372" s="11"/>
     </row>
-    <row r="373" spans="1:70" ht="99.95" customHeight="1">
+    <row r="373" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="123"/>
       <c r="B373" s="10"/>
       <c r="C373" s="3"/>
@@ -32885,7 +32881,7 @@
       <c r="BQ373" s="23"/>
       <c r="BR373" s="11"/>
     </row>
-    <row r="374" spans="1:70" ht="99.95" customHeight="1">
+    <row r="374" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="123"/>
       <c r="B374" s="10"/>
       <c r="C374" s="3"/>
@@ -32957,7 +32953,7 @@
       <c r="BQ374" s="23"/>
       <c r="BR374" s="11"/>
     </row>
-    <row r="375" spans="1:70" ht="99.95" customHeight="1">
+    <row r="375" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="123"/>
       <c r="B375" s="10"/>
       <c r="C375" s="3"/>
@@ -33029,7 +33025,7 @@
       <c r="BQ375" s="23"/>
       <c r="BR375" s="11"/>
     </row>
-    <row r="376" spans="1:70" ht="99.95" customHeight="1">
+    <row r="376" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="123"/>
       <c r="B376" s="10"/>
       <c r="C376" s="3"/>
@@ -33101,7 +33097,7 @@
       <c r="BQ376" s="89"/>
       <c r="BR376" s="39"/>
     </row>
-    <row r="377" spans="1:70" ht="99.95" customHeight="1">
+    <row r="377" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="123"/>
       <c r="B377" s="10"/>
       <c r="C377" s="3"/>
@@ -33173,7 +33169,7 @@
       <c r="BQ377" s="89"/>
       <c r="BR377" s="98"/>
     </row>
-    <row r="378" spans="1:70" ht="99.95" customHeight="1">
+    <row r="378" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="123"/>
       <c r="B378" s="10"/>
       <c r="C378" s="3"/>
@@ -33245,7 +33241,7 @@
       <c r="BQ378" s="89"/>
       <c r="BR378" s="98"/>
     </row>
-    <row r="379" spans="1:70" ht="99.95" customHeight="1">
+    <row r="379" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="123"/>
       <c r="B379" s="10"/>
       <c r="C379" s="3"/>
@@ -33317,7 +33313,7 @@
       <c r="BQ379" s="89"/>
       <c r="BR379" s="98"/>
     </row>
-    <row r="380" spans="1:70" ht="99.95" customHeight="1">
+    <row r="380" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="123"/>
       <c r="B380" s="10"/>
       <c r="C380" s="3"/>
@@ -33389,7 +33385,7 @@
       <c r="BQ380" s="89"/>
       <c r="BR380" s="11"/>
     </row>
-    <row r="381" spans="1:70" ht="99.95" customHeight="1">
+    <row r="381" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="123"/>
       <c r="B381" s="10"/>
       <c r="C381" s="3"/>
@@ -33461,7 +33457,7 @@
       <c r="BQ381" s="89"/>
       <c r="BR381" s="11"/>
     </row>
-    <row r="382" spans="1:70" ht="99.95" customHeight="1">
+    <row r="382" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="123"/>
       <c r="B382" s="10"/>
       <c r="C382" s="3"/>
@@ -33533,7 +33529,7 @@
       <c r="BQ382" s="89"/>
       <c r="BR382" s="11"/>
     </row>
-    <row r="383" spans="1:70" ht="99.95" customHeight="1">
+    <row r="383" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="123"/>
       <c r="B383" s="10"/>
       <c r="C383" s="3"/>
@@ -33605,7 +33601,7 @@
       <c r="BQ383" s="89"/>
       <c r="BR383" s="11"/>
     </row>
-    <row r="384" spans="1:70" ht="99.95" customHeight="1">
+    <row r="384" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="123"/>
       <c r="B384" s="10"/>
       <c r="C384" s="3"/>
@@ -33677,7 +33673,7 @@
       <c r="BQ384" s="89"/>
       <c r="BR384" s="11"/>
     </row>
-    <row r="385" spans="1:70" ht="99.95" customHeight="1">
+    <row r="385" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="123"/>
       <c r="B385" s="10"/>
       <c r="C385" s="3"/>
@@ -33749,7 +33745,7 @@
       <c r="BQ385" s="89"/>
       <c r="BR385" s="11"/>
     </row>
-    <row r="386" spans="1:70" ht="99.95" customHeight="1">
+    <row r="386" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="123"/>
       <c r="B386" s="10"/>
       <c r="C386" s="3"/>
@@ -33821,7 +33817,7 @@
       <c r="BQ386" s="89"/>
       <c r="BR386" s="11"/>
     </row>
-    <row r="387" spans="1:70" ht="99.95" customHeight="1">
+    <row r="387" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="123"/>
       <c r="B387" s="10"/>
       <c r="C387" s="3"/>
@@ -33893,7 +33889,7 @@
       <c r="BQ387" s="89"/>
       <c r="BR387" s="11"/>
     </row>
-    <row r="388" spans="1:70" ht="99.95" customHeight="1">
+    <row r="388" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="123"/>
       <c r="B388" s="10"/>
       <c r="C388" s="3"/>
@@ -33965,7 +33961,7 @@
       <c r="BQ388" s="89"/>
       <c r="BR388" s="11"/>
     </row>
-    <row r="389" spans="1:70" ht="99.95" customHeight="1">
+    <row r="389" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="123"/>
       <c r="B389" s="10"/>
       <c r="C389" s="3"/>
@@ -34037,7 +34033,7 @@
       <c r="BQ389" s="89"/>
       <c r="BR389" s="11"/>
     </row>
-    <row r="390" spans="1:70" ht="99.95" customHeight="1">
+    <row r="390" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="123"/>
       <c r="B390" s="10"/>
       <c r="C390" s="3"/>
@@ -34109,7 +34105,7 @@
       <c r="BQ390" s="89"/>
       <c r="BR390" s="11"/>
     </row>
-    <row r="391" spans="1:70" ht="99.95" customHeight="1">
+    <row r="391" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="123"/>
       <c r="B391" s="10"/>
       <c r="C391" s="3"/>
@@ -34181,7 +34177,7 @@
       <c r="BQ391" s="89"/>
       <c r="BR391" s="11"/>
     </row>
-    <row r="392" spans="1:70" ht="99.95" customHeight="1">
+    <row r="392" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="123"/>
       <c r="B392" s="10"/>
       <c r="C392" s="3"/>
@@ -34253,7 +34249,7 @@
       <c r="BQ392" s="89"/>
       <c r="BR392" s="11"/>
     </row>
-    <row r="393" spans="1:70" ht="99.95" customHeight="1">
+    <row r="393" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="123"/>
       <c r="B393" s="10"/>
       <c r="C393" s="3"/>
@@ -34325,7 +34321,7 @@
       <c r="BQ393" s="89"/>
       <c r="BR393" s="11"/>
     </row>
-    <row r="394" spans="1:70" ht="99.95" customHeight="1">
+    <row r="394" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="123"/>
       <c r="B394" s="10"/>
       <c r="C394" s="3"/>
@@ -34397,7 +34393,7 @@
       <c r="BQ394" s="89"/>
       <c r="BR394" s="11"/>
     </row>
-    <row r="395" spans="1:70" ht="99.95" customHeight="1">
+    <row r="395" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="123"/>
       <c r="B395" s="10"/>
       <c r="C395" s="3"/>
@@ -34469,7 +34465,7 @@
       <c r="BQ395" s="89"/>
       <c r="BR395" s="11"/>
     </row>
-    <row r="396" spans="1:70" ht="99.95" customHeight="1">
+    <row r="396" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="123"/>
       <c r="B396" s="10"/>
       <c r="C396" s="3"/>
@@ -34541,7 +34537,7 @@
       <c r="BQ396" s="89"/>
       <c r="BR396" s="11"/>
     </row>
-    <row r="397" spans="1:70" ht="99.95" customHeight="1">
+    <row r="397" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="123"/>
       <c r="B397" s="10"/>
       <c r="C397" s="3"/>
@@ -34613,7 +34609,7 @@
       <c r="BQ397" s="89"/>
       <c r="BR397" s="11"/>
     </row>
-    <row r="398" spans="1:70" ht="99.95" customHeight="1">
+    <row r="398" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="123"/>
       <c r="B398" s="10"/>
       <c r="C398" s="3"/>
@@ -34685,7 +34681,7 @@
       <c r="BQ398" s="89"/>
       <c r="BR398" s="11"/>
     </row>
-    <row r="399" spans="1:70" ht="99.95" customHeight="1">
+    <row r="399" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="123"/>
       <c r="B399" s="10"/>
       <c r="C399" s="3"/>
@@ -34757,7 +34753,7 @@
       <c r="BQ399" s="89"/>
       <c r="BR399" s="11"/>
     </row>
-    <row r="400" spans="1:70" ht="99.95" customHeight="1">
+    <row r="400" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="123"/>
       <c r="B400" s="10"/>
       <c r="C400" s="3"/>
@@ -34829,7 +34825,7 @@
       <c r="BQ400" s="89"/>
       <c r="BR400" s="11"/>
     </row>
-    <row r="401" spans="1:70" ht="99.95" customHeight="1">
+    <row r="401" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="123"/>
       <c r="B401" s="10"/>
       <c r="C401" s="3"/>
@@ -34901,7 +34897,7 @@
       <c r="BQ401" s="89"/>
       <c r="BR401" s="11"/>
     </row>
-    <row r="402" spans="1:70" ht="99.95" customHeight="1">
+    <row r="402" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="123"/>
       <c r="B402" s="10"/>
       <c r="C402" s="3"/>
@@ -34973,7 +34969,7 @@
       <c r="BQ402" s="89"/>
       <c r="BR402" s="11"/>
     </row>
-    <row r="403" spans="1:70" ht="99.95" customHeight="1">
+    <row r="403" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="123"/>
       <c r="B403" s="10"/>
       <c r="C403" s="3"/>
@@ -35045,7 +35041,7 @@
       <c r="BQ403" s="89"/>
       <c r="BR403" s="11"/>
     </row>
-    <row r="404" spans="1:70" ht="99.95" customHeight="1">
+    <row r="404" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="123"/>
       <c r="B404" s="10"/>
       <c r="C404" s="3"/>
@@ -35117,7 +35113,7 @@
       <c r="BQ404" s="89"/>
       <c r="BR404" s="11"/>
     </row>
-    <row r="405" spans="1:70" ht="99.95" customHeight="1">
+    <row r="405" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="123"/>
       <c r="B405" s="10"/>
       <c r="C405" s="3"/>
@@ -35189,7 +35185,7 @@
       <c r="BQ405" s="89"/>
       <c r="BR405" s="11"/>
     </row>
-    <row r="406" spans="1:70" ht="99.95" customHeight="1">
+    <row r="406" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="123"/>
       <c r="B406" s="10"/>
       <c r="C406" s="3"/>
@@ -35261,7 +35257,7 @@
       <c r="BQ406" s="89"/>
       <c r="BR406" s="11"/>
     </row>
-    <row r="407" spans="1:70" ht="99.95" customHeight="1">
+    <row r="407" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="123"/>
       <c r="B407" s="10"/>
       <c r="C407" s="3"/>
@@ -35333,7 +35329,7 @@
       <c r="BQ407" s="89"/>
       <c r="BR407" s="11"/>
     </row>
-    <row r="408" spans="1:70" ht="99.95" customHeight="1">
+    <row r="408" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="123"/>
       <c r="B408" s="10"/>
       <c r="C408" s="3"/>
@@ -35405,7 +35401,7 @@
       <c r="BQ408" s="89"/>
       <c r="BR408" s="11"/>
     </row>
-    <row r="409" spans="1:70" ht="99.95" customHeight="1">
+    <row r="409" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="123"/>
       <c r="B409" s="10"/>
       <c r="C409" s="3"/>
@@ -35477,7 +35473,7 @@
       <c r="BQ409" s="89"/>
       <c r="BR409" s="11"/>
     </row>
-    <row r="410" spans="1:70" ht="99.95" customHeight="1">
+    <row r="410" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="123"/>
       <c r="B410" s="10"/>
       <c r="C410" s="3"/>
@@ -35549,7 +35545,7 @@
       <c r="BQ410" s="89"/>
       <c r="BR410" s="11"/>
     </row>
-    <row r="411" spans="1:70" ht="99.95" customHeight="1">
+    <row r="411" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="123"/>
       <c r="B411" s="10"/>
       <c r="C411" s="3"/>
@@ -35621,7 +35617,7 @@
       <c r="BQ411" s="89"/>
       <c r="BR411" s="11"/>
     </row>
-    <row r="412" spans="1:70" ht="99.95" customHeight="1">
+    <row r="412" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="123"/>
       <c r="B412" s="10"/>
       <c r="C412" s="3"/>
@@ -35693,7 +35689,7 @@
       <c r="BQ412" s="89"/>
       <c r="BR412" s="11"/>
     </row>
-    <row r="413" spans="1:70" ht="99.95" customHeight="1">
+    <row r="413" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="123"/>
       <c r="B413" s="10"/>
       <c r="C413" s="3"/>
@@ -35765,7 +35761,7 @@
       <c r="BQ413" s="89"/>
       <c r="BR413" s="11"/>
     </row>
-    <row r="414" spans="1:70" ht="99.95" customHeight="1">
+    <row r="414" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="123"/>
       <c r="B414" s="10"/>
       <c r="C414" s="3"/>
@@ -35837,7 +35833,7 @@
       <c r="BQ414" s="89"/>
       <c r="BR414" s="11"/>
     </row>
-    <row r="415" spans="1:70" ht="99.95" customHeight="1">
+    <row r="415" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="123"/>
       <c r="B415" s="10"/>
       <c r="C415" s="3"/>
@@ -35909,7 +35905,7 @@
       <c r="BQ415" s="89"/>
       <c r="BR415" s="11"/>
     </row>
-    <row r="416" spans="1:70" ht="99.95" customHeight="1">
+    <row r="416" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="123"/>
       <c r="B416" s="10"/>
       <c r="C416" s="3"/>
@@ -35981,7 +35977,7 @@
       <c r="BQ416" s="89"/>
       <c r="BR416" s="11"/>
     </row>
-    <row r="417" spans="1:70" ht="99.95" customHeight="1">
+    <row r="417" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="123"/>
       <c r="B417" s="10"/>
       <c r="C417" s="3"/>
@@ -36053,7 +36049,7 @@
       <c r="BQ417" s="89"/>
       <c r="BR417" s="11"/>
     </row>
-    <row r="418" spans="1:70" ht="99.95" customHeight="1">
+    <row r="418" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="123"/>
       <c r="B418" s="10"/>
       <c r="C418" s="3"/>
@@ -36125,7 +36121,7 @@
       <c r="BQ418" s="89"/>
       <c r="BR418" s="11"/>
     </row>
-    <row r="419" spans="1:70" ht="99.95" customHeight="1">
+    <row r="419" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="123"/>
       <c r="B419" s="10"/>
       <c r="C419" s="3"/>
@@ -36197,7 +36193,7 @@
       <c r="BQ419" s="89"/>
       <c r="BR419" s="11"/>
     </row>
-    <row r="420" spans="1:70" ht="99.95" customHeight="1">
+    <row r="420" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="123"/>
       <c r="B420" s="10"/>
       <c r="C420" s="3"/>
@@ -36269,7 +36265,7 @@
       <c r="BQ420" s="89"/>
       <c r="BR420" s="11"/>
     </row>
-    <row r="421" spans="1:70" ht="99.95" customHeight="1">
+    <row r="421" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="123"/>
       <c r="B421" s="10"/>
       <c r="C421" s="3"/>
@@ -36341,7 +36337,7 @@
       <c r="BQ421" s="89"/>
       <c r="BR421" s="11"/>
     </row>
-    <row r="422" spans="1:70" ht="99.95" customHeight="1">
+    <row r="422" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="123"/>
       <c r="B422" s="10"/>
       <c r="C422" s="3"/>
@@ -36413,7 +36409,7 @@
       <c r="BQ422" s="89"/>
       <c r="BR422" s="11"/>
     </row>
-    <row r="423" spans="1:70" ht="99.95" customHeight="1">
+    <row r="423" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="123"/>
       <c r="B423" s="10"/>
       <c r="C423" s="3"/>
@@ -36485,7 +36481,7 @@
       <c r="BQ423" s="89"/>
       <c r="BR423" s="11"/>
     </row>
-    <row r="424" spans="1:70" ht="99.95" customHeight="1">
+    <row r="424" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="123"/>
       <c r="B424" s="10"/>
       <c r="C424" s="3"/>
@@ -36557,7 +36553,7 @@
       <c r="BQ424" s="89"/>
       <c r="BR424" s="11"/>
     </row>
-    <row r="425" spans="1:70" ht="99.95" customHeight="1">
+    <row r="425" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="123"/>
       <c r="B425" s="10"/>
       <c r="C425" s="3"/>
@@ -36629,7 +36625,7 @@
       <c r="BQ425" s="89"/>
       <c r="BR425" s="11"/>
     </row>
-    <row r="426" spans="1:70" ht="99.95" customHeight="1">
+    <row r="426" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="123"/>
       <c r="B426" s="10"/>
       <c r="C426" s="3"/>
@@ -36701,7 +36697,7 @@
       <c r="BQ426" s="89"/>
       <c r="BR426" s="11"/>
     </row>
-    <row r="427" spans="1:70" ht="99.95" customHeight="1">
+    <row r="427" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="123"/>
       <c r="B427" s="10"/>
       <c r="C427" s="3"/>
@@ -36773,7 +36769,7 @@
       <c r="BQ427" s="89"/>
       <c r="BR427" s="11"/>
     </row>
-    <row r="428" spans="1:70" ht="99.95" customHeight="1">
+    <row r="428" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="123"/>
       <c r="B428" s="10"/>
       <c r="C428" s="3"/>
@@ -36845,7 +36841,7 @@
       <c r="BQ428" s="89"/>
       <c r="BR428" s="11"/>
     </row>
-    <row r="429" spans="1:70" ht="99.95" customHeight="1">
+    <row r="429" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="123"/>
       <c r="B429" s="10"/>
       <c r="C429" s="3"/>
@@ -36917,7 +36913,7 @@
       <c r="BQ429" s="89"/>
       <c r="BR429" s="11"/>
     </row>
-    <row r="430" spans="1:70" ht="99.95" customHeight="1">
+    <row r="430" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="123"/>
       <c r="B430" s="10"/>
       <c r="C430" s="3"/>
@@ -36989,7 +36985,7 @@
       <c r="BQ430" s="89"/>
       <c r="BR430" s="11"/>
     </row>
-    <row r="431" spans="1:70" ht="99.95" customHeight="1">
+    <row r="431" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="123"/>
       <c r="B431" s="10"/>
       <c r="C431" s="3"/>
@@ -37061,7 +37057,7 @@
       <c r="BQ431" s="89"/>
       <c r="BR431" s="11"/>
     </row>
-    <row r="432" spans="1:70" ht="99.95" customHeight="1">
+    <row r="432" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="123"/>
       <c r="B432" s="10"/>
       <c r="C432" s="3"/>
@@ -37133,7 +37129,7 @@
       <c r="BQ432" s="89"/>
       <c r="BR432" s="11"/>
     </row>
-    <row r="433" spans="1:70" ht="99.95" customHeight="1">
+    <row r="433" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="123"/>
       <c r="B433" s="10"/>
       <c r="C433" s="3"/>
@@ -37205,7 +37201,7 @@
       <c r="BQ433" s="89"/>
       <c r="BR433" s="11"/>
     </row>
-    <row r="434" spans="1:70" ht="99.95" customHeight="1">
+    <row r="434" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="123"/>
       <c r="B434" s="10"/>
       <c r="C434" s="3"/>
@@ -37277,7 +37273,7 @@
       <c r="BQ434" s="89"/>
       <c r="BR434" s="11"/>
     </row>
-    <row r="435" spans="1:70" ht="99.95" customHeight="1">
+    <row r="435" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="123"/>
       <c r="B435" s="10"/>
       <c r="C435" s="3"/>
@@ -37349,7 +37345,7 @@
       <c r="BQ435" s="89"/>
       <c r="BR435" s="11"/>
     </row>
-    <row r="436" spans="1:70" ht="99.95" customHeight="1">
+    <row r="436" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="123"/>
       <c r="B436" s="10"/>
       <c r="C436" s="3"/>
@@ -37421,7 +37417,7 @@
       <c r="BQ436" s="89"/>
       <c r="BR436" s="11"/>
     </row>
-    <row r="437" spans="1:70" ht="99.95" customHeight="1">
+    <row r="437" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="123"/>
       <c r="B437" s="10"/>
       <c r="C437" s="3"/>
@@ -37493,7 +37489,7 @@
       <c r="BQ437" s="89"/>
       <c r="BR437" s="11"/>
     </row>
-    <row r="438" spans="1:70" ht="99.95" customHeight="1">
+    <row r="438" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="123"/>
       <c r="B438" s="10"/>
       <c r="C438" s="3"/>
@@ -37565,7 +37561,7 @@
       <c r="BQ438" s="89"/>
       <c r="BR438" s="11"/>
     </row>
-    <row r="439" spans="1:70" ht="99.95" customHeight="1">
+    <row r="439" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="123"/>
       <c r="B439" s="10"/>
       <c r="C439" s="3"/>
@@ -37637,7 +37633,7 @@
       <c r="BQ439" s="89"/>
       <c r="BR439" s="11"/>
     </row>
-    <row r="440" spans="1:70" ht="99.95" customHeight="1">
+    <row r="440" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="123"/>
       <c r="B440" s="10"/>
       <c r="C440" s="3"/>
@@ -37709,7 +37705,7 @@
       <c r="BQ440" s="89"/>
       <c r="BR440" s="11"/>
     </row>
-    <row r="441" spans="1:70" ht="99.95" customHeight="1">
+    <row r="441" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="123"/>
       <c r="B441" s="10"/>
       <c r="C441" s="3"/>
@@ -37781,7 +37777,7 @@
       <c r="BQ441" s="89"/>
       <c r="BR441" s="11"/>
     </row>
-    <row r="442" spans="1:70" ht="99.95" customHeight="1">
+    <row r="442" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="123"/>
       <c r="B442" s="10"/>
       <c r="C442" s="3"/>
@@ -37853,7 +37849,7 @@
       <c r="BQ442" s="89"/>
       <c r="BR442" s="11"/>
     </row>
-    <row r="443" spans="1:70" ht="99.95" customHeight="1">
+    <row r="443" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="123"/>
       <c r="B443" s="10"/>
       <c r="C443" s="3"/>
@@ -37925,7 +37921,7 @@
       <c r="BQ443" s="89"/>
       <c r="BR443" s="11"/>
     </row>
-    <row r="444" spans="1:70" ht="99.95" customHeight="1">
+    <row r="444" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="123"/>
       <c r="B444" s="10"/>
       <c r="C444" s="3"/>
@@ -37997,7 +37993,7 @@
       <c r="BQ444" s="89"/>
       <c r="BR444" s="11"/>
     </row>
-    <row r="445" spans="1:70" ht="99.95" customHeight="1">
+    <row r="445" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="123"/>
       <c r="B445" s="10"/>
       <c r="C445" s="3"/>
@@ -38069,7 +38065,7 @@
       <c r="BQ445" s="89"/>
       <c r="BR445" s="11"/>
     </row>
-    <row r="446" spans="1:70" ht="99.95" customHeight="1">
+    <row r="446" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="123"/>
       <c r="B446" s="10"/>
       <c r="C446" s="3"/>
@@ -38141,7 +38137,7 @@
       <c r="BQ446" s="89"/>
       <c r="BR446" s="11"/>
     </row>
-    <row r="447" spans="1:70" ht="99.95" customHeight="1">
+    <row r="447" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="123"/>
       <c r="B447" s="10"/>
       <c r="C447" s="3"/>
@@ -38213,7 +38209,7 @@
       <c r="BQ447" s="89"/>
       <c r="BR447" s="11"/>
     </row>
-    <row r="448" spans="1:70" ht="99.95" customHeight="1">
+    <row r="448" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="123"/>
       <c r="B448" s="10"/>
       <c r="C448" s="3"/>
@@ -38285,7 +38281,7 @@
       <c r="BQ448" s="89"/>
       <c r="BR448" s="11"/>
     </row>
-    <row r="449" spans="1:70" ht="99.95" customHeight="1">
+    <row r="449" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="123"/>
       <c r="B449" s="10"/>
       <c r="C449" s="3"/>
@@ -38357,7 +38353,7 @@
       <c r="BQ449" s="89"/>
       <c r="BR449" s="11"/>
     </row>
-    <row r="450" spans="1:70" ht="99.95" customHeight="1">
+    <row r="450" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="123"/>
       <c r="B450" s="10"/>
       <c r="C450" s="3"/>
@@ -38429,7 +38425,7 @@
       <c r="BQ450" s="89"/>
       <c r="BR450" s="11"/>
     </row>
-    <row r="451" spans="1:70" ht="99.95" customHeight="1">
+    <row r="451" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="123"/>
       <c r="B451" s="10"/>
       <c r="C451" s="3"/>
@@ -38501,7 +38497,7 @@
       <c r="BQ451" s="89"/>
       <c r="BR451" s="11"/>
     </row>
-    <row r="452" spans="1:70" ht="99.95" customHeight="1">
+    <row r="452" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="123"/>
       <c r="B452" s="10"/>
       <c r="C452" s="3"/>
@@ -38573,7 +38569,7 @@
       <c r="BQ452" s="89"/>
       <c r="BR452" s="11"/>
     </row>
-    <row r="453" spans="1:70" ht="99.95" customHeight="1">
+    <row r="453" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="123"/>
       <c r="B453" s="10"/>
       <c r="C453" s="3"/>
@@ -38645,7 +38641,7 @@
       <c r="BQ453" s="89"/>
       <c r="BR453" s="11"/>
     </row>
-    <row r="454" spans="1:70" ht="99.95" customHeight="1">
+    <row r="454" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="123"/>
       <c r="B454" s="10"/>
       <c r="C454" s="3"/>
@@ -38717,7 +38713,7 @@
       <c r="BQ454" s="89"/>
       <c r="BR454" s="11"/>
     </row>
-    <row r="455" spans="1:70" ht="99.95" customHeight="1">
+    <row r="455" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="123"/>
       <c r="B455" s="10"/>
       <c r="C455" s="3"/>
@@ -38789,7 +38785,7 @@
       <c r="BQ455" s="89"/>
       <c r="BR455" s="11"/>
     </row>
-    <row r="456" spans="1:70" ht="99.95" customHeight="1">
+    <row r="456" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="123"/>
       <c r="B456" s="10"/>
       <c r="C456" s="3"/>
@@ -38861,7 +38857,7 @@
       <c r="BQ456" s="89"/>
       <c r="BR456" s="11"/>
     </row>
-    <row r="457" spans="1:70" ht="99.95" customHeight="1">
+    <row r="457" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="123"/>
       <c r="B457" s="10"/>
       <c r="C457" s="3"/>
@@ -38933,7 +38929,7 @@
       <c r="BQ457" s="89"/>
       <c r="BR457" s="11"/>
     </row>
-    <row r="458" spans="1:70" ht="99.95" customHeight="1">
+    <row r="458" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="123"/>
       <c r="B458" s="10"/>
       <c r="C458" s="3"/>
@@ -39005,7 +39001,7 @@
       <c r="BQ458" s="89"/>
       <c r="BR458" s="11"/>
     </row>
-    <row r="459" spans="1:70" ht="99.95" customHeight="1">
+    <row r="459" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="123"/>
       <c r="B459" s="10"/>
       <c r="C459" s="3"/>
@@ -39077,7 +39073,7 @@
       <c r="BQ459" s="89"/>
       <c r="BR459" s="11"/>
     </row>
-    <row r="460" spans="1:70" ht="99.95" customHeight="1">
+    <row r="460" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="123"/>
       <c r="B460" s="10"/>
       <c r="C460" s="3"/>
@@ -39149,7 +39145,7 @@
       <c r="BQ460" s="89"/>
       <c r="BR460" s="11"/>
     </row>
-    <row r="461" spans="1:70" ht="99.95" customHeight="1">
+    <row r="461" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="123"/>
       <c r="B461" s="10"/>
       <c r="C461" s="3"/>
@@ -39221,7 +39217,7 @@
       <c r="BQ461" s="89"/>
       <c r="BR461" s="11"/>
     </row>
-    <row r="462" spans="1:70" ht="99.95" customHeight="1">
+    <row r="462" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="123"/>
       <c r="B462" s="10"/>
       <c r="C462" s="3"/>
@@ -39293,7 +39289,7 @@
       <c r="BQ462" s="89"/>
       <c r="BR462" s="11"/>
     </row>
-    <row r="463" spans="1:70" ht="99.95" customHeight="1">
+    <row r="463" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="123"/>
       <c r="B463" s="10"/>
       <c r="C463" s="3"/>
@@ -39365,7 +39361,7 @@
       <c r="BQ463" s="89"/>
       <c r="BR463" s="11"/>
     </row>
-    <row r="464" spans="1:70" ht="99.95" customHeight="1">
+    <row r="464" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="123"/>
       <c r="B464" s="10"/>
       <c r="C464" s="3"/>
@@ -39437,7 +39433,7 @@
       <c r="BQ464" s="89"/>
       <c r="BR464" s="11"/>
     </row>
-    <row r="465" spans="1:70" ht="99.95" customHeight="1">
+    <row r="465" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="123"/>
       <c r="B465" s="10"/>
       <c r="C465" s="3"/>
@@ -39509,7 +39505,7 @@
       <c r="BQ465" s="89"/>
       <c r="BR465" s="11"/>
     </row>
-    <row r="466" spans="1:70" ht="99.95" customHeight="1">
+    <row r="466" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="123"/>
       <c r="B466" s="10"/>
       <c r="C466" s="3"/>
@@ -39581,7 +39577,7 @@
       <c r="BQ466" s="89"/>
       <c r="BR466" s="11"/>
     </row>
-    <row r="467" spans="1:70" ht="99.95" customHeight="1">
+    <row r="467" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="123"/>
       <c r="B467" s="10"/>
       <c r="C467" s="3"/>
@@ -39653,7 +39649,7 @@
       <c r="BQ467" s="89"/>
       <c r="BR467" s="11"/>
     </row>
-    <row r="468" spans="1:70" ht="99.95" customHeight="1">
+    <row r="468" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="123"/>
       <c r="B468" s="10"/>
       <c r="C468" s="3"/>
@@ -39725,7 +39721,7 @@
       <c r="BQ468" s="89"/>
       <c r="BR468" s="11"/>
     </row>
-    <row r="469" spans="1:70" ht="99.95" customHeight="1">
+    <row r="469" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="123"/>
       <c r="B469" s="10"/>
       <c r="C469" s="3"/>
@@ -39797,7 +39793,7 @@
       <c r="BQ469" s="89"/>
       <c r="BR469" s="11"/>
     </row>
-    <row r="470" spans="1:70" ht="99.95" customHeight="1">
+    <row r="470" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="123"/>
       <c r="B470" s="10"/>
       <c r="C470" s="3"/>
@@ -39869,7 +39865,7 @@
       <c r="BQ470" s="89"/>
       <c r="BR470" s="11"/>
     </row>
-    <row r="471" spans="1:70" ht="99.95" customHeight="1">
+    <row r="471" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="123"/>
       <c r="B471" s="10"/>
       <c r="C471" s="3"/>
@@ -39941,7 +39937,7 @@
       <c r="BQ471" s="89"/>
       <c r="BR471" s="11"/>
     </row>
-    <row r="472" spans="1:70" ht="99.95" customHeight="1">
+    <row r="472" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="123"/>
       <c r="B472" s="10"/>
       <c r="C472" s="3"/>
@@ -40013,7 +40009,7 @@
       <c r="BQ472" s="89"/>
       <c r="BR472" s="11"/>
     </row>
-    <row r="473" spans="1:70" ht="99.95" customHeight="1">
+    <row r="473" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="123"/>
       <c r="B473" s="10"/>
       <c r="C473" s="3"/>
@@ -40085,7 +40081,7 @@
       <c r="BQ473" s="89"/>
       <c r="BR473" s="11"/>
     </row>
-    <row r="474" spans="1:70" ht="99.95" customHeight="1">
+    <row r="474" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="123"/>
       <c r="B474" s="10"/>
       <c r="C474" s="3"/>
@@ -40157,7 +40153,7 @@
       <c r="BQ474" s="89"/>
       <c r="BR474" s="11"/>
     </row>
-    <row r="475" spans="1:70" ht="99.95" customHeight="1">
+    <row r="475" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="123"/>
       <c r="B475" s="10"/>
       <c r="C475" s="3"/>
@@ -40229,7 +40225,7 @@
       <c r="BQ475" s="89"/>
       <c r="BR475" s="11"/>
     </row>
-    <row r="476" spans="1:70" ht="99.95" customHeight="1">
+    <row r="476" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="123"/>
       <c r="B476" s="10"/>
       <c r="C476" s="3"/>
@@ -40301,7 +40297,7 @@
       <c r="BQ476" s="89"/>
       <c r="BR476" s="11"/>
     </row>
-    <row r="477" spans="1:70" ht="99.95" customHeight="1">
+    <row r="477" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="123"/>
       <c r="B477" s="10"/>
       <c r="C477" s="3"/>
@@ -40373,7 +40369,7 @@
       <c r="BQ477" s="89"/>
       <c r="BR477" s="11"/>
     </row>
-    <row r="478" spans="1:70" ht="99.95" customHeight="1">
+    <row r="478" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="123"/>
       <c r="B478" s="10"/>
       <c r="C478" s="3"/>
@@ -40445,7 +40441,7 @@
       <c r="BQ478" s="89"/>
       <c r="BR478" s="11"/>
     </row>
-    <row r="479" spans="1:70" ht="99.95" customHeight="1">
+    <row r="479" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="123"/>
       <c r="B479" s="10"/>
       <c r="C479" s="3"/>
@@ -40517,7 +40513,7 @@
       <c r="BQ479" s="89"/>
       <c r="BR479" s="11"/>
     </row>
-    <row r="480" spans="1:70" ht="99.95" customHeight="1">
+    <row r="480" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="123"/>
       <c r="B480" s="10"/>
       <c r="C480" s="3"/>
@@ -40589,7 +40585,7 @@
       <c r="BQ480" s="89"/>
       <c r="BR480" s="11"/>
     </row>
-    <row r="481" spans="1:70" ht="99.95" customHeight="1">
+    <row r="481" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="123"/>
       <c r="B481" s="10"/>
       <c r="C481" s="3"/>
@@ -40661,7 +40657,7 @@
       <c r="BQ481" s="89"/>
       <c r="BR481" s="11"/>
     </row>
-    <row r="482" spans="1:70" ht="99.95" customHeight="1">
+    <row r="482" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="123"/>
       <c r="B482" s="10"/>
       <c r="C482" s="3"/>
@@ -40733,7 +40729,7 @@
       <c r="BQ482" s="89"/>
       <c r="BR482" s="11"/>
     </row>
-    <row r="483" spans="1:70" ht="99.95" customHeight="1">
+    <row r="483" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="123"/>
       <c r="B483" s="10"/>
       <c r="C483" s="3"/>
@@ -40805,7 +40801,7 @@
       <c r="BQ483" s="89"/>
       <c r="BR483" s="11"/>
     </row>
-    <row r="484" spans="1:70" ht="99.95" customHeight="1">
+    <row r="484" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="123"/>
       <c r="B484" s="10"/>
       <c r="C484" s="3"/>
@@ -40877,7 +40873,7 @@
       <c r="BQ484" s="89"/>
       <c r="BR484" s="11"/>
     </row>
-    <row r="485" spans="1:70" ht="99.95" customHeight="1">
+    <row r="485" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="123"/>
       <c r="B485" s="10"/>
       <c r="C485" s="3"/>
@@ -40949,7 +40945,7 @@
       <c r="BQ485" s="89"/>
       <c r="BR485" s="11"/>
     </row>
-    <row r="486" spans="1:70" ht="99.95" customHeight="1">
+    <row r="486" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="123"/>
       <c r="B486" s="10"/>
       <c r="C486" s="3"/>
@@ -41021,7 +41017,7 @@
       <c r="BQ486" s="89"/>
       <c r="BR486" s="11"/>
     </row>
-    <row r="487" spans="1:70" ht="99.95" customHeight="1">
+    <row r="487" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="123"/>
       <c r="B487" s="10"/>
       <c r="C487" s="3"/>
@@ -41093,7 +41089,7 @@
       <c r="BQ487" s="89"/>
       <c r="BR487" s="11"/>
     </row>
-    <row r="488" spans="1:70" ht="99.95" customHeight="1">
+    <row r="488" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="123"/>
       <c r="B488" s="10"/>
       <c r="C488" s="3"/>
@@ -41165,7 +41161,7 @@
       <c r="BQ488" s="89"/>
       <c r="BR488" s="11"/>
     </row>
-    <row r="489" spans="1:70" ht="99.95" customHeight="1">
+    <row r="489" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="123"/>
       <c r="B489" s="10"/>
       <c r="C489" s="3"/>
@@ -41237,7 +41233,7 @@
       <c r="BQ489" s="89"/>
       <c r="BR489" s="11"/>
     </row>
-    <row r="490" spans="1:70" ht="99.95" customHeight="1">
+    <row r="490" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="123"/>
       <c r="B490" s="10"/>
       <c r="C490" s="3"/>
@@ -41309,7 +41305,7 @@
       <c r="BQ490" s="89"/>
       <c r="BR490" s="11"/>
     </row>
-    <row r="491" spans="1:70" ht="99.95" customHeight="1">
+    <row r="491" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="123"/>
       <c r="B491" s="10"/>
       <c r="C491" s="3"/>
@@ -41381,7 +41377,7 @@
       <c r="BQ491" s="89"/>
       <c r="BR491" s="11"/>
     </row>
-    <row r="492" spans="1:70" ht="99.95" customHeight="1">
+    <row r="492" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="123"/>
       <c r="B492" s="10"/>
       <c r="C492" s="3"/>
@@ -41453,7 +41449,7 @@
       <c r="BQ492" s="89"/>
       <c r="BR492" s="11"/>
     </row>
-    <row r="493" spans="1:70" ht="99.95" customHeight="1">
+    <row r="493" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="123"/>
       <c r="B493" s="10"/>
       <c r="C493" s="3"/>
@@ -41525,7 +41521,7 @@
       <c r="BQ493" s="89"/>
       <c r="BR493" s="11"/>
     </row>
-    <row r="494" spans="1:70" ht="99.95" customHeight="1">
+    <row r="494" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="123"/>
       <c r="B494" s="10"/>
       <c r="C494" s="3"/>
@@ -41597,7 +41593,7 @@
       <c r="BQ494" s="89"/>
       <c r="BR494" s="11"/>
     </row>
-    <row r="495" spans="1:70" ht="99.95" customHeight="1">
+    <row r="495" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="123"/>
       <c r="B495" s="10"/>
       <c r="C495" s="3"/>
@@ -41669,7 +41665,7 @@
       <c r="BQ495" s="89"/>
       <c r="BR495" s="11"/>
     </row>
-    <row r="496" spans="1:70" ht="99.95" customHeight="1">
+    <row r="496" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="123"/>
       <c r="B496" s="10"/>
       <c r="C496" s="3"/>
@@ -41741,7 +41737,7 @@
       <c r="BQ496" s="89"/>
       <c r="BR496" s="11"/>
     </row>
-    <row r="497" spans="1:70" ht="99.95" customHeight="1">
+    <row r="497" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="123"/>
       <c r="B497" s="10"/>
       <c r="C497" s="3"/>
@@ -41813,7 +41809,7 @@
       <c r="BQ497" s="89"/>
       <c r="BR497" s="11"/>
     </row>
-    <row r="498" spans="1:70" ht="99.95" customHeight="1">
+    <row r="498" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="123"/>
       <c r="B498" s="10"/>
       <c r="C498" s="3"/>
@@ -41885,7 +41881,7 @@
       <c r="BQ498" s="89"/>
       <c r="BR498" s="11"/>
     </row>
-    <row r="499" spans="1:70" ht="99.95" customHeight="1">
+    <row r="499" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="123"/>
       <c r="B499" s="10"/>
       <c r="C499" s="3"/>
@@ -41957,7 +41953,7 @@
       <c r="BQ499" s="89"/>
       <c r="BR499" s="11"/>
     </row>
-    <row r="500" spans="1:70" ht="99.95" customHeight="1">
+    <row r="500" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="123"/>
       <c r="B500" s="10"/>
       <c r="C500" s="3"/>
@@ -42029,7 +42025,7 @@
       <c r="BQ500" s="89"/>
       <c r="BR500" s="11"/>
     </row>
-    <row r="501" spans="1:70" ht="99.95" customHeight="1">
+    <row r="501" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="123"/>
       <c r="B501" s="10"/>
       <c r="C501" s="3"/>
@@ -42101,7 +42097,7 @@
       <c r="BQ501" s="89"/>
       <c r="BR501" s="11"/>
     </row>
-    <row r="502" spans="1:70" ht="99.95" customHeight="1">
+    <row r="502" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="123"/>
       <c r="B502" s="10"/>
       <c r="C502" s="3"/>
@@ -42173,7 +42169,7 @@
       <c r="BQ502" s="89"/>
       <c r="BR502" s="11"/>
     </row>
-    <row r="503" spans="1:70" ht="99.95" customHeight="1">
+    <row r="503" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="123"/>
       <c r="B503" s="10"/>
       <c r="C503" s="3"/>
@@ -42245,7 +42241,7 @@
       <c r="BQ503" s="89"/>
       <c r="BR503" s="11"/>
     </row>
-    <row r="504" spans="1:70" ht="99.95" customHeight="1">
+    <row r="504" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="123"/>
       <c r="B504" s="10"/>
       <c r="C504" s="3"/>
@@ -42317,7 +42313,7 @@
       <c r="BQ504" s="89"/>
       <c r="BR504" s="11"/>
     </row>
-    <row r="505" spans="1:70" ht="99.95" customHeight="1">
+    <row r="505" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="123"/>
       <c r="B505" s="10"/>
       <c r="C505" s="3"/>
@@ -42389,7 +42385,7 @@
       <c r="BQ505" s="89"/>
       <c r="BR505" s="11"/>
     </row>
-    <row r="506" spans="1:70" ht="99.95" customHeight="1">
+    <row r="506" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" s="123"/>
       <c r="B506" s="10"/>
       <c r="C506" s="3"/>
@@ -42461,7 +42457,7 @@
       <c r="BQ506" s="89"/>
       <c r="BR506" s="11"/>
     </row>
-    <row r="507" spans="1:70" ht="99.95" customHeight="1">
+    <row r="507" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" s="123"/>
       <c r="B507" s="10"/>
       <c r="C507" s="3"/>
@@ -42533,7 +42529,7 @@
       <c r="BQ507" s="89"/>
       <c r="BR507" s="11"/>
     </row>
-    <row r="508" spans="1:70" ht="99.95" customHeight="1">
+    <row r="508" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" s="123"/>
       <c r="B508" s="10"/>
       <c r="C508" s="3"/>
@@ -42605,7 +42601,7 @@
       <c r="BQ508" s="89"/>
       <c r="BR508" s="11"/>
     </row>
-    <row r="509" spans="1:70" ht="99.95" customHeight="1">
+    <row r="509" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" s="123"/>
       <c r="B509" s="10"/>
       <c r="C509" s="3"/>
@@ -42677,7 +42673,7 @@
       <c r="BQ509" s="89"/>
       <c r="BR509" s="11"/>
     </row>
-    <row r="510" spans="1:70" ht="99.95" customHeight="1">
+    <row r="510" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="123"/>
       <c r="B510" s="10"/>
       <c r="C510" s="3"/>
@@ -42749,7 +42745,7 @@
       <c r="BQ510" s="89"/>
       <c r="BR510" s="11"/>
     </row>
-    <row r="511" spans="1:70" ht="99.95" customHeight="1">
+    <row r="511" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" s="123"/>
       <c r="B511" s="10"/>
       <c r="C511" s="3"/>
@@ -42821,7 +42817,7 @@
       <c r="BQ511" s="89"/>
       <c r="BR511" s="11"/>
     </row>
-    <row r="512" spans="1:70" ht="99.95" customHeight="1">
+    <row r="512" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" s="123"/>
       <c r="B512" s="10"/>
       <c r="C512" s="3"/>
@@ -42893,7 +42889,7 @@
       <c r="BQ512" s="89"/>
       <c r="BR512" s="11"/>
     </row>
-    <row r="513" spans="1:70" ht="99.95" customHeight="1">
+    <row r="513" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" s="123"/>
       <c r="B513" s="10"/>
       <c r="C513" s="3"/>
@@ -42965,7 +42961,7 @@
       <c r="BQ513" s="89"/>
       <c r="BR513" s="11"/>
     </row>
-    <row r="514" spans="1:70" ht="99.95" customHeight="1">
+    <row r="514" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A514" s="123"/>
       <c r="B514" s="10"/>
       <c r="C514" s="3"/>
@@ -43037,7 +43033,7 @@
       <c r="BQ514" s="89"/>
       <c r="BR514" s="11"/>
     </row>
-    <row r="515" spans="1:70" ht="99.95" customHeight="1">
+    <row r="515" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A515" s="123"/>
       <c r="B515" s="10"/>
       <c r="C515" s="3"/>
@@ -43109,7 +43105,7 @@
       <c r="BQ515" s="89"/>
       <c r="BR515" s="11"/>
     </row>
-    <row r="516" spans="1:70" ht="99.95" customHeight="1">
+    <row r="516" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" s="123"/>
       <c r="B516" s="10"/>
       <c r="C516" s="3"/>
@@ -43181,7 +43177,7 @@
       <c r="BQ516" s="89"/>
       <c r="BR516" s="11"/>
     </row>
-    <row r="517" spans="1:70" ht="99.95" customHeight="1">
+    <row r="517" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" s="123"/>
       <c r="B517" s="10"/>
       <c r="C517" s="3"/>
@@ -43253,7 +43249,7 @@
       <c r="BQ517" s="89"/>
       <c r="BR517" s="11"/>
     </row>
-    <row r="518" spans="1:70" ht="99.95" customHeight="1">
+    <row r="518" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" s="123"/>
       <c r="B518" s="10"/>
       <c r="C518" s="3"/>
@@ -43325,7 +43321,7 @@
       <c r="BQ518" s="89"/>
       <c r="BR518" s="11"/>
     </row>
-    <row r="519" spans="1:70" ht="99.95" customHeight="1">
+    <row r="519" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519" s="123"/>
       <c r="B519" s="10"/>
       <c r="C519" s="3"/>
@@ -43397,7 +43393,7 @@
       <c r="BQ519" s="89"/>
       <c r="BR519" s="11"/>
     </row>
-    <row r="520" spans="1:70" ht="99.95" customHeight="1">
+    <row r="520" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A520" s="123"/>
       <c r="B520" s="10"/>
       <c r="C520" s="3"/>
@@ -43469,7 +43465,7 @@
       <c r="BQ520" s="89"/>
       <c r="BR520" s="11"/>
     </row>
-    <row r="521" spans="1:70" ht="99.95" customHeight="1">
+    <row r="521" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" s="123"/>
       <c r="B521" s="10"/>
       <c r="C521" s="3"/>
@@ -43541,7 +43537,7 @@
       <c r="BQ521" s="89"/>
       <c r="BR521" s="11"/>
     </row>
-    <row r="522" spans="1:70" ht="99.95" customHeight="1">
+    <row r="522" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A522" s="123"/>
       <c r="B522" s="10"/>
       <c r="C522" s="3"/>
@@ -43613,7 +43609,7 @@
       <c r="BQ522" s="89"/>
       <c r="BR522" s="11"/>
     </row>
-    <row r="523" spans="1:70" ht="99.95" customHeight="1">
+    <row r="523" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" s="123"/>
       <c r="B523" s="10"/>
       <c r="C523" s="3"/>
@@ -43685,7 +43681,7 @@
       <c r="BQ523" s="89"/>
       <c r="BR523" s="11"/>
     </row>
-    <row r="524" spans="1:70" ht="99.95" customHeight="1">
+    <row r="524" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" s="123"/>
       <c r="B524" s="10"/>
       <c r="C524" s="3"/>
@@ -43757,7 +43753,7 @@
       <c r="BQ524" s="89"/>
       <c r="BR524" s="11"/>
     </row>
-    <row r="525" spans="1:70" ht="99.95" customHeight="1">
+    <row r="525" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A525" s="123"/>
       <c r="B525" s="10"/>
       <c r="C525" s="3"/>
@@ -43829,7 +43825,7 @@
       <c r="BQ525" s="89"/>
       <c r="BR525" s="11"/>
     </row>
-    <row r="526" spans="1:70" ht="99.95" customHeight="1">
+    <row r="526" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526" s="123"/>
       <c r="B526" s="10"/>
       <c r="C526" s="3"/>
@@ -43901,7 +43897,7 @@
       <c r="BQ526" s="89"/>
       <c r="BR526" s="11"/>
     </row>
-    <row r="527" spans="1:70" ht="99.95" customHeight="1">
+    <row r="527" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" s="123"/>
       <c r="B527" s="10"/>
       <c r="C527" s="3"/>
@@ -43973,7 +43969,7 @@
       <c r="BQ527" s="89"/>
       <c r="BR527" s="11"/>
     </row>
-    <row r="528" spans="1:70" ht="99.95" customHeight="1">
+    <row r="528" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A528" s="123"/>
       <c r="B528" s="10"/>
       <c r="C528" s="3"/>
@@ -44045,7 +44041,7 @@
       <c r="BQ528" s="89"/>
       <c r="BR528" s="11"/>
     </row>
-    <row r="529" spans="1:70" ht="99.95" customHeight="1">
+    <row r="529" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529" s="123"/>
       <c r="B529" s="10"/>
       <c r="C529" s="3"/>
@@ -44117,7 +44113,7 @@
       <c r="BQ529" s="89"/>
       <c r="BR529" s="11"/>
     </row>
-    <row r="530" spans="1:70" ht="99.95" customHeight="1">
+    <row r="530" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" s="123"/>
       <c r="B530" s="10"/>
       <c r="C530" s="3"/>
@@ -44189,7 +44185,7 @@
       <c r="BQ530" s="89"/>
       <c r="BR530" s="11"/>
     </row>
-    <row r="531" spans="1:70" ht="99.95" customHeight="1">
+    <row r="531" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A531" s="123"/>
       <c r="B531" s="10"/>
       <c r="C531" s="3"/>
@@ -44261,7 +44257,7 @@
       <c r="BQ531" s="89"/>
       <c r="BR531" s="11"/>
     </row>
-    <row r="532" spans="1:70" ht="99.95" customHeight="1">
+    <row r="532" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A532" s="123"/>
       <c r="B532" s="10"/>
       <c r="C532" s="3"/>
@@ -44333,7 +44329,7 @@
       <c r="BQ532" s="89"/>
       <c r="BR532" s="11"/>
     </row>
-    <row r="533" spans="1:70" ht="99.95" customHeight="1">
+    <row r="533" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" s="123"/>
       <c r="B533" s="10"/>
       <c r="C533" s="3"/>
@@ -44405,7 +44401,7 @@
       <c r="BQ533" s="89"/>
       <c r="BR533" s="11"/>
     </row>
-    <row r="534" spans="1:70" ht="99.95" customHeight="1">
+    <row r="534" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534" s="123"/>
       <c r="B534" s="10"/>
       <c r="C534" s="3"/>
@@ -44477,7 +44473,7 @@
       <c r="BQ534" s="89"/>
       <c r="BR534" s="11"/>
     </row>
-    <row r="535" spans="1:70" ht="99.95" customHeight="1">
+    <row r="535" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A535" s="123"/>
       <c r="B535" s="10"/>
       <c r="C535" s="3"/>
@@ -44549,7 +44545,7 @@
       <c r="BQ535" s="89"/>
       <c r="BR535" s="11"/>
     </row>
-    <row r="536" spans="1:70" ht="99.95" customHeight="1">
+    <row r="536" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A536" s="123"/>
       <c r="B536" s="10"/>
       <c r="C536" s="3"/>
@@ -44621,7 +44617,7 @@
       <c r="BQ536" s="89"/>
       <c r="BR536" s="11"/>
     </row>
-    <row r="537" spans="1:70" ht="99.95" customHeight="1">
+    <row r="537" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A537" s="123"/>
       <c r="B537" s="10"/>
       <c r="C537" s="3"/>
@@ -44693,7 +44689,7 @@
       <c r="BQ537" s="89"/>
       <c r="BR537" s="11"/>
     </row>
-    <row r="538" spans="1:70" ht="99.95" customHeight="1">
+    <row r="538" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A538" s="123"/>
       <c r="B538" s="10"/>
       <c r="C538" s="3"/>
@@ -44765,7 +44761,7 @@
       <c r="BQ538" s="23"/>
       <c r="BR538" s="11"/>
     </row>
-    <row r="539" spans="1:70" ht="99.95" customHeight="1">
+    <row r="539" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A539" s="123"/>
       <c r="B539" s="10"/>
       <c r="C539" s="3"/>
@@ -44837,7 +44833,7 @@
       <c r="BQ539" s="23"/>
       <c r="BR539" s="11"/>
     </row>
-    <row r="540" spans="1:70" ht="99.95" customHeight="1">
+    <row r="540" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A540" s="123"/>
       <c r="B540" s="10"/>
       <c r="C540" s="3"/>
@@ -44909,7 +44905,7 @@
       <c r="BQ540" s="23"/>
       <c r="BR540" s="11"/>
     </row>
-    <row r="541" spans="1:70" ht="99.95" customHeight="1">
+    <row r="541" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A541" s="123"/>
       <c r="B541" s="10"/>
       <c r="C541" s="3"/>
@@ -44981,7 +44977,7 @@
       <c r="BQ541" s="23"/>
       <c r="BR541" s="11"/>
     </row>
-    <row r="542" spans="1:70" ht="99.95" customHeight="1">
+    <row r="542" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A542" s="123"/>
       <c r="B542" s="10"/>
       <c r="C542" s="3"/>
@@ -45053,7 +45049,7 @@
       <c r="BQ542" s="23"/>
       <c r="BR542" s="11"/>
     </row>
-    <row r="543" spans="1:70" ht="99.95" customHeight="1">
+    <row r="543" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A543" s="123"/>
       <c r="B543" s="10"/>
       <c r="C543" s="3"/>
@@ -45125,7 +45121,7 @@
       <c r="BQ543" s="23"/>
       <c r="BR543" s="11"/>
     </row>
-    <row r="544" spans="1:70" ht="99.95" customHeight="1">
+    <row r="544" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A544" s="123"/>
       <c r="B544" s="10"/>
       <c r="C544" s="3"/>
@@ -45197,7 +45193,7 @@
       <c r="BQ544" s="23"/>
       <c r="BR544" s="11"/>
     </row>
-    <row r="545" spans="1:70" ht="99.95" customHeight="1">
+    <row r="545" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A545" s="123"/>
       <c r="B545" s="10"/>
       <c r="C545" s="3"/>
@@ -45269,7 +45265,7 @@
       <c r="BQ545" s="23"/>
       <c r="BR545" s="11"/>
     </row>
-    <row r="546" spans="1:70" ht="99.95" customHeight="1">
+    <row r="546" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A546" s="123"/>
       <c r="B546" s="10"/>
       <c r="C546" s="3"/>
@@ -45341,7 +45337,7 @@
       <c r="BQ546" s="23"/>
       <c r="BR546" s="11"/>
     </row>
-    <row r="547" spans="1:70" ht="99.95" customHeight="1">
+    <row r="547" spans="1:70" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547" s="123"/>
       <c r="B547" s="10"/>
       <c r="C547" s="3"/>
@@ -45413,7 +45409,7 @@
       <c r="BQ547" s="23"/>
       <c r="BR547" s="11"/>
     </row>
-    <row r="548" spans="1:70" ht="99.75" customHeight="1">
+    <row r="548" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A548" s="123"/>
       <c r="B548" s="10"/>
       <c r="C548" s="3"/>
@@ -45485,7 +45481,7 @@
       <c r="BQ548" s="23"/>
       <c r="BR548" s="11"/>
     </row>
-    <row r="549" spans="1:70" ht="99.75" customHeight="1">
+    <row r="549" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549" s="123"/>
       <c r="B549" s="10"/>
       <c r="C549" s="8"/>
@@ -45557,7 +45553,7 @@
       <c r="BQ549" s="23"/>
       <c r="BR549" s="11"/>
     </row>
-    <row r="550" spans="1:70" ht="99.75" customHeight="1">
+    <row r="550" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A550" s="123"/>
       <c r="B550" s="10"/>
       <c r="C550" s="15"/>
@@ -45629,7 +45625,7 @@
       <c r="BQ550" s="23"/>
       <c r="BR550" s="16"/>
     </row>
-    <row r="551" spans="1:70" ht="99.75" customHeight="1">
+    <row r="551" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A551" s="123"/>
       <c r="B551" s="10"/>
       <c r="C551" s="17"/>
@@ -45701,7 +45697,7 @@
       <c r="BQ551" s="23"/>
       <c r="BR551" s="11"/>
     </row>
-    <row r="552" spans="1:70" ht="100.5" customHeight="1">
+    <row r="552" spans="1:70" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A552" s="123"/>
       <c r="B552" s="10"/>
       <c r="C552" s="17"/>
@@ -45773,7 +45769,7 @@
       <c r="BQ552" s="23"/>
       <c r="BR552" s="11"/>
     </row>
-    <row r="553" spans="1:70" ht="99.75" customHeight="1">
+    <row r="553" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A553" s="123"/>
       <c r="B553" s="10"/>
       <c r="C553" s="17"/>
@@ -45845,7 +45841,7 @@
       <c r="BQ553" s="23"/>
       <c r="BR553" s="11"/>
     </row>
-    <row r="554" spans="1:70" ht="99.75" customHeight="1">
+    <row r="554" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A554" s="123"/>
       <c r="B554" s="10"/>
       <c r="C554" s="17"/>
@@ -45917,7 +45913,7 @@
       <c r="BQ554" s="23"/>
       <c r="BR554" s="11"/>
     </row>
-    <row r="555" spans="1:70" ht="99.75" customHeight="1">
+    <row r="555" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" s="123"/>
       <c r="B555" s="10"/>
       <c r="C555" s="17"/>
@@ -45989,7 +45985,7 @@
       <c r="BQ555" s="23"/>
       <c r="BR555" s="11"/>
     </row>
-    <row r="556" spans="1:70" ht="99.75" customHeight="1">
+    <row r="556" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A556" s="123"/>
       <c r="B556" s="10"/>
       <c r="C556" s="17"/>
@@ -46061,7 +46057,7 @@
       <c r="BQ556" s="23"/>
       <c r="BR556" s="11"/>
     </row>
-    <row r="557" spans="1:70" ht="99.75" customHeight="1">
+    <row r="557" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A557" s="123"/>
       <c r="B557" s="10"/>
       <c r="C557" s="17"/>
@@ -46133,7 +46129,7 @@
       <c r="BQ557" s="23"/>
       <c r="BR557" s="11"/>
     </row>
-    <row r="558" spans="1:70" ht="99.75" customHeight="1">
+    <row r="558" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A558" s="123"/>
       <c r="B558" s="10"/>
       <c r="C558" s="17"/>
@@ -46205,7 +46201,7 @@
       <c r="BQ558" s="23"/>
       <c r="BR558" s="11"/>
     </row>
-    <row r="559" spans="1:70" ht="99.75" customHeight="1">
+    <row r="559" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A559" s="123"/>
       <c r="B559" s="10"/>
       <c r="C559" s="17"/>
@@ -46277,7 +46273,7 @@
       <c r="BQ559" s="23"/>
       <c r="BR559" s="11"/>
     </row>
-    <row r="560" spans="1:70" ht="100.5" customHeight="1">
+    <row r="560" spans="1:70" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A560" s="123"/>
       <c r="B560" s="10"/>
       <c r="C560" s="17"/>
@@ -46349,7 +46345,7 @@
       <c r="BQ560" s="23"/>
       <c r="BR560" s="11"/>
     </row>
-    <row r="561" spans="1:70" ht="99.75" customHeight="1">
+    <row r="561" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561" s="123"/>
       <c r="B561" s="10"/>
       <c r="C561" s="17"/>
@@ -46421,7 +46417,7 @@
       <c r="BQ561" s="23"/>
       <c r="BR561" s="11"/>
     </row>
-    <row r="562" spans="1:70" ht="99.75" customHeight="1">
+    <row r="562" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A562" s="123"/>
       <c r="B562" s="10"/>
       <c r="C562" s="17"/>
@@ -46493,7 +46489,7 @@
       <c r="BQ562" s="23"/>
       <c r="BR562" s="11"/>
     </row>
-    <row r="563" spans="1:70" ht="100.5" customHeight="1">
+    <row r="563" spans="1:70" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A563" s="123"/>
       <c r="B563" s="10"/>
       <c r="C563" s="17"/>
@@ -46565,7 +46561,7 @@
       <c r="BQ563" s="23"/>
       <c r="BR563" s="11"/>
     </row>
-    <row r="564" spans="1:70" ht="99.75" customHeight="1">
+    <row r="564" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A564" s="123"/>
       <c r="B564" s="10"/>
       <c r="C564" s="17"/>
@@ -46637,7 +46633,7 @@
       <c r="BQ564" s="23"/>
       <c r="BR564" s="11"/>
     </row>
-    <row r="565" spans="1:70" ht="99.75" customHeight="1">
+    <row r="565" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A565" s="123"/>
       <c r="B565" s="10"/>
       <c r="C565" s="17"/>
@@ -46709,7 +46705,7 @@
       <c r="BQ565" s="23"/>
       <c r="BR565" s="11"/>
     </row>
-    <row r="566" spans="1:70" ht="99.75" customHeight="1">
+    <row r="566" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A566" s="123"/>
       <c r="B566" s="10"/>
       <c r="C566" s="17"/>
@@ -46781,7 +46777,7 @@
       <c r="BQ566" s="23"/>
       <c r="BR566" s="11"/>
     </row>
-    <row r="567" spans="1:70" ht="99.75" customHeight="1">
+    <row r="567" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A567" s="123"/>
       <c r="B567" s="10"/>
       <c r="C567" s="17"/>
@@ -46853,7 +46849,7 @@
       <c r="BQ567" s="23"/>
       <c r="BR567" s="11"/>
     </row>
-    <row r="568" spans="1:70" ht="99.75" customHeight="1">
+    <row r="568" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A568" s="123"/>
       <c r="B568" s="10"/>
       <c r="C568" s="17"/>
@@ -46925,7 +46921,7 @@
       <c r="BQ568" s="23"/>
       <c r="BR568" s="11"/>
     </row>
-    <row r="569" spans="1:70" ht="99.75" customHeight="1">
+    <row r="569" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A569" s="123"/>
       <c r="B569" s="10"/>
       <c r="C569" s="17"/>
@@ -46997,7 +46993,7 @@
       <c r="BQ569" s="23"/>
       <c r="BR569" s="11"/>
     </row>
-    <row r="570" spans="1:70" ht="99.75" customHeight="1">
+    <row r="570" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A570" s="123"/>
       <c r="B570" s="10"/>
       <c r="C570" s="17"/>
@@ -47069,7 +47065,7 @@
       <c r="BQ570" s="23"/>
       <c r="BR570" s="11"/>
     </row>
-    <row r="571" spans="1:70" ht="100.5" customHeight="1">
+    <row r="571" spans="1:70" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A571" s="123"/>
       <c r="B571" s="10"/>
       <c r="C571" s="17"/>
@@ -47141,7 +47137,7 @@
       <c r="BQ571" s="23"/>
       <c r="BR571" s="11"/>
     </row>
-    <row r="572" spans="1:70" ht="99.75" customHeight="1">
+    <row r="572" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A572" s="123"/>
       <c r="B572" s="10"/>
       <c r="C572" s="17"/>
@@ -47213,7 +47209,7 @@
       <c r="BQ572" s="23"/>
       <c r="BR572" s="11"/>
     </row>
-    <row r="573" spans="1:70" ht="99.75" customHeight="1">
+    <row r="573" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A573" s="123"/>
       <c r="B573" s="10"/>
       <c r="C573" s="17"/>
@@ -47285,7 +47281,7 @@
       <c r="BQ573" s="23"/>
       <c r="BR573" s="11"/>
     </row>
-    <row r="574" spans="1:70" ht="99.75" customHeight="1">
+    <row r="574" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A574" s="123"/>
       <c r="B574" s="10"/>
       <c r="C574" s="17"/>
@@ -47357,7 +47353,7 @@
       <c r="BQ574" s="23"/>
       <c r="BR574" s="11"/>
     </row>
-    <row r="575" spans="1:70" ht="99.75" customHeight="1">
+    <row r="575" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A575" s="123"/>
       <c r="B575" s="10"/>
       <c r="C575" s="17"/>
@@ -47429,7 +47425,7 @@
       <c r="BQ575" s="23"/>
       <c r="BR575" s="11"/>
     </row>
-    <row r="576" spans="1:70" ht="99.75" customHeight="1">
+    <row r="576" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A576" s="123"/>
       <c r="B576" s="10"/>
       <c r="C576" s="17"/>
@@ -47501,7 +47497,7 @@
       <c r="BQ576" s="23"/>
       <c r="BR576" s="11"/>
     </row>
-    <row r="577" spans="1:70" ht="99.75" customHeight="1">
+    <row r="577" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A577" s="123"/>
       <c r="B577" s="10"/>
       <c r="C577" s="17"/>
@@ -47573,7 +47569,7 @@
       <c r="BQ577" s="23"/>
       <c r="BR577" s="11"/>
     </row>
-    <row r="578" spans="1:70" ht="99.75" customHeight="1">
+    <row r="578" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A578" s="123"/>
       <c r="B578" s="10"/>
       <c r="C578" s="17"/>
@@ -47645,7 +47641,7 @@
       <c r="BQ578" s="23"/>
       <c r="BR578" s="11"/>
     </row>
-    <row r="579" spans="1:70" ht="99.75" customHeight="1">
+    <row r="579" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A579" s="123"/>
       <c r="B579" s="10"/>
       <c r="C579" s="17"/>
@@ -47717,7 +47713,7 @@
       <c r="BQ579" s="23"/>
       <c r="BR579" s="11"/>
     </row>
-    <row r="580" spans="1:70" ht="99.75" customHeight="1">
+    <row r="580" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A580" s="123"/>
       <c r="B580" s="10"/>
       <c r="C580" s="17"/>
@@ -47789,7 +47785,7 @@
       <c r="BQ580" s="23"/>
       <c r="BR580" s="11"/>
     </row>
-    <row r="581" spans="1:70" ht="99.75" customHeight="1">
+    <row r="581" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A581" s="123"/>
       <c r="B581" s="10"/>
       <c r="C581" s="17"/>
@@ -47861,7 +47857,7 @@
       <c r="BQ581" s="23"/>
       <c r="BR581" s="11"/>
     </row>
-    <row r="582" spans="1:70" ht="99.75" customHeight="1">
+    <row r="582" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A582" s="123"/>
       <c r="B582" s="10"/>
       <c r="C582" s="17"/>
@@ -47933,7 +47929,7 @@
       <c r="BQ582" s="23"/>
       <c r="BR582" s="11"/>
     </row>
-    <row r="583" spans="1:70" ht="99.75" customHeight="1">
+    <row r="583" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A583" s="123"/>
       <c r="B583" s="10"/>
       <c r="C583" s="17"/>
@@ -48005,7 +48001,7 @@
       <c r="BQ583" s="23"/>
       <c r="BR583" s="11"/>
     </row>
-    <row r="584" spans="1:70" ht="99.75" customHeight="1">
+    <row r="584" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A584" s="123"/>
       <c r="B584" s="10"/>
       <c r="C584" s="17"/>
@@ -48077,7 +48073,7 @@
       <c r="BQ584" s="23"/>
       <c r="BR584" s="11"/>
     </row>
-    <row r="585" spans="1:70" ht="99.75" customHeight="1">
+    <row r="585" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A585" s="123"/>
       <c r="B585" s="10"/>
       <c r="C585" s="17"/>
@@ -48149,7 +48145,7 @@
       <c r="BQ585" s="23"/>
       <c r="BR585" s="11"/>
     </row>
-    <row r="586" spans="1:70" ht="99.75" customHeight="1">
+    <row r="586" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A586" s="123"/>
       <c r="B586" s="10"/>
       <c r="C586" s="17"/>
@@ -48221,7 +48217,7 @@
       <c r="BQ586" s="23"/>
       <c r="BR586" s="11"/>
     </row>
-    <row r="587" spans="1:70" ht="99.75" customHeight="1">
+    <row r="587" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A587" s="123"/>
       <c r="B587" s="10"/>
       <c r="C587" s="17"/>
@@ -48293,7 +48289,7 @@
       <c r="BQ587" s="23"/>
       <c r="BR587" s="11"/>
     </row>
-    <row r="588" spans="1:70" ht="99.75" customHeight="1">
+    <row r="588" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A588" s="123"/>
       <c r="B588" s="10"/>
       <c r="C588" s="17"/>
@@ -48365,7 +48361,7 @@
       <c r="BQ588" s="23"/>
       <c r="BR588" s="11"/>
     </row>
-    <row r="589" spans="1:70" ht="99.75" customHeight="1">
+    <row r="589" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A589" s="123"/>
       <c r="B589" s="10"/>
       <c r="C589" s="17"/>
@@ -48437,7 +48433,7 @@
       <c r="BQ589" s="23"/>
       <c r="BR589" s="11"/>
     </row>
-    <row r="590" spans="1:70" ht="99.75" customHeight="1">
+    <row r="590" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A590" s="123"/>
       <c r="B590" s="10"/>
       <c r="C590" s="17"/>
@@ -48509,7 +48505,7 @@
       <c r="BQ590" s="23"/>
       <c r="BR590" s="11"/>
     </row>
-    <row r="591" spans="1:70" ht="99.75" customHeight="1">
+    <row r="591" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A591" s="123"/>
       <c r="B591" s="10"/>
       <c r="C591" s="17"/>
@@ -48581,7 +48577,7 @@
       <c r="BQ591" s="23"/>
       <c r="BR591" s="11"/>
     </row>
-    <row r="592" spans="1:70" ht="99.75" customHeight="1">
+    <row r="592" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A592" s="123"/>
       <c r="B592" s="10"/>
       <c r="C592" s="17"/>
@@ -48653,7 +48649,7 @@
       <c r="BQ592" s="23"/>
       <c r="BR592" s="11"/>
     </row>
-    <row r="593" spans="1:70" ht="99.75" customHeight="1">
+    <row r="593" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A593" s="123"/>
       <c r="B593" s="10"/>
       <c r="C593" s="17"/>
@@ -48725,7 +48721,7 @@
       <c r="BQ593" s="23"/>
       <c r="BR593" s="11"/>
     </row>
-    <row r="594" spans="1:70" ht="99.75" customHeight="1">
+    <row r="594" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A594" s="123"/>
       <c r="B594" s="10"/>
       <c r="C594" s="17"/>
@@ -48797,7 +48793,7 @@
       <c r="BQ594" s="23"/>
       <c r="BR594" s="11"/>
     </row>
-    <row r="595" spans="1:70" ht="99.75" customHeight="1">
+    <row r="595" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A595" s="123"/>
       <c r="B595" s="10"/>
       <c r="C595" s="17"/>
@@ -48869,7 +48865,7 @@
       <c r="BQ595" s="23"/>
       <c r="BR595" s="11"/>
     </row>
-    <row r="596" spans="1:70" ht="99.75" customHeight="1">
+    <row r="596" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A596" s="123"/>
       <c r="B596" s="10"/>
       <c r="C596" s="17"/>
@@ -48941,7 +48937,7 @@
       <c r="BQ596" s="23"/>
       <c r="BR596" s="11"/>
     </row>
-    <row r="597" spans="1:70" ht="99.75" customHeight="1">
+    <row r="597" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A597" s="123"/>
       <c r="B597" s="10"/>
       <c r="C597" s="17"/>
@@ -49013,7 +49009,7 @@
       <c r="BQ597" s="23"/>
       <c r="BR597" s="11"/>
     </row>
-    <row r="598" spans="1:70" ht="99.75" customHeight="1">
+    <row r="598" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A598" s="123"/>
       <c r="B598" s="10"/>
       <c r="C598" s="17"/>
@@ -49085,7 +49081,7 @@
       <c r="BQ598" s="23"/>
       <c r="BR598" s="11"/>
     </row>
-    <row r="599" spans="1:70" ht="99.75" customHeight="1">
+    <row r="599" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A599" s="123"/>
       <c r="B599" s="10"/>
       <c r="C599" s="17"/>
@@ -49157,7 +49153,7 @@
       <c r="BQ599" s="23"/>
       <c r="BR599" s="11"/>
     </row>
-    <row r="600" spans="1:70" ht="99.75" customHeight="1">
+    <row r="600" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A600" s="123"/>
       <c r="B600" s="10"/>
       <c r="C600" s="17"/>
@@ -49229,7 +49225,7 @@
       <c r="BQ600" s="23"/>
       <c r="BR600" s="11"/>
     </row>
-    <row r="601" spans="1:70" ht="99.75" customHeight="1">
+    <row r="601" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A601" s="123"/>
       <c r="B601" s="10"/>
       <c r="C601" s="17"/>
@@ -49301,7 +49297,7 @@
       <c r="BQ601" s="23"/>
       <c r="BR601" s="11"/>
     </row>
-    <row r="602" spans="1:70" ht="99.75" customHeight="1">
+    <row r="602" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A602" s="123"/>
       <c r="B602" s="10"/>
       <c r="C602" s="17"/>
@@ -49373,7 +49369,7 @@
       <c r="BQ602" s="23"/>
       <c r="BR602" s="11"/>
     </row>
-    <row r="603" spans="1:70" ht="99.75" customHeight="1">
+    <row r="603" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A603" s="123"/>
       <c r="B603" s="10"/>
       <c r="C603" s="17"/>
@@ -49445,7 +49441,7 @@
       <c r="BQ603" s="23"/>
       <c r="BR603" s="11"/>
     </row>
-    <row r="604" spans="1:70" ht="99.75" customHeight="1">
+    <row r="604" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A604" s="123"/>
       <c r="B604" s="10"/>
       <c r="C604" s="17"/>
@@ -49517,7 +49513,7 @@
       <c r="BQ604" s="23"/>
       <c r="BR604" s="11"/>
     </row>
-    <row r="605" spans="1:70" ht="99.75" customHeight="1">
+    <row r="605" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A605" s="123"/>
       <c r="B605" s="10"/>
       <c r="C605" s="17"/>
@@ -49589,7 +49585,7 @@
       <c r="BQ605" s="23"/>
       <c r="BR605" s="11"/>
     </row>
-    <row r="606" spans="1:70" ht="99.75" customHeight="1">
+    <row r="606" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A606" s="123"/>
       <c r="B606" s="10"/>
       <c r="C606" s="17"/>
@@ -49661,7 +49657,7 @@
       <c r="BQ606" s="23"/>
       <c r="BR606" s="11"/>
     </row>
-    <row r="607" spans="1:70" ht="99.75" customHeight="1">
+    <row r="607" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A607" s="123"/>
       <c r="B607" s="10"/>
       <c r="C607" s="17"/>
@@ -49733,7 +49729,7 @@
       <c r="BQ607" s="23"/>
       <c r="BR607" s="11"/>
     </row>
-    <row r="608" spans="1:70" ht="99.75" customHeight="1">
+    <row r="608" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A608" s="123"/>
       <c r="B608" s="10"/>
       <c r="C608" s="17"/>
@@ -49805,7 +49801,7 @@
       <c r="BQ608" s="23"/>
       <c r="BR608" s="11"/>
     </row>
-    <row r="609" spans="1:70" ht="99.75" customHeight="1">
+    <row r="609" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A609" s="123"/>
       <c r="B609" s="10"/>
       <c r="C609" s="17"/>
@@ -49877,7 +49873,7 @@
       <c r="BQ609" s="23"/>
       <c r="BR609" s="11"/>
     </row>
-    <row r="610" spans="1:70" ht="99.75" customHeight="1">
+    <row r="610" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A610" s="123"/>
       <c r="B610" s="10"/>
       <c r="C610" s="17"/>
@@ -49949,7 +49945,7 @@
       <c r="BQ610" s="23"/>
       <c r="BR610" s="11"/>
     </row>
-    <row r="611" spans="1:70" ht="99.75" customHeight="1">
+    <row r="611" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A611" s="123"/>
       <c r="B611" s="10"/>
       <c r="C611" s="17"/>
@@ -50021,7 +50017,7 @@
       <c r="BQ611" s="23"/>
       <c r="BR611" s="11"/>
     </row>
-    <row r="612" spans="1:70" ht="99.75" customHeight="1">
+    <row r="612" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A612" s="123"/>
       <c r="B612" s="10"/>
       <c r="C612" s="17"/>
@@ -50093,7 +50089,7 @@
       <c r="BQ612" s="23"/>
       <c r="BR612" s="11"/>
     </row>
-    <row r="613" spans="1:70" ht="99.75" customHeight="1">
+    <row r="613" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A613" s="123"/>
       <c r="B613" s="10"/>
       <c r="C613" s="17"/>
@@ -50165,7 +50161,7 @@
       <c r="BQ613" s="23"/>
       <c r="BR613" s="11"/>
     </row>
-    <row r="614" spans="1:70" ht="99.75" customHeight="1">
+    <row r="614" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A614" s="123"/>
       <c r="B614" s="10"/>
       <c r="C614" s="17"/>
@@ -50237,7 +50233,7 @@
       <c r="BQ614" s="23"/>
       <c r="BR614" s="11"/>
     </row>
-    <row r="615" spans="1:70" ht="99.75" customHeight="1">
+    <row r="615" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A615" s="123"/>
       <c r="B615" s="10"/>
       <c r="C615" s="17"/>
@@ -50309,7 +50305,7 @@
       <c r="BQ615" s="23"/>
       <c r="BR615" s="11"/>
     </row>
-    <row r="616" spans="1:70" ht="99.75" customHeight="1">
+    <row r="616" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A616" s="123"/>
       <c r="B616" s="10"/>
       <c r="C616" s="17"/>
@@ -50381,7 +50377,7 @@
       <c r="BQ616" s="23"/>
       <c r="BR616" s="11"/>
     </row>
-    <row r="617" spans="1:70" ht="99.75" customHeight="1">
+    <row r="617" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A617" s="123"/>
       <c r="B617" s="10"/>
       <c r="C617" s="17"/>
@@ -50453,7 +50449,7 @@
       <c r="BQ617" s="23"/>
       <c r="BR617" s="11"/>
     </row>
-    <row r="618" spans="1:70" ht="99.75" customHeight="1">
+    <row r="618" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A618" s="123"/>
       <c r="B618" s="10"/>
       <c r="C618" s="17"/>
@@ -50525,7 +50521,7 @@
       <c r="BQ618" s="23"/>
       <c r="BR618" s="11"/>
     </row>
-    <row r="619" spans="1:70" ht="99.75" customHeight="1">
+    <row r="619" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A619" s="123"/>
       <c r="B619" s="10"/>
       <c r="C619" s="17"/>
@@ -50597,7 +50593,7 @@
       <c r="BQ619" s="23"/>
       <c r="BR619" s="11"/>
     </row>
-    <row r="620" spans="1:70" ht="99.75" customHeight="1">
+    <row r="620" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A620" s="123"/>
       <c r="B620" s="10"/>
       <c r="C620" s="17"/>
@@ -50669,7 +50665,7 @@
       <c r="BQ620" s="23"/>
       <c r="BR620" s="11"/>
     </row>
-    <row r="621" spans="1:70" ht="99.75" customHeight="1">
+    <row r="621" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A621" s="123"/>
       <c r="B621" s="10"/>
       <c r="C621" s="17"/>
@@ -50741,7 +50737,7 @@
       <c r="BQ621" s="23"/>
       <c r="BR621" s="11"/>
     </row>
-    <row r="622" spans="1:70" ht="99.75" customHeight="1">
+    <row r="622" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A622" s="123"/>
       <c r="B622" s="10"/>
       <c r="C622" s="17"/>
@@ -50813,7 +50809,7 @@
       <c r="BQ622" s="23"/>
       <c r="BR622" s="11"/>
     </row>
-    <row r="623" spans="1:70" ht="99.75" customHeight="1">
+    <row r="623" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A623" s="123"/>
       <c r="B623" s="10"/>
       <c r="C623" s="17"/>
@@ -50885,7 +50881,7 @@
       <c r="BQ623" s="23"/>
       <c r="BR623" s="11"/>
     </row>
-    <row r="624" spans="1:70" ht="99.75" customHeight="1">
+    <row r="624" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A624" s="123"/>
       <c r="B624" s="10"/>
       <c r="C624" s="17"/>
@@ -50957,7 +50953,7 @@
       <c r="BQ624" s="23"/>
       <c r="BR624" s="11"/>
     </row>
-    <row r="625" spans="1:70" ht="99.75" customHeight="1">
+    <row r="625" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A625" s="123"/>
       <c r="B625" s="10"/>
       <c r="C625" s="17"/>
@@ -51029,7 +51025,7 @@
       <c r="BQ625" s="23"/>
       <c r="BR625" s="11"/>
     </row>
-    <row r="626" spans="1:70" ht="99.75" customHeight="1">
+    <row r="626" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A626" s="123"/>
       <c r="B626" s="10"/>
       <c r="C626" s="17"/>
@@ -51101,7 +51097,7 @@
       <c r="BQ626" s="23"/>
       <c r="BR626" s="11"/>
     </row>
-    <row r="627" spans="1:70" ht="99.75" customHeight="1">
+    <row r="627" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A627" s="123"/>
       <c r="B627" s="10"/>
       <c r="C627" s="17"/>
@@ -51173,7 +51169,7 @@
       <c r="BQ627" s="23"/>
       <c r="BR627" s="11"/>
     </row>
-    <row r="628" spans="1:70" ht="99.75" customHeight="1">
+    <row r="628" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A628" s="123"/>
       <c r="B628" s="10"/>
       <c r="C628" s="17"/>
@@ -51245,7 +51241,7 @@
       <c r="BQ628" s="23"/>
       <c r="BR628" s="11"/>
     </row>
-    <row r="629" spans="1:70" ht="99.75" customHeight="1">
+    <row r="629" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A629" s="123"/>
       <c r="B629" s="10"/>
       <c r="C629" s="17"/>
@@ -51317,7 +51313,7 @@
       <c r="BQ629" s="23"/>
       <c r="BR629" s="11"/>
     </row>
-    <row r="630" spans="1:70" ht="99.75" customHeight="1">
+    <row r="630" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A630" s="123"/>
       <c r="B630" s="10"/>
       <c r="C630" s="17"/>
@@ -51389,7 +51385,7 @@
       <c r="BQ630" s="23"/>
       <c r="BR630" s="11"/>
     </row>
-    <row r="631" spans="1:70" ht="99.75" customHeight="1">
+    <row r="631" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A631" s="123"/>
       <c r="B631" s="10"/>
       <c r="C631" s="17"/>
@@ -51461,7 +51457,7 @@
       <c r="BQ631" s="23"/>
       <c r="BR631" s="11"/>
     </row>
-    <row r="632" spans="1:70" ht="99.75" customHeight="1">
+    <row r="632" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A632" s="123"/>
       <c r="B632" s="10"/>
       <c r="C632" s="17"/>
@@ -51533,7 +51529,7 @@
       <c r="BQ632" s="23"/>
       <c r="BR632" s="11"/>
     </row>
-    <row r="633" spans="1:70" ht="99.75" customHeight="1">
+    <row r="633" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A633" s="123"/>
       <c r="B633" s="10"/>
       <c r="C633" s="17"/>
@@ -51605,7 +51601,7 @@
       <c r="BQ633" s="23"/>
       <c r="BR633" s="11"/>
     </row>
-    <row r="634" spans="1:70" ht="99.75" customHeight="1">
+    <row r="634" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A634" s="123"/>
       <c r="B634" s="10"/>
       <c r="C634" s="17"/>
@@ -51677,7 +51673,7 @@
       <c r="BQ634" s="23"/>
       <c r="BR634" s="11"/>
     </row>
-    <row r="635" spans="1:70" ht="99.75" customHeight="1">
+    <row r="635" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A635" s="123"/>
       <c r="B635" s="10"/>
       <c r="C635" s="17"/>
@@ -51749,7 +51745,7 @@
       <c r="BQ635" s="23"/>
       <c r="BR635" s="11"/>
     </row>
-    <row r="636" spans="1:70" ht="99.75" customHeight="1">
+    <row r="636" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A636" s="123"/>
       <c r="B636" s="10"/>
       <c r="C636" s="17"/>
@@ -51821,7 +51817,7 @@
       <c r="BQ636" s="23"/>
       <c r="BR636" s="11"/>
     </row>
-    <row r="637" spans="1:70" ht="99.75" customHeight="1">
+    <row r="637" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A637" s="123"/>
       <c r="B637" s="10"/>
       <c r="C637" s="17"/>
@@ -51893,7 +51889,7 @@
       <c r="BQ637" s="23"/>
       <c r="BR637" s="11"/>
     </row>
-    <row r="638" spans="1:70" ht="99.75" customHeight="1">
+    <row r="638" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A638" s="123"/>
       <c r="B638" s="10"/>
       <c r="C638" s="17"/>
@@ -51965,7 +51961,7 @@
       <c r="BQ638" s="23"/>
       <c r="BR638" s="11"/>
     </row>
-    <row r="639" spans="1:70" ht="99.75" customHeight="1">
+    <row r="639" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A639" s="123"/>
       <c r="B639" s="10"/>
       <c r="C639" s="17"/>
@@ -52037,7 +52033,7 @@
       <c r="BQ639" s="23"/>
       <c r="BR639" s="11"/>
     </row>
-    <row r="640" spans="1:70" ht="99.75" customHeight="1">
+    <row r="640" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A640" s="123"/>
       <c r="B640" s="10"/>
       <c r="C640" s="17"/>
@@ -52109,7 +52105,7 @@
       <c r="BQ640" s="23"/>
       <c r="BR640" s="11"/>
     </row>
-    <row r="641" spans="1:70" ht="99.75" customHeight="1">
+    <row r="641" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A641" s="123"/>
       <c r="B641" s="10"/>
       <c r="C641" s="17"/>
@@ -52181,7 +52177,7 @@
       <c r="BQ641" s="23"/>
       <c r="BR641" s="11"/>
     </row>
-    <row r="642" spans="1:70" ht="99.75" customHeight="1">
+    <row r="642" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A642" s="123"/>
       <c r="B642" s="10"/>
       <c r="C642" s="17"/>
@@ -52253,7 +52249,7 @@
       <c r="BQ642" s="23"/>
       <c r="BR642" s="11"/>
     </row>
-    <row r="643" spans="1:70" ht="99.75" customHeight="1">
+    <row r="643" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A643" s="123"/>
       <c r="B643" s="10"/>
       <c r="C643" s="17"/>
@@ -52325,7 +52321,7 @@
       <c r="BQ643" s="23"/>
       <c r="BR643" s="11"/>
     </row>
-    <row r="644" spans="1:70" ht="99.75" customHeight="1">
+    <row r="644" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A644" s="123"/>
       <c r="B644" s="10"/>
       <c r="C644" s="17"/>
@@ -52397,7 +52393,7 @@
       <c r="BQ644" s="23"/>
       <c r="BR644" s="11"/>
     </row>
-    <row r="645" spans="1:70" ht="99.75" customHeight="1">
+    <row r="645" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A645" s="123"/>
       <c r="B645" s="10"/>
       <c r="C645" s="17"/>
@@ -52469,7 +52465,7 @@
       <c r="BQ645" s="23"/>
       <c r="BR645" s="11"/>
     </row>
-    <row r="646" spans="1:70" ht="99.75" customHeight="1">
+    <row r="646" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A646" s="123"/>
       <c r="B646" s="10"/>
       <c r="C646" s="17"/>
@@ -52541,7 +52537,7 @@
       <c r="BQ646" s="23"/>
       <c r="BR646" s="11"/>
     </row>
-    <row r="647" spans="1:70" ht="99.75" customHeight="1">
+    <row r="647" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A647" s="123"/>
       <c r="B647" s="10"/>
       <c r="C647" s="3"/>
@@ -52613,7 +52609,7 @@
       <c r="BQ647" s="23"/>
       <c r="BR647" s="11"/>
     </row>
-    <row r="648" spans="1:70" ht="99.75" customHeight="1">
+    <row r="648" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A648" s="123"/>
       <c r="B648" s="10"/>
       <c r="C648" s="17"/>
@@ -52685,7 +52681,7 @@
       <c r="BQ648" s="23"/>
       <c r="BR648" s="11"/>
     </row>
-    <row r="649" spans="1:70" ht="99.75" customHeight="1">
+    <row r="649" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A649" s="123"/>
       <c r="B649" s="10"/>
       <c r="C649" s="17"/>
@@ -52757,7 +52753,7 @@
       <c r="BQ649" s="23"/>
       <c r="BR649" s="11"/>
     </row>
-    <row r="650" spans="1:70" ht="99.75" customHeight="1">
+    <row r="650" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A650" s="123"/>
       <c r="B650" s="10"/>
       <c r="C650" s="17"/>
@@ -52829,7 +52825,7 @@
       <c r="BQ650" s="23"/>
       <c r="BR650" s="11"/>
     </row>
-    <row r="651" spans="1:70" ht="99.75" customHeight="1">
+    <row r="651" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A651" s="123"/>
       <c r="B651" s="10"/>
       <c r="C651" s="17"/>
@@ -52901,7 +52897,7 @@
       <c r="BQ651" s="23"/>
       <c r="BR651" s="11"/>
     </row>
-    <row r="652" spans="1:70" ht="99.75" customHeight="1">
+    <row r="652" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A652" s="123"/>
       <c r="B652" s="10"/>
       <c r="C652" s="17"/>
@@ -52973,7 +52969,7 @@
       <c r="BQ652" s="23"/>
       <c r="BR652" s="11"/>
     </row>
-    <row r="653" spans="1:70" ht="99.75" customHeight="1">
+    <row r="653" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A653" s="123"/>
       <c r="B653" s="10"/>
       <c r="C653" s="17"/>
@@ -53045,7 +53041,7 @@
       <c r="BQ653" s="23"/>
       <c r="BR653" s="11"/>
     </row>
-    <row r="654" spans="1:70" ht="99.75" customHeight="1">
+    <row r="654" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A654" s="123"/>
       <c r="B654" s="10"/>
       <c r="C654" s="17"/>
@@ -53117,7 +53113,7 @@
       <c r="BQ654" s="23"/>
       <c r="BR654" s="11"/>
     </row>
-    <row r="655" spans="1:70" ht="99.75" customHeight="1">
+    <row r="655" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A655" s="123"/>
       <c r="B655" s="10"/>
       <c r="C655" s="17"/>
@@ -53189,7 +53185,7 @@
       <c r="BQ655" s="23"/>
       <c r="BR655" s="11"/>
     </row>
-    <row r="656" spans="1:70" ht="99.75" customHeight="1">
+    <row r="656" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A656" s="123"/>
       <c r="B656" s="10"/>
       <c r="C656" s="17"/>
@@ -53261,7 +53257,7 @@
       <c r="BQ656" s="23"/>
       <c r="BR656" s="11"/>
     </row>
-    <row r="657" spans="1:70" ht="99.75" customHeight="1">
+    <row r="657" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A657" s="123"/>
       <c r="B657" s="10"/>
       <c r="C657" s="17"/>
@@ -53333,7 +53329,7 @@
       <c r="BQ657" s="23"/>
       <c r="BR657" s="11"/>
     </row>
-    <row r="658" spans="1:70" ht="99.75" customHeight="1">
+    <row r="658" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A658" s="123"/>
       <c r="B658" s="10"/>
       <c r="C658" s="17"/>
@@ -53405,7 +53401,7 @@
       <c r="BQ658" s="23"/>
       <c r="BR658" s="11"/>
     </row>
-    <row r="659" spans="1:70" ht="99.75" customHeight="1">
+    <row r="659" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A659" s="123"/>
       <c r="B659" s="10"/>
       <c r="C659" s="17"/>
@@ -53477,7 +53473,7 @@
       <c r="BQ659" s="23"/>
       <c r="BR659" s="11"/>
     </row>
-    <row r="660" spans="1:70" ht="99.75" customHeight="1">
+    <row r="660" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A660" s="123"/>
       <c r="B660" s="10"/>
       <c r="C660" s="17"/>
@@ -53549,7 +53545,7 @@
       <c r="BQ660" s="23"/>
       <c r="BR660" s="11"/>
     </row>
-    <row r="661" spans="1:70" ht="99.75" customHeight="1">
+    <row r="661" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A661" s="123"/>
       <c r="B661" s="10"/>
       <c r="C661" s="17"/>
@@ -53621,7 +53617,7 @@
       <c r="BQ661" s="23"/>
       <c r="BR661" s="11"/>
     </row>
-    <row r="662" spans="1:70" ht="99.75" customHeight="1">
+    <row r="662" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A662" s="123"/>
       <c r="B662" s="10"/>
       <c r="C662" s="17"/>
@@ -53693,7 +53689,7 @@
       <c r="BQ662" s="23"/>
       <c r="BR662" s="11"/>
     </row>
-    <row r="663" spans="1:70" ht="99.75" customHeight="1">
+    <row r="663" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A663" s="123"/>
       <c r="B663" s="10"/>
       <c r="C663" s="17"/>
@@ -53765,7 +53761,7 @@
       <c r="BQ663" s="23"/>
       <c r="BR663" s="11"/>
     </row>
-    <row r="664" spans="1:70" ht="99.75" customHeight="1">
+    <row r="664" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A664" s="123"/>
       <c r="B664" s="10"/>
       <c r="C664" s="17"/>
@@ -53837,7 +53833,7 @@
       <c r="BQ664" s="23"/>
       <c r="BR664" s="11"/>
     </row>
-    <row r="665" spans="1:70" ht="99.75" customHeight="1">
+    <row r="665" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A665" s="123"/>
       <c r="B665" s="10"/>
       <c r="C665" s="17"/>
@@ -53909,7 +53905,7 @@
       <c r="BQ665" s="23"/>
       <c r="BR665" s="11"/>
     </row>
-    <row r="666" spans="1:70" ht="99.75" customHeight="1">
+    <row r="666" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A666" s="123"/>
       <c r="B666" s="10"/>
       <c r="C666" s="17"/>
@@ -53981,7 +53977,7 @@
       <c r="BQ666" s="23"/>
       <c r="BR666" s="11"/>
     </row>
-    <row r="667" spans="1:70" ht="99.75" customHeight="1">
+    <row r="667" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A667" s="123"/>
       <c r="B667" s="10"/>
       <c r="C667" s="17"/>
@@ -54053,7 +54049,7 @@
       <c r="BQ667" s="23"/>
       <c r="BR667" s="11"/>
     </row>
-    <row r="668" spans="1:70" ht="99.75" customHeight="1">
+    <row r="668" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A668" s="123"/>
       <c r="B668" s="10"/>
       <c r="C668" s="17"/>
@@ -54125,7 +54121,7 @@
       <c r="BQ668" s="23"/>
       <c r="BR668" s="11"/>
     </row>
-    <row r="669" spans="1:70" ht="99.75" customHeight="1">
+    <row r="669" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A669" s="123"/>
       <c r="B669" s="10"/>
       <c r="C669" s="17"/>
@@ -54197,7 +54193,7 @@
       <c r="BQ669" s="23"/>
       <c r="BR669" s="11"/>
     </row>
-    <row r="670" spans="1:70" ht="99.75" customHeight="1">
+    <row r="670" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A670" s="123"/>
       <c r="B670" s="10"/>
       <c r="C670" s="17"/>
@@ -54269,7 +54265,7 @@
       <c r="BQ670" s="23"/>
       <c r="BR670" s="11"/>
     </row>
-    <row r="671" spans="1:70" ht="99.75" customHeight="1">
+    <row r="671" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A671" s="123"/>
       <c r="B671" s="10"/>
       <c r="C671" s="17"/>
@@ -54341,7 +54337,7 @@
       <c r="BQ671" s="23"/>
       <c r="BR671" s="11"/>
     </row>
-    <row r="672" spans="1:70" ht="99.75" customHeight="1">
+    <row r="672" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A672" s="123"/>
       <c r="B672" s="10"/>
       <c r="C672" s="17"/>
@@ -54413,7 +54409,7 @@
       <c r="BQ672" s="23"/>
       <c r="BR672" s="39"/>
     </row>
-    <row r="673" spans="1:70" ht="99.75" customHeight="1">
+    <row r="673" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A673" s="123"/>
       <c r="B673" s="10"/>
       <c r="C673" s="17"/>
@@ -54485,7 +54481,7 @@
       <c r="BQ673" s="23"/>
       <c r="BR673" s="39"/>
     </row>
-    <row r="674" spans="1:70" ht="99.75" customHeight="1">
+    <row r="674" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A674" s="123"/>
       <c r="B674" s="10"/>
       <c r="C674" s="17"/>
@@ -54557,7 +54553,7 @@
       <c r="BQ674" s="23"/>
       <c r="BR674" s="39"/>
     </row>
-    <row r="675" spans="1:70" ht="99.75" customHeight="1">
+    <row r="675" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A675" s="123"/>
       <c r="B675" s="10"/>
       <c r="C675" s="17"/>
@@ -54629,7 +54625,7 @@
       <c r="BQ675" s="23"/>
       <c r="BR675" s="39"/>
     </row>
-    <row r="676" spans="1:70" ht="99.75" customHeight="1">
+    <row r="676" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A676" s="123"/>
       <c r="B676" s="10"/>
       <c r="C676" s="17"/>
@@ -54701,7 +54697,7 @@
       <c r="BQ676" s="23"/>
       <c r="BR676" s="39"/>
     </row>
-    <row r="677" spans="1:70" ht="99.75" customHeight="1">
+    <row r="677" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A677" s="123"/>
       <c r="B677" s="10"/>
       <c r="C677" s="17"/>
@@ -54773,7 +54769,7 @@
       <c r="BQ677" s="23"/>
       <c r="BR677" s="39"/>
     </row>
-    <row r="678" spans="1:70" ht="99.75" customHeight="1">
+    <row r="678" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A678" s="123"/>
       <c r="B678" s="10"/>
       <c r="C678" s="17"/>
@@ -54845,7 +54841,7 @@
       <c r="BQ678" s="23"/>
       <c r="BR678" s="39"/>
     </row>
-    <row r="679" spans="1:70" ht="99.75" customHeight="1">
+    <row r="679" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A679" s="123"/>
       <c r="B679" s="10"/>
       <c r="C679" s="17"/>
@@ -54917,7 +54913,7 @@
       <c r="BQ679" s="23"/>
       <c r="BR679" s="39"/>
     </row>
-    <row r="680" spans="1:70" ht="99.75" customHeight="1">
+    <row r="680" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A680" s="123"/>
       <c r="B680" s="10"/>
       <c r="C680" s="17"/>
@@ -54989,7 +54985,7 @@
       <c r="BQ680" s="23"/>
       <c r="BR680" s="39"/>
     </row>
-    <row r="681" spans="1:70" ht="99.75" customHeight="1">
+    <row r="681" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A681" s="123"/>
       <c r="B681" s="10"/>
       <c r="C681" s="17"/>
@@ -55061,7 +55057,7 @@
       <c r="BQ681" s="23"/>
       <c r="BR681" s="39"/>
     </row>
-    <row r="682" spans="1:70" ht="99.75" customHeight="1">
+    <row r="682" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A682" s="123"/>
       <c r="B682" s="10"/>
       <c r="C682" s="17"/>
@@ -55133,7 +55129,7 @@
       <c r="BQ682" s="23"/>
       <c r="BR682" s="39"/>
     </row>
-    <row r="683" spans="1:70" ht="99.75" customHeight="1">
+    <row r="683" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A683" s="123"/>
       <c r="B683" s="10"/>
       <c r="C683" s="17"/>
@@ -55205,7 +55201,7 @@
       <c r="BQ683" s="23"/>
       <c r="BR683" s="39"/>
     </row>
-    <row r="684" spans="1:70" ht="99.75" customHeight="1">
+    <row r="684" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A684" s="123"/>
       <c r="B684" s="10"/>
       <c r="C684" s="17"/>
@@ -55277,7 +55273,7 @@
       <c r="BQ684" s="23"/>
       <c r="BR684" s="39"/>
     </row>
-    <row r="685" spans="1:70" ht="99.75" customHeight="1">
+    <row r="685" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A685" s="123"/>
       <c r="B685" s="10"/>
       <c r="C685" s="17"/>
@@ -55349,7 +55345,7 @@
       <c r="BQ685" s="23"/>
       <c r="BR685" s="39"/>
     </row>
-    <row r="686" spans="1:70" ht="99.75" customHeight="1">
+    <row r="686" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A686" s="123"/>
       <c r="B686" s="10"/>
       <c r="C686" s="17"/>
@@ -55421,7 +55417,7 @@
       <c r="BQ686" s="23"/>
       <c r="BR686" s="39"/>
     </row>
-    <row r="687" spans="1:70" ht="99.75" customHeight="1">
+    <row r="687" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A687" s="123"/>
       <c r="B687" s="10"/>
       <c r="C687" s="17"/>
@@ -55493,7 +55489,7 @@
       <c r="BQ687" s="23"/>
       <c r="BR687" s="39"/>
     </row>
-    <row r="688" spans="1:70" ht="99.75" customHeight="1">
+    <row r="688" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A688" s="123"/>
       <c r="B688" s="10"/>
       <c r="C688" s="17"/>
@@ -55565,7 +55561,7 @@
       <c r="BQ688" s="23"/>
       <c r="BR688" s="39"/>
     </row>
-    <row r="689" spans="1:70" ht="99.75" customHeight="1">
+    <row r="689" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A689" s="123"/>
       <c r="B689" s="10"/>
       <c r="C689" s="17"/>
@@ -55637,7 +55633,7 @@
       <c r="BQ689" s="23"/>
       <c r="BR689" s="39"/>
     </row>
-    <row r="690" spans="1:70" ht="99.75" customHeight="1">
+    <row r="690" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A690" s="123"/>
       <c r="B690" s="10"/>
       <c r="C690" s="17"/>
@@ -55709,7 +55705,7 @@
       <c r="BQ690" s="23"/>
       <c r="BR690" s="39"/>
     </row>
-    <row r="691" spans="1:70" ht="99.75" customHeight="1">
+    <row r="691" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A691" s="123"/>
       <c r="B691" s="10"/>
       <c r="C691" s="17"/>
@@ -55781,7 +55777,7 @@
       <c r="BQ691" s="23"/>
       <c r="BR691" s="39"/>
     </row>
-    <row r="692" spans="1:70" ht="99.75" customHeight="1">
+    <row r="692" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A692" s="123"/>
       <c r="B692" s="10"/>
       <c r="C692" s="17"/>
@@ -55853,7 +55849,7 @@
       <c r="BQ692" s="23"/>
       <c r="BR692" s="39"/>
     </row>
-    <row r="693" spans="1:70" ht="99.75" customHeight="1">
+    <row r="693" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A693" s="123"/>
       <c r="B693" s="10"/>
       <c r="C693" s="17"/>
@@ -55925,7 +55921,7 @@
       <c r="BQ693" s="23"/>
       <c r="BR693" s="39"/>
     </row>
-    <row r="694" spans="1:70" ht="99.75" customHeight="1">
+    <row r="694" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A694" s="123"/>
       <c r="B694" s="10"/>
       <c r="C694" s="17"/>
@@ -55997,7 +55993,7 @@
       <c r="BQ694" s="23"/>
       <c r="BR694" s="39"/>
     </row>
-    <row r="695" spans="1:70" ht="99.75" customHeight="1">
+    <row r="695" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A695" s="123"/>
       <c r="B695" s="10"/>
       <c r="C695" s="17"/>
@@ -56069,7 +56065,7 @@
       <c r="BQ695" s="23"/>
       <c r="BR695" s="40"/>
     </row>
-    <row r="696" spans="1:70" ht="99.75" customHeight="1">
+    <row r="696" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A696" s="123"/>
       <c r="B696" s="10"/>
       <c r="C696" s="17"/>
@@ -56141,7 +56137,7 @@
       <c r="BQ696" s="23"/>
       <c r="BR696" s="40"/>
     </row>
-    <row r="697" spans="1:70" ht="99.75" customHeight="1">
+    <row r="697" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A697" s="123"/>
       <c r="B697" s="10"/>
       <c r="C697" s="17"/>
@@ -56213,7 +56209,7 @@
       <c r="BQ697" s="23"/>
       <c r="BR697" s="40"/>
     </row>
-    <row r="698" spans="1:70" ht="99.75" customHeight="1">
+    <row r="698" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A698" s="123"/>
       <c r="B698" s="10"/>
       <c r="C698" s="17"/>
@@ -56285,7 +56281,7 @@
       <c r="BQ698" s="23"/>
       <c r="BR698" s="40"/>
     </row>
-    <row r="699" spans="1:70" ht="99.75" customHeight="1">
+    <row r="699" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A699" s="123"/>
       <c r="B699" s="10"/>
       <c r="C699" s="17"/>
@@ -56357,7 +56353,7 @@
       <c r="BQ699" s="23"/>
       <c r="BR699" s="40"/>
     </row>
-    <row r="700" spans="1:70" ht="99.75" customHeight="1">
+    <row r="700" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A700" s="123"/>
       <c r="B700" s="10"/>
       <c r="C700" s="17"/>
@@ -56429,7 +56425,7 @@
       <c r="BQ700" s="124"/>
       <c r="BR700" s="40"/>
     </row>
-    <row r="701" spans="1:70" ht="99.75" customHeight="1">
+    <row r="701" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A701" s="123"/>
       <c r="B701" s="10"/>
       <c r="C701" s="17"/>
@@ -56501,7 +56497,7 @@
       <c r="BQ701" s="124"/>
       <c r="BR701" s="40"/>
     </row>
-    <row r="702" spans="1:70" ht="99.75" customHeight="1">
+    <row r="702" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A702" s="123"/>
       <c r="B702" s="10"/>
       <c r="C702" s="17"/>
@@ -56573,7 +56569,7 @@
       <c r="BQ702" s="124"/>
       <c r="BR702" s="40"/>
     </row>
-    <row r="703" spans="1:70" ht="99.75" customHeight="1">
+    <row r="703" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A703" s="123"/>
       <c r="B703" s="10"/>
       <c r="C703" s="17"/>
@@ -56645,7 +56641,7 @@
       <c r="BQ703" s="124"/>
       <c r="BR703" s="40"/>
     </row>
-    <row r="704" spans="1:70" ht="99.75" customHeight="1">
+    <row r="704" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A704" s="123"/>
       <c r="B704" s="10"/>
       <c r="C704" s="17"/>
@@ -56717,7 +56713,7 @@
       <c r="BQ704" s="124"/>
       <c r="BR704" s="40"/>
     </row>
-    <row r="705" spans="1:70" ht="99.75" customHeight="1">
+    <row r="705" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A705" s="123"/>
       <c r="B705" s="10"/>
       <c r="C705" s="17"/>
@@ -56789,7 +56785,7 @@
       <c r="BQ705" s="124"/>
       <c r="BR705" s="40"/>
     </row>
-    <row r="706" spans="1:70" ht="99.75" customHeight="1">
+    <row r="706" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A706" s="123"/>
       <c r="B706" s="10"/>
       <c r="C706" s="17"/>
@@ -56861,7 +56857,7 @@
       <c r="BQ706" s="124"/>
       <c r="BR706" s="40"/>
     </row>
-    <row r="707" spans="1:70" ht="99.75" customHeight="1">
+    <row r="707" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A707" s="123"/>
       <c r="B707" s="10"/>
       <c r="C707" s="17"/>
@@ -56933,7 +56929,7 @@
       <c r="BQ707" s="124"/>
       <c r="BR707" s="40"/>
     </row>
-    <row r="708" spans="1:70" ht="99.75" customHeight="1">
+    <row r="708" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A708" s="123"/>
       <c r="B708" s="10"/>
       <c r="C708" s="17"/>
@@ -57005,7 +57001,7 @@
       <c r="BQ708" s="124"/>
       <c r="BR708" s="40"/>
     </row>
-    <row r="709" spans="1:70" ht="99.75" customHeight="1">
+    <row r="709" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A709" s="123"/>
       <c r="B709" s="10"/>
       <c r="C709" s="17"/>
@@ -57077,7 +57073,7 @@
       <c r="BQ709" s="124"/>
       <c r="BR709" s="40"/>
     </row>
-    <row r="710" spans="1:70" ht="99.75" customHeight="1">
+    <row r="710" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A710" s="123"/>
       <c r="B710" s="10"/>
       <c r="C710" s="17"/>
@@ -57149,7 +57145,7 @@
       <c r="BQ710" s="124"/>
       <c r="BR710" s="40"/>
     </row>
-    <row r="711" spans="1:70" ht="99.75" customHeight="1">
+    <row r="711" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A711" s="123"/>
       <c r="B711" s="10"/>
       <c r="C711" s="17"/>
@@ -57221,7 +57217,7 @@
       <c r="BQ711" s="124"/>
       <c r="BR711" s="40"/>
     </row>
-    <row r="712" spans="1:70" ht="99.75" customHeight="1">
+    <row r="712" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A712" s="123"/>
       <c r="B712" s="10"/>
       <c r="C712" s="17"/>
@@ -57293,7 +57289,7 @@
       <c r="BQ712" s="124"/>
       <c r="BR712" s="40"/>
     </row>
-    <row r="713" spans="1:70" ht="99.75" customHeight="1">
+    <row r="713" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A713" s="123"/>
       <c r="B713" s="10"/>
       <c r="C713" s="17"/>
@@ -57365,7 +57361,7 @@
       <c r="BQ713" s="124"/>
       <c r="BR713" s="40"/>
     </row>
-    <row r="714" spans="1:70" ht="99.75" customHeight="1">
+    <row r="714" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A714" s="123"/>
       <c r="B714" s="10"/>
       <c r="C714" s="17"/>
@@ -57437,7 +57433,7 @@
       <c r="BQ714" s="124"/>
       <c r="BR714" s="40"/>
     </row>
-    <row r="715" spans="1:70" ht="99.75" customHeight="1">
+    <row r="715" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A715" s="123"/>
       <c r="B715" s="10"/>
       <c r="C715" s="17"/>
@@ -57509,7 +57505,7 @@
       <c r="BQ715" s="124"/>
       <c r="BR715" s="40"/>
     </row>
-    <row r="716" spans="1:70" ht="99.75" customHeight="1">
+    <row r="716" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A716" s="123"/>
       <c r="B716" s="10"/>
       <c r="C716" s="17"/>
@@ -57581,7 +57577,7 @@
       <c r="BQ716" s="124"/>
       <c r="BR716" s="40"/>
     </row>
-    <row r="717" spans="1:70" ht="99.75" customHeight="1">
+    <row r="717" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A717" s="123"/>
       <c r="B717" s="10"/>
       <c r="C717" s="17"/>
@@ -57653,7 +57649,7 @@
       <c r="BQ717" s="124"/>
       <c r="BR717" s="40"/>
     </row>
-    <row r="718" spans="1:70" ht="99.75" customHeight="1">
+    <row r="718" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A718" s="123"/>
       <c r="B718" s="10"/>
       <c r="C718" s="17"/>
@@ -57725,7 +57721,7 @@
       <c r="BQ718" s="124"/>
       <c r="BR718" s="40"/>
     </row>
-    <row r="719" spans="1:70" ht="99.75" customHeight="1">
+    <row r="719" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A719" s="123"/>
       <c r="B719" s="10"/>
       <c r="C719" s="17"/>
@@ -57797,7 +57793,7 @@
       <c r="BQ719" s="124"/>
       <c r="BR719" s="40"/>
     </row>
-    <row r="720" spans="1:70" ht="99.75" customHeight="1">
+    <row r="720" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A720" s="123"/>
       <c r="B720" s="10"/>
       <c r="C720" s="17"/>
@@ -57869,7 +57865,7 @@
       <c r="BQ720" s="124"/>
       <c r="BR720" s="40"/>
     </row>
-    <row r="721" spans="1:70" ht="99.75" customHeight="1">
+    <row r="721" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A721" s="123"/>
       <c r="B721" s="10"/>
       <c r="C721" s="17"/>
@@ -57941,7 +57937,7 @@
       <c r="BQ721" s="124"/>
       <c r="BR721" s="40"/>
     </row>
-    <row r="722" spans="1:70" ht="99.75" customHeight="1">
+    <row r="722" spans="1:70" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A722" s="123"/>
       <c r="B722" s="10"/>
       <c r="C722" s="17"/>
@@ -58033,7 +58029,7 @@
       <selection pane="bottomLeft" activeCell="AD19" sqref="AD19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.28515625" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
@@ -58050,7 +58046,7 @@
     <col min="45" max="45" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" ht="40.5" customHeight="1">
+    <row r="1" spans="1:46" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="115"/>
       <c r="B1" s="115"/>
       <c r="C1" s="115"/>
@@ -58091,93 +58087,93 @@
       <c r="AL1" s="115"/>
       <c r="AM1" s="115"/>
     </row>
-    <row r="2" spans="1:46" ht="30" customHeight="1">
-      <c r="A2" s="142" t="s">
+    <row r="2" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="179" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="142"/>
-      <c r="C2" s="142"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="142"/>
-      <c r="F2" s="142"/>
-      <c r="G2" s="142"/>
-      <c r="H2" s="142"/>
-      <c r="I2" s="142"/>
-      <c r="J2" s="142"/>
-      <c r="K2" s="142"/>
-      <c r="L2" s="142"/>
-      <c r="M2" s="142"/>
-      <c r="N2" s="142"/>
-      <c r="O2" s="142"/>
-      <c r="P2" s="142"/>
-      <c r="Q2" s="142"/>
-      <c r="R2" s="142"/>
-      <c r="S2" s="142"/>
-      <c r="T2" s="142"/>
-      <c r="U2" s="142"/>
-      <c r="V2" s="142"/>
-      <c r="W2" s="142"/>
-      <c r="X2" s="142"/>
-      <c r="Y2" s="142"/>
-      <c r="Z2" s="142"/>
-      <c r="AA2" s="142"/>
-      <c r="AB2" s="142"/>
-      <c r="AC2" s="142"/>
-      <c r="AD2" s="142"/>
-      <c r="AE2" s="142"/>
-      <c r="AF2" s="142"/>
-      <c r="AG2" s="142"/>
-      <c r="AH2" s="142"/>
-      <c r="AI2" s="142"/>
-      <c r="AJ2" s="142"/>
-      <c r="AK2" s="142"/>
-      <c r="AL2" s="142"/>
-      <c r="AM2" s="142"/>
-    </row>
-    <row r="3" spans="1:46" ht="30" customHeight="1">
-      <c r="A3" s="142" t="s">
+      <c r="B2" s="179"/>
+      <c r="C2" s="179"/>
+      <c r="D2" s="179"/>
+      <c r="E2" s="179"/>
+      <c r="F2" s="179"/>
+      <c r="G2" s="179"/>
+      <c r="H2" s="179"/>
+      <c r="I2" s="179"/>
+      <c r="J2" s="179"/>
+      <c r="K2" s="179"/>
+      <c r="L2" s="179"/>
+      <c r="M2" s="179"/>
+      <c r="N2" s="179"/>
+      <c r="O2" s="179"/>
+      <c r="P2" s="179"/>
+      <c r="Q2" s="179"/>
+      <c r="R2" s="179"/>
+      <c r="S2" s="179"/>
+      <c r="T2" s="179"/>
+      <c r="U2" s="179"/>
+      <c r="V2" s="179"/>
+      <c r="W2" s="179"/>
+      <c r="X2" s="179"/>
+      <c r="Y2" s="179"/>
+      <c r="Z2" s="179"/>
+      <c r="AA2" s="179"/>
+      <c r="AB2" s="179"/>
+      <c r="AC2" s="179"/>
+      <c r="AD2" s="179"/>
+      <c r="AE2" s="179"/>
+      <c r="AF2" s="179"/>
+      <c r="AG2" s="179"/>
+      <c r="AH2" s="179"/>
+      <c r="AI2" s="179"/>
+      <c r="AJ2" s="179"/>
+      <c r="AK2" s="179"/>
+      <c r="AL2" s="179"/>
+      <c r="AM2" s="179"/>
+    </row>
+    <row r="3" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="179" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="142"/>
-      <c r="C3" s="142"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="142"/>
-      <c r="F3" s="142"/>
-      <c r="G3" s="142"/>
-      <c r="H3" s="142"/>
-      <c r="I3" s="142"/>
-      <c r="J3" s="142"/>
-      <c r="K3" s="142"/>
-      <c r="L3" s="142"/>
-      <c r="M3" s="142"/>
-      <c r="N3" s="142"/>
-      <c r="O3" s="142"/>
-      <c r="P3" s="142"/>
-      <c r="Q3" s="142"/>
-      <c r="R3" s="142"/>
-      <c r="S3" s="142"/>
-      <c r="T3" s="142"/>
-      <c r="U3" s="142"/>
-      <c r="V3" s="142"/>
-      <c r="W3" s="142"/>
-      <c r="X3" s="142"/>
-      <c r="Y3" s="142"/>
-      <c r="Z3" s="142"/>
-      <c r="AA3" s="142"/>
-      <c r="AB3" s="142"/>
-      <c r="AC3" s="142"/>
-      <c r="AD3" s="142"/>
-      <c r="AE3" s="142"/>
-      <c r="AF3" s="142"/>
-      <c r="AG3" s="142"/>
-      <c r="AH3" s="142"/>
-      <c r="AI3" s="142"/>
-      <c r="AJ3" s="142"/>
-      <c r="AK3" s="142"/>
-      <c r="AL3" s="142"/>
-      <c r="AM3" s="142"/>
-    </row>
-    <row r="4" spans="1:46" ht="13.5" customHeight="1" thickBot="1">
+      <c r="B3" s="179"/>
+      <c r="C3" s="179"/>
+      <c r="D3" s="179"/>
+      <c r="E3" s="179"/>
+      <c r="F3" s="179"/>
+      <c r="G3" s="179"/>
+      <c r="H3" s="179"/>
+      <c r="I3" s="179"/>
+      <c r="J3" s="179"/>
+      <c r="K3" s="179"/>
+      <c r="L3" s="179"/>
+      <c r="M3" s="179"/>
+      <c r="N3" s="179"/>
+      <c r="O3" s="179"/>
+      <c r="P3" s="179"/>
+      <c r="Q3" s="179"/>
+      <c r="R3" s="179"/>
+      <c r="S3" s="179"/>
+      <c r="T3" s="179"/>
+      <c r="U3" s="179"/>
+      <c r="V3" s="179"/>
+      <c r="W3" s="179"/>
+      <c r="X3" s="179"/>
+      <c r="Y3" s="179"/>
+      <c r="Z3" s="179"/>
+      <c r="AA3" s="179"/>
+      <c r="AB3" s="179"/>
+      <c r="AC3" s="179"/>
+      <c r="AD3" s="179"/>
+      <c r="AE3" s="179"/>
+      <c r="AF3" s="179"/>
+      <c r="AG3" s="179"/>
+      <c r="AH3" s="179"/>
+      <c r="AI3" s="179"/>
+      <c r="AJ3" s="179"/>
+      <c r="AK3" s="179"/>
+      <c r="AL3" s="179"/>
+      <c r="AM3" s="179"/>
+    </row>
+    <row r="4" spans="1:46" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="43"/>
       <c r="B4" s="43"/>
       <c r="C4" s="43"/>
@@ -58213,67 +58209,67 @@
       <c r="AG4" s="44"/>
       <c r="AH4" s="44"/>
       <c r="AI4" s="44"/>
-      <c r="AJ4" s="143"/>
-      <c r="AK4" s="143"/>
-      <c r="AL4" s="143"/>
-      <c r="AM4" s="143"/>
-    </row>
-    <row r="5" spans="1:46" ht="18" customHeight="1" thickBot="1">
-      <c r="A5" s="144" t="s">
+      <c r="AJ4" s="180"/>
+      <c r="AK4" s="180"/>
+      <c r="AL4" s="180"/>
+      <c r="AM4" s="180"/>
+    </row>
+    <row r="5" spans="1:46" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="181" t="s">
         <v>94</v>
       </c>
-      <c r="B5" s="146" t="s">
+      <c r="B5" s="183" t="s">
         <v>109</v>
       </c>
-      <c r="C5" s="147"/>
-      <c r="D5" s="144" t="s">
+      <c r="C5" s="184"/>
+      <c r="D5" s="181" t="s">
         <v>95</v>
       </c>
-      <c r="E5" s="150" t="s">
+      <c r="E5" s="187" t="s">
         <v>137</v>
       </c>
-      <c r="F5" s="151"/>
-      <c r="G5" s="151"/>
-      <c r="H5" s="151"/>
-      <c r="I5" s="151"/>
-      <c r="J5" s="151"/>
-      <c r="K5" s="151"/>
-      <c r="L5" s="151"/>
-      <c r="M5" s="151"/>
-      <c r="N5" s="151"/>
-      <c r="O5" s="151"/>
-      <c r="P5" s="151"/>
-      <c r="Q5" s="151"/>
-      <c r="R5" s="151"/>
-      <c r="S5" s="151"/>
-      <c r="T5" s="151"/>
-      <c r="U5" s="151"/>
-      <c r="V5" s="151"/>
-      <c r="W5" s="151"/>
-      <c r="X5" s="151"/>
-      <c r="Y5" s="151"/>
-      <c r="Z5" s="151"/>
-      <c r="AA5" s="151"/>
-      <c r="AB5" s="151"/>
-      <c r="AC5" s="151"/>
-      <c r="AD5" s="151"/>
-      <c r="AE5" s="151"/>
-      <c r="AF5" s="151"/>
-      <c r="AG5" s="151"/>
-      <c r="AH5" s="151"/>
-      <c r="AI5" s="152"/>
-      <c r="AJ5" s="144" t="s">
+      <c r="F5" s="188"/>
+      <c r="G5" s="188"/>
+      <c r="H5" s="188"/>
+      <c r="I5" s="188"/>
+      <c r="J5" s="188"/>
+      <c r="K5" s="188"/>
+      <c r="L5" s="188"/>
+      <c r="M5" s="188"/>
+      <c r="N5" s="188"/>
+      <c r="O5" s="188"/>
+      <c r="P5" s="188"/>
+      <c r="Q5" s="188"/>
+      <c r="R5" s="188"/>
+      <c r="S5" s="188"/>
+      <c r="T5" s="188"/>
+      <c r="U5" s="188"/>
+      <c r="V5" s="188"/>
+      <c r="W5" s="188"/>
+      <c r="X5" s="188"/>
+      <c r="Y5" s="188"/>
+      <c r="Z5" s="188"/>
+      <c r="AA5" s="188"/>
+      <c r="AB5" s="188"/>
+      <c r="AC5" s="188"/>
+      <c r="AD5" s="188"/>
+      <c r="AE5" s="188"/>
+      <c r="AF5" s="188"/>
+      <c r="AG5" s="188"/>
+      <c r="AH5" s="188"/>
+      <c r="AI5" s="189"/>
+      <c r="AJ5" s="181" t="s">
         <v>110</v>
       </c>
-      <c r="AK5" s="144"/>
-      <c r="AL5" s="144"/>
-      <c r="AM5" s="144"/>
-    </row>
-    <row r="6" spans="1:46" ht="18" customHeight="1" thickBot="1">
-      <c r="A6" s="145"/>
-      <c r="B6" s="148"/>
-      <c r="C6" s="149"/>
-      <c r="D6" s="145"/>
+      <c r="AK5" s="181"/>
+      <c r="AL5" s="181"/>
+      <c r="AM5" s="181"/>
+    </row>
+    <row r="6" spans="1:46" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="182"/>
+      <c r="B6" s="185"/>
+      <c r="C6" s="186"/>
+      <c r="D6" s="182"/>
       <c r="E6" s="46">
         <v>1</v>
       </c>
@@ -58367,12 +58363,12 @@
       <c r="AI6" s="46">
         <v>31</v>
       </c>
-      <c r="AJ6" s="145"/>
-      <c r="AK6" s="145"/>
-      <c r="AL6" s="145"/>
-      <c r="AM6" s="145"/>
-    </row>
-    <row r="7" spans="1:46" ht="9.75" customHeight="1" thickTop="1" thickBot="1">
+      <c r="AJ6" s="182"/>
+      <c r="AK6" s="182"/>
+      <c r="AL6" s="182"/>
+      <c r="AM6" s="182"/>
+    </row>
+    <row r="7" spans="1:46" ht="9.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="47"/>
       <c r="B7" s="48"/>
       <c r="C7" s="48"/>
@@ -58413,54 +58409,54 @@
       <c r="AL7" s="48"/>
       <c r="AM7" s="49"/>
     </row>
-    <row r="8" spans="1:46" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A8" s="133" t="s">
+    <row r="8" spans="1:46" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="162" t="s">
         <v>111</v>
       </c>
-      <c r="B8" s="134"/>
-      <c r="C8" s="134"/>
-      <c r="D8" s="134"/>
-      <c r="E8" s="134"/>
-      <c r="F8" s="134"/>
-      <c r="G8" s="134"/>
-      <c r="H8" s="134"/>
-      <c r="I8" s="134"/>
-      <c r="J8" s="134"/>
-      <c r="K8" s="134"/>
-      <c r="L8" s="134"/>
-      <c r="M8" s="134"/>
-      <c r="N8" s="134"/>
-      <c r="O8" s="134"/>
-      <c r="P8" s="134"/>
-      <c r="Q8" s="134"/>
-      <c r="R8" s="134"/>
-      <c r="S8" s="134"/>
-      <c r="T8" s="134"/>
-      <c r="U8" s="134"/>
-      <c r="V8" s="134"/>
-      <c r="W8" s="134"/>
-      <c r="X8" s="134"/>
-      <c r="Y8" s="134"/>
-      <c r="Z8" s="134"/>
-      <c r="AA8" s="134"/>
-      <c r="AB8" s="134"/>
-      <c r="AC8" s="134"/>
-      <c r="AD8" s="134"/>
-      <c r="AE8" s="134"/>
-      <c r="AF8" s="134"/>
-      <c r="AG8" s="134"/>
-      <c r="AH8" s="134"/>
-      <c r="AI8" s="134"/>
-      <c r="AJ8" s="134"/>
-      <c r="AK8" s="134"/>
-      <c r="AL8" s="134"/>
-      <c r="AM8" s="135"/>
+      <c r="B8" s="163"/>
+      <c r="C8" s="163"/>
+      <c r="D8" s="163"/>
+      <c r="E8" s="163"/>
+      <c r="F8" s="163"/>
+      <c r="G8" s="163"/>
+      <c r="H8" s="163"/>
+      <c r="I8" s="163"/>
+      <c r="J8" s="163"/>
+      <c r="K8" s="163"/>
+      <c r="L8" s="163"/>
+      <c r="M8" s="163"/>
+      <c r="N8" s="163"/>
+      <c r="O8" s="163"/>
+      <c r="P8" s="163"/>
+      <c r="Q8" s="163"/>
+      <c r="R8" s="163"/>
+      <c r="S8" s="163"/>
+      <c r="T8" s="163"/>
+      <c r="U8" s="163"/>
+      <c r="V8" s="163"/>
+      <c r="W8" s="163"/>
+      <c r="X8" s="163"/>
+      <c r="Y8" s="163"/>
+      <c r="Z8" s="163"/>
+      <c r="AA8" s="163"/>
+      <c r="AB8" s="163"/>
+      <c r="AC8" s="163"/>
+      <c r="AD8" s="163"/>
+      <c r="AE8" s="163"/>
+      <c r="AF8" s="163"/>
+      <c r="AG8" s="163"/>
+      <c r="AH8" s="163"/>
+      <c r="AI8" s="163"/>
+      <c r="AJ8" s="163"/>
+      <c r="AK8" s="163"/>
+      <c r="AL8" s="163"/>
+      <c r="AM8" s="164"/>
       <c r="AO8" s="102"/>
       <c r="AP8" s="102"/>
       <c r="AQ8" s="102"/>
       <c r="AR8" s="102"/>
     </row>
-    <row r="9" spans="1:46" ht="15" customHeight="1">
+    <row r="9" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="50">
         <v>1</v>
       </c>
@@ -58595,12 +58591,12 @@
         <f>Data!BQ3</f>
         <v>0</v>
       </c>
-      <c r="AJ9" s="136">
+      <c r="AJ9" s="165">
         <f t="shared" ref="AJ9:AJ55" si="0">SUM(E9:AI9)</f>
         <v>0</v>
       </c>
-      <c r="AK9" s="137"/>
-      <c r="AL9" s="138"/>
+      <c r="AK9" s="166"/>
+      <c r="AL9" s="167"/>
       <c r="AM9" s="53" t="s">
         <v>84</v>
       </c>
@@ -58618,7 +58614,7 @@
       <c r="AS9" s="104"/>
       <c r="AT9" s="104"/>
     </row>
-    <row r="10" spans="1:46" ht="15" customHeight="1">
+    <row r="10" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="54">
         <f t="shared" ref="A10:A55" si="1">A9+1</f>
         <v>2</v>
@@ -58754,12 +58750,12 @@
         <f>Data!BQ4</f>
         <v>0</v>
       </c>
-      <c r="AJ10" s="139">
+      <c r="AJ10" s="168">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK10" s="140"/>
-      <c r="AL10" s="141"/>
+      <c r="AK10" s="169"/>
+      <c r="AL10" s="170"/>
       <c r="AM10" s="57" t="s">
         <v>84</v>
       </c>
@@ -58777,7 +58773,7 @@
       <c r="AS10" s="104"/>
       <c r="AT10" s="104"/>
     </row>
-    <row r="11" spans="1:46" ht="15" customHeight="1">
+    <row r="11" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="54">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -58903,12 +58899,12 @@
         <f>Data!BQ5</f>
         <v>0</v>
       </c>
-      <c r="AJ11" s="139">
+      <c r="AJ11" s="168">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="AK11" s="140"/>
-      <c r="AL11" s="141"/>
+      <c r="AK11" s="169"/>
+      <c r="AL11" s="170"/>
       <c r="AM11" s="57" t="s">
         <v>112</v>
       </c>
@@ -58919,7 +58915,7 @@
       <c r="AS11" s="105"/>
       <c r="AT11" s="104"/>
     </row>
-    <row r="12" spans="1:46" ht="15" customHeight="1">
+    <row r="12" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="54">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -59055,19 +59051,19 @@
         <f>Data!BQ7</f>
         <v>0</v>
       </c>
-      <c r="AJ12" s="139">
+      <c r="AJ12" s="168">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK12" s="140"/>
-      <c r="AL12" s="141"/>
+      <c r="AK12" s="169"/>
+      <c r="AL12" s="170"/>
       <c r="AM12" s="57" t="s">
         <v>84</v>
       </c>
       <c r="AS12" s="104"/>
       <c r="AT12" s="104"/>
     </row>
-    <row r="13" spans="1:46" ht="15" customHeight="1">
+    <row r="13" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="54">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -59203,19 +59199,19 @@
         <f>Data!BQ9</f>
         <v>0</v>
       </c>
-      <c r="AJ13" s="139">
+      <c r="AJ13" s="168">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK13" s="140"/>
-      <c r="AL13" s="141"/>
+      <c r="AK13" s="169"/>
+      <c r="AL13" s="170"/>
       <c r="AM13" s="57" t="s">
         <v>112</v>
       </c>
       <c r="AS13" s="104"/>
       <c r="AT13" s="104"/>
     </row>
-    <row r="14" spans="1:46" ht="15" customHeight="1">
+    <row r="14" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="54">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -59351,12 +59347,12 @@
         <f>Data!BQ10</f>
         <v>0</v>
       </c>
-      <c r="AJ14" s="139">
+      <c r="AJ14" s="168">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK14" s="140"/>
-      <c r="AL14" s="141"/>
+      <c r="AK14" s="169"/>
+      <c r="AL14" s="170"/>
       <c r="AM14" s="57" t="s">
         <v>112</v>
       </c>
@@ -59367,7 +59363,7 @@
       <c r="AS14" s="104"/>
       <c r="AT14" s="104"/>
     </row>
-    <row r="15" spans="1:46" ht="15" customHeight="1">
+    <row r="15" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="54">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -59503,12 +59499,12 @@
         <f>Data!BQ11</f>
         <v>0</v>
       </c>
-      <c r="AJ15" s="139">
+      <c r="AJ15" s="168">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK15" s="140"/>
-      <c r="AL15" s="141"/>
+      <c r="AK15" s="169"/>
+      <c r="AL15" s="170"/>
       <c r="AM15" s="57" t="s">
         <v>112</v>
       </c>
@@ -59519,7 +59515,7 @@
       <c r="AS15" s="104"/>
       <c r="AT15" s="104"/>
     </row>
-    <row r="16" spans="1:46" ht="15" customHeight="1">
+    <row r="16" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="54">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -59655,12 +59651,12 @@
         <f>Data!BQ12</f>
         <v>0</v>
       </c>
-      <c r="AJ16" s="139">
+      <c r="AJ16" s="168">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK16" s="140"/>
-      <c r="AL16" s="141"/>
+      <c r="AK16" s="169"/>
+      <c r="AL16" s="170"/>
       <c r="AM16" s="57" t="s">
         <v>112</v>
       </c>
@@ -59671,7 +59667,7 @@
       <c r="AS16" s="104"/>
       <c r="AT16" s="104"/>
     </row>
-    <row r="17" spans="1:46" ht="15" customHeight="1">
+    <row r="17" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="54">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -59807,12 +59803,12 @@
         <f>Data!BQ14</f>
         <v>0</v>
       </c>
-      <c r="AJ17" s="139">
+      <c r="AJ17" s="168">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK17" s="140"/>
-      <c r="AL17" s="141"/>
+      <c r="AK17" s="169"/>
+      <c r="AL17" s="170"/>
       <c r="AM17" s="57" t="s">
         <v>84</v>
       </c>
@@ -59823,7 +59819,7 @@
       <c r="AS17" s="104"/>
       <c r="AT17" s="104"/>
     </row>
-    <row r="18" spans="1:46" ht="15" customHeight="1">
+    <row r="18" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="54">
         <v>10</v>
       </c>
@@ -59958,17 +59954,17 @@
         <f>Data!BQ15</f>
         <v>0</v>
       </c>
-      <c r="AJ18" s="139">
+      <c r="AJ18" s="168">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK18" s="140"/>
-      <c r="AL18" s="141"/>
+      <c r="AK18" s="169"/>
+      <c r="AL18" s="170"/>
       <c r="AM18" s="57" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="1:46" ht="15" customHeight="1">
+    <row r="19" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="54">
         <v>11</v>
       </c>
@@ -60103,17 +60099,17 @@
         <f>Data!BQ17</f>
         <v>0</v>
       </c>
-      <c r="AJ19" s="139">
+      <c r="AJ19" s="168">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK19" s="140"/>
-      <c r="AL19" s="141"/>
+      <c r="AK19" s="169"/>
+      <c r="AL19" s="170"/>
       <c r="AM19" s="57" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="1:46" ht="15" customHeight="1">
+    <row r="20" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="54">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -60249,17 +60245,17 @@
         <f>Data!BQ18</f>
         <v>0</v>
       </c>
-      <c r="AJ20" s="139">
+      <c r="AJ20" s="168">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK20" s="140"/>
-      <c r="AL20" s="141"/>
+      <c r="AK20" s="169"/>
+      <c r="AL20" s="170"/>
       <c r="AM20" s="57" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:46" ht="15" customHeight="1">
+    <row r="21" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="54">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -60395,17 +60391,17 @@
         <f>Data!BQ19</f>
         <v>0</v>
       </c>
-      <c r="AJ21" s="139">
+      <c r="AJ21" s="168">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK21" s="140"/>
-      <c r="AL21" s="141"/>
+      <c r="AK21" s="169"/>
+      <c r="AL21" s="170"/>
       <c r="AM21" s="57" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="22" spans="1:46" ht="15" customHeight="1">
+    <row r="22" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="54">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -60541,17 +60537,17 @@
         <f>Data!BQ20</f>
         <v>0</v>
       </c>
-      <c r="AJ22" s="139">
+      <c r="AJ22" s="168">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK22" s="140"/>
-      <c r="AL22" s="141"/>
+      <c r="AK22" s="169"/>
+      <c r="AL22" s="170"/>
       <c r="AM22" s="57" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="23" spans="1:46" ht="15" customHeight="1">
+    <row r="23" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="54">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -60687,17 +60683,17 @@
         <f>Data!BQ22</f>
         <v>0</v>
       </c>
-      <c r="AJ23" s="139">
+      <c r="AJ23" s="168">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK23" s="140"/>
-      <c r="AL23" s="141"/>
+      <c r="AK23" s="169"/>
+      <c r="AL23" s="170"/>
       <c r="AM23" s="57" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="24" spans="1:46" ht="15" customHeight="1">
+    <row r="24" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="54">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -60833,17 +60829,17 @@
         <f>Data!BQ23</f>
         <v>0</v>
       </c>
-      <c r="AJ24" s="139">
+      <c r="AJ24" s="168">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK24" s="140"/>
-      <c r="AL24" s="141"/>
+      <c r="AK24" s="169"/>
+      <c r="AL24" s="170"/>
       <c r="AM24" s="57" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="25" spans="1:46" ht="15" customHeight="1">
+    <row r="25" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="54">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -60979,17 +60975,17 @@
         <f>Data!BQ24</f>
         <v>0</v>
       </c>
-      <c r="AJ25" s="139">
+      <c r="AJ25" s="168">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK25" s="140"/>
-      <c r="AL25" s="141"/>
+      <c r="AK25" s="169"/>
+      <c r="AL25" s="170"/>
       <c r="AM25" s="57" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="26" spans="1:46" ht="15" customHeight="1">
+    <row r="26" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="54">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -61125,17 +61121,17 @@
         <f>Data!BQ25</f>
         <v>0</v>
       </c>
-      <c r="AJ26" s="139">
+      <c r="AJ26" s="168">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK26" s="140"/>
-      <c r="AL26" s="141"/>
+      <c r="AK26" s="169"/>
+      <c r="AL26" s="170"/>
       <c r="AM26" s="57" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="1:46" ht="15" customHeight="1">
+    <row r="27" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="54">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -61271,17 +61267,17 @@
         <f>Data!BQ26</f>
         <v>0</v>
       </c>
-      <c r="AJ27" s="139">
+      <c r="AJ27" s="168">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK27" s="140"/>
-      <c r="AL27" s="141"/>
+      <c r="AK27" s="169"/>
+      <c r="AL27" s="170"/>
       <c r="AM27" s="57" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="28" spans="1:46" ht="15" customHeight="1">
+    <row r="28" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="54">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -61417,17 +61413,17 @@
         <f>Data!BQ27</f>
         <v>0</v>
       </c>
-      <c r="AJ28" s="139">
+      <c r="AJ28" s="168">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK28" s="140"/>
-      <c r="AL28" s="141"/>
+      <c r="AK28" s="169"/>
+      <c r="AL28" s="170"/>
       <c r="AM28" s="57" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="29" spans="1:46" ht="15" customHeight="1" thickBot="1">
+    <row r="29" spans="1:46" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="58">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -61563,62 +61559,62 @@
         <f>Data!BQ28</f>
         <v>0</v>
       </c>
-      <c r="AJ29" s="153">
+      <c r="AJ29" s="159">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK29" s="154"/>
-      <c r="AL29" s="155"/>
+      <c r="AK29" s="160"/>
+      <c r="AL29" s="161"/>
       <c r="AM29" s="61" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="30" spans="1:46" ht="9.75" customHeight="1" thickBot="1">
-      <c r="A30" s="156"/>
-      <c r="B30" s="157"/>
-      <c r="C30" s="157"/>
-      <c r="D30" s="157"/>
-      <c r="E30" s="157"/>
-      <c r="F30" s="157"/>
-      <c r="G30" s="157"/>
-      <c r="H30" s="157"/>
-      <c r="I30" s="157"/>
-      <c r="J30" s="157"/>
-      <c r="K30" s="157"/>
-      <c r="L30" s="157"/>
-      <c r="M30" s="157"/>
-      <c r="N30" s="157"/>
-      <c r="O30" s="157"/>
-      <c r="P30" s="157"/>
-      <c r="Q30" s="157"/>
-      <c r="R30" s="157"/>
-      <c r="S30" s="157"/>
-      <c r="T30" s="157"/>
-      <c r="U30" s="157"/>
-      <c r="V30" s="157"/>
-      <c r="W30" s="157"/>
-      <c r="X30" s="157"/>
-      <c r="Y30" s="157"/>
-      <c r="Z30" s="157"/>
-      <c r="AA30" s="157"/>
-      <c r="AB30" s="157"/>
-      <c r="AC30" s="157"/>
-      <c r="AD30" s="157"/>
-      <c r="AE30" s="157"/>
-      <c r="AF30" s="157"/>
-      <c r="AG30" s="157"/>
-      <c r="AH30" s="157"/>
-      <c r="AI30" s="157"/>
-      <c r="AJ30" s="157"/>
-      <c r="AK30" s="157"/>
-      <c r="AL30" s="157"/>
-      <c r="AM30" s="158"/>
-    </row>
-    <row r="31" spans="1:46" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A31" s="133" t="s">
+    <row r="30" spans="1:46" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="173"/>
+      <c r="B30" s="174"/>
+      <c r="C30" s="174"/>
+      <c r="D30" s="174"/>
+      <c r="E30" s="174"/>
+      <c r="F30" s="174"/>
+      <c r="G30" s="174"/>
+      <c r="H30" s="174"/>
+      <c r="I30" s="174"/>
+      <c r="J30" s="174"/>
+      <c r="K30" s="174"/>
+      <c r="L30" s="174"/>
+      <c r="M30" s="174"/>
+      <c r="N30" s="174"/>
+      <c r="O30" s="174"/>
+      <c r="P30" s="174"/>
+      <c r="Q30" s="174"/>
+      <c r="R30" s="174"/>
+      <c r="S30" s="174"/>
+      <c r="T30" s="174"/>
+      <c r="U30" s="174"/>
+      <c r="V30" s="174"/>
+      <c r="W30" s="174"/>
+      <c r="X30" s="174"/>
+      <c r="Y30" s="174"/>
+      <c r="Z30" s="174"/>
+      <c r="AA30" s="174"/>
+      <c r="AB30" s="174"/>
+      <c r="AC30" s="174"/>
+      <c r="AD30" s="174"/>
+      <c r="AE30" s="174"/>
+      <c r="AF30" s="174"/>
+      <c r="AG30" s="174"/>
+      <c r="AH30" s="174"/>
+      <c r="AI30" s="174"/>
+      <c r="AJ30" s="174"/>
+      <c r="AK30" s="174"/>
+      <c r="AL30" s="174"/>
+      <c r="AM30" s="175"/>
+    </row>
+    <row r="31" spans="1:46" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="162" t="s">
         <v>117</v>
       </c>
-      <c r="B31" s="134"/>
+      <c r="B31" s="163"/>
       <c r="C31" s="62"/>
       <c r="D31" s="62"/>
       <c r="E31" s="62"/>
@@ -61657,7 +61653,7 @@
       <c r="AL31" s="62"/>
       <c r="AM31" s="63"/>
     </row>
-    <row r="32" spans="1:46" ht="15" customHeight="1">
+    <row r="32" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="50">
         <v>1</v>
       </c>
@@ -61792,17 +61788,17 @@
         <f>Data!BQ36</f>
         <v>0</v>
       </c>
-      <c r="AJ32" s="136">
+      <c r="AJ32" s="165">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK32" s="137"/>
-      <c r="AL32" s="138"/>
+      <c r="AK32" s="166"/>
+      <c r="AL32" s="167"/>
       <c r="AM32" s="53" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="33" spans="1:39" ht="15" customHeight="1">
+    <row r="33" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="54">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -61938,17 +61934,17 @@
         <f>Data!BQ37</f>
         <v>0</v>
       </c>
-      <c r="AJ33" s="139">
+      <c r="AJ33" s="168">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK33" s="140"/>
-      <c r="AL33" s="141"/>
+      <c r="AK33" s="169"/>
+      <c r="AL33" s="170"/>
       <c r="AM33" s="57" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="34" spans="1:39" ht="15" customHeight="1">
+    <row r="34" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="54">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -62084,17 +62080,17 @@
         <f>Data!BQ38</f>
         <v>0</v>
       </c>
-      <c r="AJ34" s="139">
+      <c r="AJ34" s="168">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK34" s="140"/>
-      <c r="AL34" s="141"/>
+      <c r="AK34" s="169"/>
+      <c r="AL34" s="170"/>
       <c r="AM34" s="57" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="35" spans="1:39" ht="15" customHeight="1">
+    <row r="35" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="54">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -62230,17 +62226,17 @@
         <f>Data!BQ39</f>
         <v>0</v>
       </c>
-      <c r="AJ35" s="139">
+      <c r="AJ35" s="168">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK35" s="140"/>
-      <c r="AL35" s="141"/>
+      <c r="AK35" s="169"/>
+      <c r="AL35" s="170"/>
       <c r="AM35" s="57" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="36" spans="1:39" ht="15" customHeight="1">
+    <row r="36" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="54">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -62376,17 +62372,17 @@
         <f>Data!BQ40</f>
         <v>0</v>
       </c>
-      <c r="AJ36" s="139">
+      <c r="AJ36" s="168">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK36" s="140"/>
-      <c r="AL36" s="141"/>
+      <c r="AK36" s="169"/>
+      <c r="AL36" s="170"/>
       <c r="AM36" s="57" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="37" spans="1:39" ht="15" customHeight="1">
+    <row r="37" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="54">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -62522,17 +62518,17 @@
         <f>Data!BQ41</f>
         <v>0</v>
       </c>
-      <c r="AJ37" s="139">
+      <c r="AJ37" s="168">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK37" s="140"/>
-      <c r="AL37" s="141"/>
+      <c r="AK37" s="169"/>
+      <c r="AL37" s="170"/>
       <c r="AM37" s="57" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="38" spans="1:39" ht="15" customHeight="1">
+    <row r="38" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="54">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -62668,17 +62664,17 @@
         <f>Data!BQ42</f>
         <v>0</v>
       </c>
-      <c r="AJ38" s="139">
+      <c r="AJ38" s="168">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK38" s="140"/>
-      <c r="AL38" s="141"/>
+      <c r="AK38" s="169"/>
+      <c r="AL38" s="170"/>
       <c r="AM38" s="57" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="39" spans="1:39" ht="15" customHeight="1">
+    <row r="39" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="54">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -62814,17 +62810,17 @@
         <f>Data!BQ43</f>
         <v>0</v>
       </c>
-      <c r="AJ39" s="139">
+      <c r="AJ39" s="168">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK39" s="140"/>
-      <c r="AL39" s="141"/>
+      <c r="AK39" s="169"/>
+      <c r="AL39" s="170"/>
       <c r="AM39" s="57" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="40" spans="1:39" ht="15" customHeight="1">
+    <row r="40" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="54">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -62960,17 +62956,17 @@
         <f>Data!BQ44</f>
         <v>0</v>
       </c>
-      <c r="AJ40" s="139">
+      <c r="AJ40" s="168">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK40" s="140"/>
-      <c r="AL40" s="141"/>
+      <c r="AK40" s="169"/>
+      <c r="AL40" s="170"/>
       <c r="AM40" s="57" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="41" spans="1:39" ht="15" customHeight="1">
+    <row r="41" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="54">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -63106,17 +63102,17 @@
         <f>Data!BQ45</f>
         <v>0</v>
       </c>
-      <c r="AJ41" s="139">
+      <c r="AJ41" s="168">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK41" s="140"/>
-      <c r="AL41" s="141"/>
+      <c r="AK41" s="169"/>
+      <c r="AL41" s="170"/>
       <c r="AM41" s="57" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="42" spans="1:39" ht="15" customHeight="1" thickBot="1">
+    <row r="42" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="58">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -63252,101 +63248,101 @@
         <f>Data!BQ46</f>
         <v>0</v>
       </c>
-      <c r="AJ42" s="159">
+      <c r="AJ42" s="176">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK42" s="160"/>
-      <c r="AL42" s="161"/>
+      <c r="AK42" s="177"/>
+      <c r="AL42" s="178"/>
       <c r="AM42" s="61" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="43" spans="1:39" ht="9.75" customHeight="1" thickBot="1">
-      <c r="A43" s="156"/>
-      <c r="B43" s="157"/>
-      <c r="C43" s="157"/>
-      <c r="D43" s="157"/>
-      <c r="E43" s="157"/>
-      <c r="F43" s="157"/>
-      <c r="G43" s="157"/>
-      <c r="H43" s="157"/>
-      <c r="I43" s="157"/>
-      <c r="J43" s="157"/>
-      <c r="K43" s="157"/>
-      <c r="L43" s="157"/>
-      <c r="M43" s="157"/>
-      <c r="N43" s="157"/>
-      <c r="O43" s="157"/>
-      <c r="P43" s="157"/>
-      <c r="Q43" s="157"/>
-      <c r="R43" s="157"/>
-      <c r="S43" s="157"/>
-      <c r="T43" s="157"/>
-      <c r="U43" s="157"/>
-      <c r="V43" s="157"/>
-      <c r="W43" s="157"/>
-      <c r="X43" s="157"/>
-      <c r="Y43" s="157"/>
-      <c r="Z43" s="157"/>
-      <c r="AA43" s="157"/>
-      <c r="AB43" s="157"/>
-      <c r="AC43" s="157"/>
-      <c r="AD43" s="157"/>
-      <c r="AE43" s="157"/>
-      <c r="AF43" s="157"/>
-      <c r="AG43" s="157"/>
-      <c r="AH43" s="157"/>
-      <c r="AI43" s="157"/>
-      <c r="AJ43" s="157"/>
-      <c r="AK43" s="157"/>
-      <c r="AL43" s="157"/>
-      <c r="AM43" s="158"/>
-    </row>
-    <row r="44" spans="1:39" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A44" s="133" t="s">
+    <row r="43" spans="1:39" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="173"/>
+      <c r="B43" s="174"/>
+      <c r="C43" s="174"/>
+      <c r="D43" s="174"/>
+      <c r="E43" s="174"/>
+      <c r="F43" s="174"/>
+      <c r="G43" s="174"/>
+      <c r="H43" s="174"/>
+      <c r="I43" s="174"/>
+      <c r="J43" s="174"/>
+      <c r="K43" s="174"/>
+      <c r="L43" s="174"/>
+      <c r="M43" s="174"/>
+      <c r="N43" s="174"/>
+      <c r="O43" s="174"/>
+      <c r="P43" s="174"/>
+      <c r="Q43" s="174"/>
+      <c r="R43" s="174"/>
+      <c r="S43" s="174"/>
+      <c r="T43" s="174"/>
+      <c r="U43" s="174"/>
+      <c r="V43" s="174"/>
+      <c r="W43" s="174"/>
+      <c r="X43" s="174"/>
+      <c r="Y43" s="174"/>
+      <c r="Z43" s="174"/>
+      <c r="AA43" s="174"/>
+      <c r="AB43" s="174"/>
+      <c r="AC43" s="174"/>
+      <c r="AD43" s="174"/>
+      <c r="AE43" s="174"/>
+      <c r="AF43" s="174"/>
+      <c r="AG43" s="174"/>
+      <c r="AH43" s="174"/>
+      <c r="AI43" s="174"/>
+      <c r="AJ43" s="174"/>
+      <c r="AK43" s="174"/>
+      <c r="AL43" s="174"/>
+      <c r="AM43" s="175"/>
+    </row>
+    <row r="44" spans="1:39" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="162" t="s">
         <v>124</v>
       </c>
-      <c r="B44" s="134"/>
-      <c r="C44" s="134"/>
-      <c r="D44" s="134"/>
-      <c r="E44" s="134"/>
-      <c r="F44" s="134"/>
-      <c r="G44" s="134"/>
-      <c r="H44" s="134"/>
-      <c r="I44" s="134"/>
-      <c r="J44" s="134"/>
-      <c r="K44" s="134"/>
-      <c r="L44" s="134"/>
-      <c r="M44" s="134"/>
-      <c r="N44" s="134"/>
-      <c r="O44" s="134"/>
-      <c r="P44" s="134"/>
-      <c r="Q44" s="134"/>
-      <c r="R44" s="134"/>
-      <c r="S44" s="134"/>
-      <c r="T44" s="134"/>
-      <c r="U44" s="134"/>
-      <c r="V44" s="134"/>
-      <c r="W44" s="134"/>
-      <c r="X44" s="134"/>
-      <c r="Y44" s="134"/>
-      <c r="Z44" s="134"/>
-      <c r="AA44" s="134"/>
-      <c r="AB44" s="134"/>
-      <c r="AC44" s="134"/>
-      <c r="AD44" s="134"/>
-      <c r="AE44" s="134"/>
-      <c r="AF44" s="134"/>
-      <c r="AG44" s="134"/>
-      <c r="AH44" s="134"/>
-      <c r="AI44" s="134"/>
-      <c r="AJ44" s="134"/>
-      <c r="AK44" s="134"/>
-      <c r="AL44" s="134"/>
-      <c r="AM44" s="135"/>
-    </row>
-    <row r="45" spans="1:39" ht="15" customHeight="1">
+      <c r="B44" s="163"/>
+      <c r="C44" s="163"/>
+      <c r="D44" s="163"/>
+      <c r="E44" s="163"/>
+      <c r="F44" s="163"/>
+      <c r="G44" s="163"/>
+      <c r="H44" s="163"/>
+      <c r="I44" s="163"/>
+      <c r="J44" s="163"/>
+      <c r="K44" s="163"/>
+      <c r="L44" s="163"/>
+      <c r="M44" s="163"/>
+      <c r="N44" s="163"/>
+      <c r="O44" s="163"/>
+      <c r="P44" s="163"/>
+      <c r="Q44" s="163"/>
+      <c r="R44" s="163"/>
+      <c r="S44" s="163"/>
+      <c r="T44" s="163"/>
+      <c r="U44" s="163"/>
+      <c r="V44" s="163"/>
+      <c r="W44" s="163"/>
+      <c r="X44" s="163"/>
+      <c r="Y44" s="163"/>
+      <c r="Z44" s="163"/>
+      <c r="AA44" s="163"/>
+      <c r="AB44" s="163"/>
+      <c r="AC44" s="163"/>
+      <c r="AD44" s="163"/>
+      <c r="AE44" s="163"/>
+      <c r="AF44" s="163"/>
+      <c r="AG44" s="163"/>
+      <c r="AH44" s="163"/>
+      <c r="AI44" s="163"/>
+      <c r="AJ44" s="163"/>
+      <c r="AK44" s="163"/>
+      <c r="AL44" s="163"/>
+      <c r="AM44" s="164"/>
+    </row>
+    <row r="45" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="50">
         <v>1</v>
       </c>
@@ -63481,17 +63477,17 @@
         <f>Data!BQ84</f>
         <v>0</v>
       </c>
-      <c r="AJ45" s="136">
+      <c r="AJ45" s="165">
         <f>SUM(E45:AI45)</f>
         <v>0</v>
       </c>
-      <c r="AK45" s="137"/>
-      <c r="AL45" s="138"/>
+      <c r="AK45" s="166"/>
+      <c r="AL45" s="167"/>
       <c r="AM45" s="53" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="46" spans="1:39" ht="15" customHeight="1">
+    <row r="46" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="54">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -63627,17 +63623,17 @@
         <f>Data!BQ85</f>
         <v>0</v>
       </c>
-      <c r="AJ46" s="139">
+      <c r="AJ46" s="168">
         <f>SUM(E46:AI46)</f>
         <v>0</v>
       </c>
-      <c r="AK46" s="140"/>
-      <c r="AL46" s="141"/>
+      <c r="AK46" s="169"/>
+      <c r="AL46" s="170"/>
       <c r="AM46" s="57" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="47" spans="1:39" ht="15" customHeight="1">
+    <row r="47" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="54">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -63773,25 +63769,25 @@
         <f>Data!BQ86</f>
         <v>0</v>
       </c>
-      <c r="AJ47" s="139">
+      <c r="AJ47" s="168">
         <f>SUM(E47:AI47)</f>
         <v>0</v>
       </c>
-      <c r="AK47" s="140"/>
-      <c r="AL47" s="141"/>
+      <c r="AK47" s="169"/>
+      <c r="AL47" s="170"/>
       <c r="AM47" s="57" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="48" spans="1:39" ht="15" customHeight="1">
+    <row r="48" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="54">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B48" s="162" t="s">
+      <c r="B48" s="171" t="s">
         <v>76</v>
       </c>
-      <c r="C48" s="163"/>
+      <c r="C48" s="172"/>
       <c r="D48" s="54" t="s">
         <v>112</v>
       </c>
@@ -63919,17 +63915,17 @@
         <f>Data!BQ87</f>
         <v>0</v>
       </c>
-      <c r="AJ48" s="139">
+      <c r="AJ48" s="168">
         <f>SUM(E48:AI48)</f>
         <v>0</v>
       </c>
-      <c r="AK48" s="140"/>
-      <c r="AL48" s="141"/>
+      <c r="AK48" s="169"/>
+      <c r="AL48" s="170"/>
       <c r="AM48" s="57" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="49" spans="1:39" ht="15" customHeight="1">
+    <row r="49" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="54">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -64065,17 +64061,17 @@
         <f>Data!BQ88</f>
         <v>0</v>
       </c>
-      <c r="AJ49" s="139">
+      <c r="AJ49" s="168">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK49" s="140"/>
-      <c r="AL49" s="141"/>
+      <c r="AK49" s="169"/>
+      <c r="AL49" s="170"/>
       <c r="AM49" s="57" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="50" spans="1:39" ht="15" customHeight="1">
+    <row r="50" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="54">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -64211,17 +64207,17 @@
         <f>Data!BQ89</f>
         <v>0</v>
       </c>
-      <c r="AJ50" s="139">
+      <c r="AJ50" s="168">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK50" s="140"/>
-      <c r="AL50" s="141"/>
+      <c r="AK50" s="169"/>
+      <c r="AL50" s="170"/>
       <c r="AM50" s="57" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="51" spans="1:39" ht="15" customHeight="1">
+    <row r="51" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="54">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -64357,17 +64353,17 @@
         <f>Data!BQ90</f>
         <v>0</v>
       </c>
-      <c r="AJ51" s="139">
+      <c r="AJ51" s="168">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK51" s="140"/>
-      <c r="AL51" s="141"/>
+      <c r="AK51" s="169"/>
+      <c r="AL51" s="170"/>
       <c r="AM51" s="57" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="52" spans="1:39" ht="15" customHeight="1">
+    <row r="52" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="54">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -64503,17 +64499,17 @@
         <f>Data!BQ91</f>
         <v>0</v>
       </c>
-      <c r="AJ52" s="139">
+      <c r="AJ52" s="168">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK52" s="140"/>
-      <c r="AL52" s="141"/>
+      <c r="AK52" s="169"/>
+      <c r="AL52" s="170"/>
       <c r="AM52" s="57" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="53" spans="1:39" ht="15" customHeight="1">
+    <row r="53" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="54">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -64649,17 +64645,17 @@
         <f>Data!BQ92</f>
         <v>0</v>
       </c>
-      <c r="AJ53" s="139">
+      <c r="AJ53" s="168">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK53" s="140"/>
-      <c r="AL53" s="141"/>
+      <c r="AK53" s="169"/>
+      <c r="AL53" s="170"/>
       <c r="AM53" s="57" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="54" spans="1:39" ht="15" customHeight="1">
+    <row r="54" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="54">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -64795,17 +64791,17 @@
         <f>Data!BQ93</f>
         <v>0</v>
       </c>
-      <c r="AJ54" s="139">
+      <c r="AJ54" s="168">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK54" s="140"/>
-      <c r="AL54" s="141"/>
+      <c r="AK54" s="169"/>
+      <c r="AL54" s="170"/>
       <c r="AM54" s="57" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="55" spans="1:39" ht="15" customHeight="1" thickBot="1">
+    <row r="55" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="58">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -64941,17 +64937,17 @@
         <f>Data!BQ94</f>
         <v>0</v>
       </c>
-      <c r="AJ55" s="153">
+      <c r="AJ55" s="159">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK55" s="154"/>
-      <c r="AL55" s="155"/>
+      <c r="AK55" s="160"/>
+      <c r="AL55" s="161"/>
       <c r="AM55" s="61" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="56" spans="1:39" ht="21" customHeight="1" thickBot="1">
+    <row r="56" spans="1:39" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="69"/>
       <c r="B56" s="70"/>
       <c r="C56" s="70"/>
@@ -64992,7 +64988,7 @@
       <c r="AL56" s="74"/>
       <c r="AM56" s="72"/>
     </row>
-    <row r="57" spans="1:39" ht="24.95" customHeight="1" thickBot="1">
+    <row r="57" spans="1:39" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="70"/>
       <c r="B57" s="75"/>
       <c r="C57" s="75"/>
@@ -65017,25 +65013,25 @@
       <c r="V57" s="76"/>
       <c r="W57" s="76"/>
       <c r="X57" s="82"/>
-      <c r="Y57" s="164" t="s">
+      <c r="Y57" s="148" t="s">
         <v>126</v>
       </c>
-      <c r="Z57" s="165"/>
-      <c r="AA57" s="165"/>
-      <c r="AB57" s="165"/>
-      <c r="AC57" s="165"/>
-      <c r="AD57" s="165"/>
-      <c r="AE57" s="165"/>
-      <c r="AF57" s="165"/>
-      <c r="AG57" s="165"/>
-      <c r="AH57" s="165"/>
-      <c r="AI57" s="165"/>
-      <c r="AJ57" s="165"/>
-      <c r="AK57" s="165"/>
-      <c r="AL57" s="165"/>
-      <c r="AM57" s="166"/>
-    </row>
-    <row r="58" spans="1:39" ht="30" customHeight="1">
+      <c r="Z57" s="149"/>
+      <c r="AA57" s="149"/>
+      <c r="AB57" s="149"/>
+      <c r="AC57" s="149"/>
+      <c r="AD57" s="149"/>
+      <c r="AE57" s="149"/>
+      <c r="AF57" s="149"/>
+      <c r="AG57" s="149"/>
+      <c r="AH57" s="149"/>
+      <c r="AI57" s="149"/>
+      <c r="AJ57" s="149"/>
+      <c r="AK57" s="149"/>
+      <c r="AL57" s="149"/>
+      <c r="AM57" s="150"/>
+    </row>
+    <row r="58" spans="1:39" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="70"/>
       <c r="B58" s="75"/>
       <c r="C58" s="75"/>
@@ -65060,25 +65056,25 @@
       <c r="V58" s="76"/>
       <c r="W58" s="76"/>
       <c r="X58" s="81"/>
-      <c r="Y58" s="177" t="s">
+      <c r="Y58" s="156" t="s">
         <v>127</v>
       </c>
-      <c r="Z58" s="178"/>
-      <c r="AA58" s="179"/>
-      <c r="AB58" s="171"/>
-      <c r="AC58" s="172"/>
-      <c r="AD58" s="172"/>
-      <c r="AE58" s="172"/>
-      <c r="AF58" s="172"/>
-      <c r="AG58" s="173"/>
+      <c r="Z58" s="157"/>
+      <c r="AA58" s="158"/>
+      <c r="AB58" s="153"/>
+      <c r="AC58" s="154"/>
+      <c r="AD58" s="154"/>
+      <c r="AE58" s="154"/>
+      <c r="AF58" s="154"/>
+      <c r="AG58" s="155"/>
       <c r="AH58" s="80"/>
       <c r="AI58" s="80"/>
-      <c r="AJ58" s="167"/>
-      <c r="AK58" s="167"/>
-      <c r="AL58" s="167"/>
-      <c r="AM58" s="168"/>
-    </row>
-    <row r="59" spans="1:39" ht="30" customHeight="1">
+      <c r="AJ58" s="151"/>
+      <c r="AK58" s="151"/>
+      <c r="AL58" s="151"/>
+      <c r="AM58" s="152"/>
+    </row>
+    <row r="59" spans="1:39" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="70"/>
       <c r="B59" s="75"/>
       <c r="C59" s="75"/>
@@ -65103,25 +65099,25 @@
       <c r="V59" s="76"/>
       <c r="W59" s="76"/>
       <c r="X59" s="81"/>
-      <c r="Y59" s="180" t="s">
+      <c r="Y59" s="133" t="s">
         <v>128</v>
       </c>
-      <c r="Z59" s="181"/>
-      <c r="AA59" s="182"/>
-      <c r="AB59" s="174"/>
-      <c r="AC59" s="175"/>
-      <c r="AD59" s="175"/>
-      <c r="AE59" s="175"/>
-      <c r="AF59" s="175"/>
-      <c r="AG59" s="176"/>
+      <c r="Z59" s="134"/>
+      <c r="AA59" s="135"/>
+      <c r="AB59" s="141"/>
+      <c r="AC59" s="142"/>
+      <c r="AD59" s="142"/>
+      <c r="AE59" s="142"/>
+      <c r="AF59" s="142"/>
+      <c r="AG59" s="143"/>
       <c r="AH59" s="79"/>
       <c r="AI59" s="79"/>
-      <c r="AJ59" s="169"/>
-      <c r="AK59" s="169"/>
-      <c r="AL59" s="169"/>
-      <c r="AM59" s="170"/>
-    </row>
-    <row r="60" spans="1:39" ht="30" customHeight="1">
+      <c r="AJ59" s="139"/>
+      <c r="AK59" s="139"/>
+      <c r="AL59" s="139"/>
+      <c r="AM59" s="140"/>
+    </row>
+    <row r="60" spans="1:39" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="70"/>
       <c r="B60" s="75"/>
       <c r="C60" s="75"/>
@@ -65146,25 +65142,25 @@
       <c r="V60" s="76"/>
       <c r="W60" s="76"/>
       <c r="X60" s="81"/>
-      <c r="Y60" s="180" t="s">
+      <c r="Y60" s="133" t="s">
         <v>129</v>
       </c>
-      <c r="Z60" s="181"/>
-      <c r="AA60" s="182"/>
-      <c r="AB60" s="174"/>
-      <c r="AC60" s="175"/>
-      <c r="AD60" s="175"/>
-      <c r="AE60" s="175"/>
-      <c r="AF60" s="175"/>
-      <c r="AG60" s="176"/>
+      <c r="Z60" s="134"/>
+      <c r="AA60" s="135"/>
+      <c r="AB60" s="141"/>
+      <c r="AC60" s="142"/>
+      <c r="AD60" s="142"/>
+      <c r="AE60" s="142"/>
+      <c r="AF60" s="142"/>
+      <c r="AG60" s="143"/>
       <c r="AH60" s="79"/>
       <c r="AI60" s="79"/>
-      <c r="AJ60" s="169"/>
-      <c r="AK60" s="169"/>
-      <c r="AL60" s="169"/>
-      <c r="AM60" s="170"/>
-    </row>
-    <row r="61" spans="1:39" ht="30" customHeight="1">
+      <c r="AJ60" s="139"/>
+      <c r="AK60" s="139"/>
+      <c r="AL60" s="139"/>
+      <c r="AM60" s="140"/>
+    </row>
+    <row r="61" spans="1:39" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="70"/>
       <c r="B61" s="75"/>
       <c r="C61" s="75"/>
@@ -65189,25 +65185,25 @@
       <c r="V61" s="76"/>
       <c r="W61" s="76"/>
       <c r="X61" s="81"/>
-      <c r="Y61" s="180" t="s">
+      <c r="Y61" s="133" t="s">
         <v>130</v>
       </c>
-      <c r="Z61" s="181"/>
-      <c r="AA61" s="182"/>
-      <c r="AB61" s="174"/>
-      <c r="AC61" s="175"/>
-      <c r="AD61" s="175"/>
-      <c r="AE61" s="175"/>
-      <c r="AF61" s="175"/>
-      <c r="AG61" s="176"/>
+      <c r="Z61" s="134"/>
+      <c r="AA61" s="135"/>
+      <c r="AB61" s="141"/>
+      <c r="AC61" s="142"/>
+      <c r="AD61" s="142"/>
+      <c r="AE61" s="142"/>
+      <c r="AF61" s="142"/>
+      <c r="AG61" s="143"/>
       <c r="AH61" s="79"/>
       <c r="AI61" s="79"/>
-      <c r="AJ61" s="169"/>
-      <c r="AK61" s="169"/>
-      <c r="AL61" s="169"/>
-      <c r="AM61" s="170"/>
-    </row>
-    <row r="62" spans="1:39" ht="30" customHeight="1" thickBot="1">
+      <c r="AJ61" s="139"/>
+      <c r="AK61" s="139"/>
+      <c r="AL61" s="139"/>
+      <c r="AM61" s="140"/>
+    </row>
+    <row r="62" spans="1:39" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="70"/>
       <c r="B62" s="75"/>
       <c r="C62" s="75"/>
@@ -65232,71 +65228,47 @@
       <c r="V62" s="76"/>
       <c r="W62" s="76"/>
       <c r="X62" s="81"/>
-      <c r="Y62" s="187" t="s">
+      <c r="Y62" s="145" t="s">
         <v>131</v>
       </c>
-      <c r="Z62" s="188"/>
-      <c r="AA62" s="189"/>
-      <c r="AB62" s="183" t="s">
+      <c r="Z62" s="146"/>
+      <c r="AA62" s="147"/>
+      <c r="AB62" s="136" t="s">
         <v>136</v>
       </c>
-      <c r="AC62" s="184"/>
-      <c r="AD62" s="184"/>
-      <c r="AE62" s="184"/>
-      <c r="AF62" s="184"/>
-      <c r="AG62" s="186"/>
-      <c r="AH62" s="183" t="s">
+      <c r="AC62" s="137"/>
+      <c r="AD62" s="137"/>
+      <c r="AE62" s="137"/>
+      <c r="AF62" s="137"/>
+      <c r="AG62" s="144"/>
+      <c r="AH62" s="136" t="s">
         <v>135</v>
       </c>
-      <c r="AI62" s="184"/>
-      <c r="AJ62" s="184"/>
-      <c r="AK62" s="184"/>
-      <c r="AL62" s="184"/>
-      <c r="AM62" s="185"/>
+      <c r="AI62" s="137"/>
+      <c r="AJ62" s="137"/>
+      <c r="AK62" s="137"/>
+      <c r="AL62" s="137"/>
+      <c r="AM62" s="138"/>
     </row>
   </sheetData>
   <mergeCells count="73">
-    <mergeCell ref="Y60:AA60"/>
-    <mergeCell ref="AH62:AM62"/>
-    <mergeCell ref="AJ60:AM60"/>
-    <mergeCell ref="AJ61:AM61"/>
-    <mergeCell ref="AB60:AG60"/>
-    <mergeCell ref="AB61:AG61"/>
-    <mergeCell ref="AB62:AG62"/>
-    <mergeCell ref="Y61:AA61"/>
-    <mergeCell ref="Y62:AA62"/>
-    <mergeCell ref="Y57:AM57"/>
-    <mergeCell ref="AJ58:AM58"/>
-    <mergeCell ref="AJ59:AM59"/>
-    <mergeCell ref="AB58:AG58"/>
-    <mergeCell ref="AB59:AG59"/>
-    <mergeCell ref="Y58:AA58"/>
-    <mergeCell ref="Y59:AA59"/>
-    <mergeCell ref="AJ55:AL55"/>
-    <mergeCell ref="A44:AM44"/>
-    <mergeCell ref="AJ45:AL45"/>
-    <mergeCell ref="AJ46:AL46"/>
-    <mergeCell ref="AJ47:AL47"/>
-    <mergeCell ref="AJ48:AL48"/>
-    <mergeCell ref="AJ49:AL49"/>
-    <mergeCell ref="AJ50:AL50"/>
-    <mergeCell ref="AJ51:AL51"/>
-    <mergeCell ref="AJ52:AL52"/>
-    <mergeCell ref="AJ53:AL53"/>
-    <mergeCell ref="AJ54:AL54"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="A43:AM43"/>
-    <mergeCell ref="AJ32:AL32"/>
-    <mergeCell ref="AJ33:AL33"/>
-    <mergeCell ref="AJ34:AL34"/>
-    <mergeCell ref="AJ35:AL35"/>
-    <mergeCell ref="AJ36:AL36"/>
-    <mergeCell ref="AJ37:AL37"/>
-    <mergeCell ref="AJ38:AL38"/>
-    <mergeCell ref="AJ39:AL39"/>
-    <mergeCell ref="AJ40:AL40"/>
-    <mergeCell ref="AJ41:AL41"/>
-    <mergeCell ref="AJ42:AL42"/>
+    <mergeCell ref="A8:AM8"/>
+    <mergeCell ref="AJ9:AL9"/>
+    <mergeCell ref="AJ10:AL10"/>
+    <mergeCell ref="AJ11:AL11"/>
+    <mergeCell ref="A2:AM2"/>
+    <mergeCell ref="A3:AM3"/>
+    <mergeCell ref="AJ4:AM4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:AI5"/>
+    <mergeCell ref="AJ5:AM6"/>
+    <mergeCell ref="AJ12:AL12"/>
+    <mergeCell ref="AJ13:AL13"/>
+    <mergeCell ref="AJ14:AL14"/>
+    <mergeCell ref="AJ15:AL15"/>
+    <mergeCell ref="AJ16:AL16"/>
     <mergeCell ref="AJ17:AL17"/>
     <mergeCell ref="AJ18:AL18"/>
     <mergeCell ref="A31:B31"/>
@@ -65312,23 +65284,47 @@
     <mergeCell ref="AJ29:AL29"/>
     <mergeCell ref="A30:AM30"/>
     <mergeCell ref="AJ19:AL19"/>
-    <mergeCell ref="AJ12:AL12"/>
-    <mergeCell ref="AJ13:AL13"/>
-    <mergeCell ref="AJ14:AL14"/>
-    <mergeCell ref="AJ15:AL15"/>
-    <mergeCell ref="AJ16:AL16"/>
-    <mergeCell ref="A8:AM8"/>
-    <mergeCell ref="AJ9:AL9"/>
-    <mergeCell ref="AJ10:AL10"/>
-    <mergeCell ref="AJ11:AL11"/>
-    <mergeCell ref="A2:AM2"/>
-    <mergeCell ref="A3:AM3"/>
-    <mergeCell ref="AJ4:AM4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:AI5"/>
-    <mergeCell ref="AJ5:AM6"/>
+    <mergeCell ref="A43:AM43"/>
+    <mergeCell ref="AJ32:AL32"/>
+    <mergeCell ref="AJ33:AL33"/>
+    <mergeCell ref="AJ34:AL34"/>
+    <mergeCell ref="AJ35:AL35"/>
+    <mergeCell ref="AJ36:AL36"/>
+    <mergeCell ref="AJ37:AL37"/>
+    <mergeCell ref="AJ38:AL38"/>
+    <mergeCell ref="AJ39:AL39"/>
+    <mergeCell ref="AJ40:AL40"/>
+    <mergeCell ref="AJ41:AL41"/>
+    <mergeCell ref="AJ42:AL42"/>
+    <mergeCell ref="AJ55:AL55"/>
+    <mergeCell ref="A44:AM44"/>
+    <mergeCell ref="AJ45:AL45"/>
+    <mergeCell ref="AJ46:AL46"/>
+    <mergeCell ref="AJ47:AL47"/>
+    <mergeCell ref="AJ48:AL48"/>
+    <mergeCell ref="AJ49:AL49"/>
+    <mergeCell ref="AJ50:AL50"/>
+    <mergeCell ref="AJ51:AL51"/>
+    <mergeCell ref="AJ52:AL52"/>
+    <mergeCell ref="AJ53:AL53"/>
+    <mergeCell ref="AJ54:AL54"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="Y57:AM57"/>
+    <mergeCell ref="AJ58:AM58"/>
+    <mergeCell ref="AJ59:AM59"/>
+    <mergeCell ref="AB58:AG58"/>
+    <mergeCell ref="AB59:AG59"/>
+    <mergeCell ref="Y58:AA58"/>
+    <mergeCell ref="Y59:AA59"/>
+    <mergeCell ref="Y60:AA60"/>
+    <mergeCell ref="AH62:AM62"/>
+    <mergeCell ref="AJ60:AM60"/>
+    <mergeCell ref="AJ61:AM61"/>
+    <mergeCell ref="AB60:AG60"/>
+    <mergeCell ref="AB61:AG61"/>
+    <mergeCell ref="AB62:AG62"/>
+    <mergeCell ref="Y61:AA61"/>
+    <mergeCell ref="Y62:AA62"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="7.8740157480315001E-2" top="0" bottom="0" header="0.3" footer="0.3"/>

--- a/Data Barang Template.xlsx
+++ b/Data Barang Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\GOS_FxApps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1832863-6BC1-413E-8261-8BDCEF3443CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1514F6C5-DB41-480F-BFFD-92FFF7CB1513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1933,93 +1933,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="50" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="9" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="2" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="15" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="14" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="43" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="9" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="47" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="3" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="9" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="2" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="13" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="42" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="14" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="13" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="23" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="30" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="31" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="12" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="48" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="44" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="45" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="46" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="49" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="45" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="46" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="27" fillId="4" borderId="39" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="27" fillId="4" borderId="40" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="27" fillId="4" borderId="41" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="23" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2045,30 +1958,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="27" fillId="4" borderId="37" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="50" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="47" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="28" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="29" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="27" fillId="4" borderId="42" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="27" fillId="4" borderId="14" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="27" fillId="4" borderId="43" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2102,6 +1991,117 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="4" borderId="22" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="4" borderId="39" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="4" borderId="40" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="4" borderId="41" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="28" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="29" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="4" borderId="42" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="4" borderId="14" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="4" borderId="43" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="50" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="47" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="23" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="30" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="31" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="12" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="48" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="9" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="47" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="44" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="45" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="46" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="3" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="9" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="2" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="49" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="45" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="46" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="50" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="9" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="2" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="15" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="14" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="43" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="13" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="42" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="14" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="13" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5747,11 +5747,11 @@
   <dimension ref="A1:BR722"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="40" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="BD3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="Z3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E22" sqref="E22"/>
       <selection pane="topRight" activeCell="E22" sqref="E22"/>
       <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
-      <selection pane="bottomRight" activeCell="BT5" sqref="BT5"/>
+      <selection pane="bottomRight" activeCell="BT3" sqref="BT3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5765,7 +5765,7 @@
     <col min="7" max="7" width="11.85546875" style="1" customWidth="1"/>
     <col min="8" max="38" width="8.7109375" style="20" customWidth="1"/>
     <col min="39" max="69" width="8.7109375" style="21" customWidth="1"/>
-    <col min="70" max="70" width="20.28515625" style="6" customWidth="1"/>
+    <col min="70" max="70" width="60.7109375" style="6" customWidth="1"/>
     <col min="71" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
@@ -58088,90 +58088,90 @@
       <c r="AM1" s="115"/>
     </row>
     <row r="2" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="179" t="s">
+      <c r="A2" s="142" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="179"/>
-      <c r="C2" s="179"/>
-      <c r="D2" s="179"/>
-      <c r="E2" s="179"/>
-      <c r="F2" s="179"/>
-      <c r="G2" s="179"/>
-      <c r="H2" s="179"/>
-      <c r="I2" s="179"/>
-      <c r="J2" s="179"/>
-      <c r="K2" s="179"/>
-      <c r="L2" s="179"/>
-      <c r="M2" s="179"/>
-      <c r="N2" s="179"/>
-      <c r="O2" s="179"/>
-      <c r="P2" s="179"/>
-      <c r="Q2" s="179"/>
-      <c r="R2" s="179"/>
-      <c r="S2" s="179"/>
-      <c r="T2" s="179"/>
-      <c r="U2" s="179"/>
-      <c r="V2" s="179"/>
-      <c r="W2" s="179"/>
-      <c r="X2" s="179"/>
-      <c r="Y2" s="179"/>
-      <c r="Z2" s="179"/>
-      <c r="AA2" s="179"/>
-      <c r="AB2" s="179"/>
-      <c r="AC2" s="179"/>
-      <c r="AD2" s="179"/>
-      <c r="AE2" s="179"/>
-      <c r="AF2" s="179"/>
-      <c r="AG2" s="179"/>
-      <c r="AH2" s="179"/>
-      <c r="AI2" s="179"/>
-      <c r="AJ2" s="179"/>
-      <c r="AK2" s="179"/>
-      <c r="AL2" s="179"/>
-      <c r="AM2" s="179"/>
+      <c r="B2" s="142"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="142"/>
+      <c r="G2" s="142"/>
+      <c r="H2" s="142"/>
+      <c r="I2" s="142"/>
+      <c r="J2" s="142"/>
+      <c r="K2" s="142"/>
+      <c r="L2" s="142"/>
+      <c r="M2" s="142"/>
+      <c r="N2" s="142"/>
+      <c r="O2" s="142"/>
+      <c r="P2" s="142"/>
+      <c r="Q2" s="142"/>
+      <c r="R2" s="142"/>
+      <c r="S2" s="142"/>
+      <c r="T2" s="142"/>
+      <c r="U2" s="142"/>
+      <c r="V2" s="142"/>
+      <c r="W2" s="142"/>
+      <c r="X2" s="142"/>
+      <c r="Y2" s="142"/>
+      <c r="Z2" s="142"/>
+      <c r="AA2" s="142"/>
+      <c r="AB2" s="142"/>
+      <c r="AC2" s="142"/>
+      <c r="AD2" s="142"/>
+      <c r="AE2" s="142"/>
+      <c r="AF2" s="142"/>
+      <c r="AG2" s="142"/>
+      <c r="AH2" s="142"/>
+      <c r="AI2" s="142"/>
+      <c r="AJ2" s="142"/>
+      <c r="AK2" s="142"/>
+      <c r="AL2" s="142"/>
+      <c r="AM2" s="142"/>
     </row>
     <row r="3" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="179" t="s">
+      <c r="A3" s="142" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="179"/>
-      <c r="C3" s="179"/>
-      <c r="D3" s="179"/>
-      <c r="E3" s="179"/>
-      <c r="F3" s="179"/>
-      <c r="G3" s="179"/>
-      <c r="H3" s="179"/>
-      <c r="I3" s="179"/>
-      <c r="J3" s="179"/>
-      <c r="K3" s="179"/>
-      <c r="L3" s="179"/>
-      <c r="M3" s="179"/>
-      <c r="N3" s="179"/>
-      <c r="O3" s="179"/>
-      <c r="P3" s="179"/>
-      <c r="Q3" s="179"/>
-      <c r="R3" s="179"/>
-      <c r="S3" s="179"/>
-      <c r="T3" s="179"/>
-      <c r="U3" s="179"/>
-      <c r="V3" s="179"/>
-      <c r="W3" s="179"/>
-      <c r="X3" s="179"/>
-      <c r="Y3" s="179"/>
-      <c r="Z3" s="179"/>
-      <c r="AA3" s="179"/>
-      <c r="AB3" s="179"/>
-      <c r="AC3" s="179"/>
-      <c r="AD3" s="179"/>
-      <c r="AE3" s="179"/>
-      <c r="AF3" s="179"/>
-      <c r="AG3" s="179"/>
-      <c r="AH3" s="179"/>
-      <c r="AI3" s="179"/>
-      <c r="AJ3" s="179"/>
-      <c r="AK3" s="179"/>
-      <c r="AL3" s="179"/>
-      <c r="AM3" s="179"/>
+      <c r="B3" s="142"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="142"/>
+      <c r="G3" s="142"/>
+      <c r="H3" s="142"/>
+      <c r="I3" s="142"/>
+      <c r="J3" s="142"/>
+      <c r="K3" s="142"/>
+      <c r="L3" s="142"/>
+      <c r="M3" s="142"/>
+      <c r="N3" s="142"/>
+      <c r="O3" s="142"/>
+      <c r="P3" s="142"/>
+      <c r="Q3" s="142"/>
+      <c r="R3" s="142"/>
+      <c r="S3" s="142"/>
+      <c r="T3" s="142"/>
+      <c r="U3" s="142"/>
+      <c r="V3" s="142"/>
+      <c r="W3" s="142"/>
+      <c r="X3" s="142"/>
+      <c r="Y3" s="142"/>
+      <c r="Z3" s="142"/>
+      <c r="AA3" s="142"/>
+      <c r="AB3" s="142"/>
+      <c r="AC3" s="142"/>
+      <c r="AD3" s="142"/>
+      <c r="AE3" s="142"/>
+      <c r="AF3" s="142"/>
+      <c r="AG3" s="142"/>
+      <c r="AH3" s="142"/>
+      <c r="AI3" s="142"/>
+      <c r="AJ3" s="142"/>
+      <c r="AK3" s="142"/>
+      <c r="AL3" s="142"/>
+      <c r="AM3" s="142"/>
     </row>
     <row r="4" spans="1:46" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="43"/>
@@ -58209,67 +58209,67 @@
       <c r="AG4" s="44"/>
       <c r="AH4" s="44"/>
       <c r="AI4" s="44"/>
-      <c r="AJ4" s="180"/>
-      <c r="AK4" s="180"/>
-      <c r="AL4" s="180"/>
-      <c r="AM4" s="180"/>
+      <c r="AJ4" s="143"/>
+      <c r="AK4" s="143"/>
+      <c r="AL4" s="143"/>
+      <c r="AM4" s="143"/>
     </row>
     <row r="5" spans="1:46" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="181" t="s">
+      <c r="A5" s="144" t="s">
         <v>94</v>
       </c>
-      <c r="B5" s="183" t="s">
+      <c r="B5" s="146" t="s">
         <v>109</v>
       </c>
-      <c r="C5" s="184"/>
-      <c r="D5" s="181" t="s">
+      <c r="C5" s="147"/>
+      <c r="D5" s="144" t="s">
         <v>95</v>
       </c>
-      <c r="E5" s="187" t="s">
+      <c r="E5" s="150" t="s">
         <v>137</v>
       </c>
-      <c r="F5" s="188"/>
-      <c r="G5" s="188"/>
-      <c r="H5" s="188"/>
-      <c r="I5" s="188"/>
-      <c r="J5" s="188"/>
-      <c r="K5" s="188"/>
-      <c r="L5" s="188"/>
-      <c r="M5" s="188"/>
-      <c r="N5" s="188"/>
-      <c r="O5" s="188"/>
-      <c r="P5" s="188"/>
-      <c r="Q5" s="188"/>
-      <c r="R5" s="188"/>
-      <c r="S5" s="188"/>
-      <c r="T5" s="188"/>
-      <c r="U5" s="188"/>
-      <c r="V5" s="188"/>
-      <c r="W5" s="188"/>
-      <c r="X5" s="188"/>
-      <c r="Y5" s="188"/>
-      <c r="Z5" s="188"/>
-      <c r="AA5" s="188"/>
-      <c r="AB5" s="188"/>
-      <c r="AC5" s="188"/>
-      <c r="AD5" s="188"/>
-      <c r="AE5" s="188"/>
-      <c r="AF5" s="188"/>
-      <c r="AG5" s="188"/>
-      <c r="AH5" s="188"/>
-      <c r="AI5" s="189"/>
-      <c r="AJ5" s="181" t="s">
+      <c r="F5" s="151"/>
+      <c r="G5" s="151"/>
+      <c r="H5" s="151"/>
+      <c r="I5" s="151"/>
+      <c r="J5" s="151"/>
+      <c r="K5" s="151"/>
+      <c r="L5" s="151"/>
+      <c r="M5" s="151"/>
+      <c r="N5" s="151"/>
+      <c r="O5" s="151"/>
+      <c r="P5" s="151"/>
+      <c r="Q5" s="151"/>
+      <c r="R5" s="151"/>
+      <c r="S5" s="151"/>
+      <c r="T5" s="151"/>
+      <c r="U5" s="151"/>
+      <c r="V5" s="151"/>
+      <c r="W5" s="151"/>
+      <c r="X5" s="151"/>
+      <c r="Y5" s="151"/>
+      <c r="Z5" s="151"/>
+      <c r="AA5" s="151"/>
+      <c r="AB5" s="151"/>
+      <c r="AC5" s="151"/>
+      <c r="AD5" s="151"/>
+      <c r="AE5" s="151"/>
+      <c r="AF5" s="151"/>
+      <c r="AG5" s="151"/>
+      <c r="AH5" s="151"/>
+      <c r="AI5" s="152"/>
+      <c r="AJ5" s="144" t="s">
         <v>110</v>
       </c>
-      <c r="AK5" s="181"/>
-      <c r="AL5" s="181"/>
-      <c r="AM5" s="181"/>
+      <c r="AK5" s="144"/>
+      <c r="AL5" s="144"/>
+      <c r="AM5" s="144"/>
     </row>
     <row r="6" spans="1:46" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="182"/>
-      <c r="B6" s="185"/>
-      <c r="C6" s="186"/>
-      <c r="D6" s="182"/>
+      <c r="A6" s="145"/>
+      <c r="B6" s="148"/>
+      <c r="C6" s="149"/>
+      <c r="D6" s="145"/>
       <c r="E6" s="46">
         <v>1</v>
       </c>
@@ -58363,10 +58363,10 @@
       <c r="AI6" s="46">
         <v>31</v>
       </c>
-      <c r="AJ6" s="182"/>
-      <c r="AK6" s="182"/>
-      <c r="AL6" s="182"/>
-      <c r="AM6" s="182"/>
+      <c r="AJ6" s="145"/>
+      <c r="AK6" s="145"/>
+      <c r="AL6" s="145"/>
+      <c r="AM6" s="145"/>
     </row>
     <row r="7" spans="1:46" ht="9.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="47"/>
@@ -58410,47 +58410,47 @@
       <c r="AM7" s="49"/>
     </row>
     <row r="8" spans="1:46" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="162" t="s">
+      <c r="A8" s="133" t="s">
         <v>111</v>
       </c>
-      <c r="B8" s="163"/>
-      <c r="C8" s="163"/>
-      <c r="D8" s="163"/>
-      <c r="E8" s="163"/>
-      <c r="F8" s="163"/>
-      <c r="G8" s="163"/>
-      <c r="H8" s="163"/>
-      <c r="I8" s="163"/>
-      <c r="J8" s="163"/>
-      <c r="K8" s="163"/>
-      <c r="L8" s="163"/>
-      <c r="M8" s="163"/>
-      <c r="N8" s="163"/>
-      <c r="O8" s="163"/>
-      <c r="P8" s="163"/>
-      <c r="Q8" s="163"/>
-      <c r="R8" s="163"/>
-      <c r="S8" s="163"/>
-      <c r="T8" s="163"/>
-      <c r="U8" s="163"/>
-      <c r="V8" s="163"/>
-      <c r="W8" s="163"/>
-      <c r="X8" s="163"/>
-      <c r="Y8" s="163"/>
-      <c r="Z8" s="163"/>
-      <c r="AA8" s="163"/>
-      <c r="AB8" s="163"/>
-      <c r="AC8" s="163"/>
-      <c r="AD8" s="163"/>
-      <c r="AE8" s="163"/>
-      <c r="AF8" s="163"/>
-      <c r="AG8" s="163"/>
-      <c r="AH8" s="163"/>
-      <c r="AI8" s="163"/>
-      <c r="AJ8" s="163"/>
-      <c r="AK8" s="163"/>
-      <c r="AL8" s="163"/>
-      <c r="AM8" s="164"/>
+      <c r="B8" s="134"/>
+      <c r="C8" s="134"/>
+      <c r="D8" s="134"/>
+      <c r="E8" s="134"/>
+      <c r="F8" s="134"/>
+      <c r="G8" s="134"/>
+      <c r="H8" s="134"/>
+      <c r="I8" s="134"/>
+      <c r="J8" s="134"/>
+      <c r="K8" s="134"/>
+      <c r="L8" s="134"/>
+      <c r="M8" s="134"/>
+      <c r="N8" s="134"/>
+      <c r="O8" s="134"/>
+      <c r="P8" s="134"/>
+      <c r="Q8" s="134"/>
+      <c r="R8" s="134"/>
+      <c r="S8" s="134"/>
+      <c r="T8" s="134"/>
+      <c r="U8" s="134"/>
+      <c r="V8" s="134"/>
+      <c r="W8" s="134"/>
+      <c r="X8" s="134"/>
+      <c r="Y8" s="134"/>
+      <c r="Z8" s="134"/>
+      <c r="AA8" s="134"/>
+      <c r="AB8" s="134"/>
+      <c r="AC8" s="134"/>
+      <c r="AD8" s="134"/>
+      <c r="AE8" s="134"/>
+      <c r="AF8" s="134"/>
+      <c r="AG8" s="134"/>
+      <c r="AH8" s="134"/>
+      <c r="AI8" s="134"/>
+      <c r="AJ8" s="134"/>
+      <c r="AK8" s="134"/>
+      <c r="AL8" s="134"/>
+      <c r="AM8" s="135"/>
       <c r="AO8" s="102"/>
       <c r="AP8" s="102"/>
       <c r="AQ8" s="102"/>
@@ -58591,12 +58591,12 @@
         <f>Data!BQ3</f>
         <v>0</v>
       </c>
-      <c r="AJ9" s="165">
+      <c r="AJ9" s="136">
         <f t="shared" ref="AJ9:AJ55" si="0">SUM(E9:AI9)</f>
         <v>0</v>
       </c>
-      <c r="AK9" s="166"/>
-      <c r="AL9" s="167"/>
+      <c r="AK9" s="137"/>
+      <c r="AL9" s="138"/>
       <c r="AM9" s="53" t="s">
         <v>84</v>
       </c>
@@ -58750,12 +58750,12 @@
         <f>Data!BQ4</f>
         <v>0</v>
       </c>
-      <c r="AJ10" s="168">
+      <c r="AJ10" s="139">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK10" s="169"/>
-      <c r="AL10" s="170"/>
+      <c r="AK10" s="140"/>
+      <c r="AL10" s="141"/>
       <c r="AM10" s="57" t="s">
         <v>84</v>
       </c>
@@ -58899,12 +58899,12 @@
         <f>Data!BQ5</f>
         <v>0</v>
       </c>
-      <c r="AJ11" s="168">
+      <c r="AJ11" s="139">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="AK11" s="169"/>
-      <c r="AL11" s="170"/>
+      <c r="AK11" s="140"/>
+      <c r="AL11" s="141"/>
       <c r="AM11" s="57" t="s">
         <v>112</v>
       </c>
@@ -59051,12 +59051,12 @@
         <f>Data!BQ7</f>
         <v>0</v>
       </c>
-      <c r="AJ12" s="168">
+      <c r="AJ12" s="139">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK12" s="169"/>
-      <c r="AL12" s="170"/>
+      <c r="AK12" s="140"/>
+      <c r="AL12" s="141"/>
       <c r="AM12" s="57" t="s">
         <v>84</v>
       </c>
@@ -59199,12 +59199,12 @@
         <f>Data!BQ9</f>
         <v>0</v>
       </c>
-      <c r="AJ13" s="168">
+      <c r="AJ13" s="139">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK13" s="169"/>
-      <c r="AL13" s="170"/>
+      <c r="AK13" s="140"/>
+      <c r="AL13" s="141"/>
       <c r="AM13" s="57" t="s">
         <v>112</v>
       </c>
@@ -59347,12 +59347,12 @@
         <f>Data!BQ10</f>
         <v>0</v>
       </c>
-      <c r="AJ14" s="168">
+      <c r="AJ14" s="139">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK14" s="169"/>
-      <c r="AL14" s="170"/>
+      <c r="AK14" s="140"/>
+      <c r="AL14" s="141"/>
       <c r="AM14" s="57" t="s">
         <v>112</v>
       </c>
@@ -59499,12 +59499,12 @@
         <f>Data!BQ11</f>
         <v>0</v>
       </c>
-      <c r="AJ15" s="168">
+      <c r="AJ15" s="139">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK15" s="169"/>
-      <c r="AL15" s="170"/>
+      <c r="AK15" s="140"/>
+      <c r="AL15" s="141"/>
       <c r="AM15" s="57" t="s">
         <v>112</v>
       </c>
@@ -59651,12 +59651,12 @@
         <f>Data!BQ12</f>
         <v>0</v>
       </c>
-      <c r="AJ16" s="168">
+      <c r="AJ16" s="139">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK16" s="169"/>
-      <c r="AL16" s="170"/>
+      <c r="AK16" s="140"/>
+      <c r="AL16" s="141"/>
       <c r="AM16" s="57" t="s">
         <v>112</v>
       </c>
@@ -59803,12 +59803,12 @@
         <f>Data!BQ14</f>
         <v>0</v>
       </c>
-      <c r="AJ17" s="168">
+      <c r="AJ17" s="139">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK17" s="169"/>
-      <c r="AL17" s="170"/>
+      <c r="AK17" s="140"/>
+      <c r="AL17" s="141"/>
       <c r="AM17" s="57" t="s">
         <v>84</v>
       </c>
@@ -59954,12 +59954,12 @@
         <f>Data!BQ15</f>
         <v>0</v>
       </c>
-      <c r="AJ18" s="168">
+      <c r="AJ18" s="139">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK18" s="169"/>
-      <c r="AL18" s="170"/>
+      <c r="AK18" s="140"/>
+      <c r="AL18" s="141"/>
       <c r="AM18" s="57" t="s">
         <v>112</v>
       </c>
@@ -60099,12 +60099,12 @@
         <f>Data!BQ17</f>
         <v>0</v>
       </c>
-      <c r="AJ19" s="168">
+      <c r="AJ19" s="139">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK19" s="169"/>
-      <c r="AL19" s="170"/>
+      <c r="AK19" s="140"/>
+      <c r="AL19" s="141"/>
       <c r="AM19" s="57" t="s">
         <v>112</v>
       </c>
@@ -60245,12 +60245,12 @@
         <f>Data!BQ18</f>
         <v>0</v>
       </c>
-      <c r="AJ20" s="168">
+      <c r="AJ20" s="139">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK20" s="169"/>
-      <c r="AL20" s="170"/>
+      <c r="AK20" s="140"/>
+      <c r="AL20" s="141"/>
       <c r="AM20" s="57" t="s">
         <v>84</v>
       </c>
@@ -60391,12 +60391,12 @@
         <f>Data!BQ19</f>
         <v>0</v>
       </c>
-      <c r="AJ21" s="168">
+      <c r="AJ21" s="139">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK21" s="169"/>
-      <c r="AL21" s="170"/>
+      <c r="AK21" s="140"/>
+      <c r="AL21" s="141"/>
       <c r="AM21" s="57" t="s">
         <v>115</v>
       </c>
@@ -60537,12 +60537,12 @@
         <f>Data!BQ20</f>
         <v>0</v>
       </c>
-      <c r="AJ22" s="168">
+      <c r="AJ22" s="139">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK22" s="169"/>
-      <c r="AL22" s="170"/>
+      <c r="AK22" s="140"/>
+      <c r="AL22" s="141"/>
       <c r="AM22" s="57" t="s">
         <v>115</v>
       </c>
@@ -60683,12 +60683,12 @@
         <f>Data!BQ22</f>
         <v>0</v>
       </c>
-      <c r="AJ23" s="168">
+      <c r="AJ23" s="139">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK23" s="169"/>
-      <c r="AL23" s="170"/>
+      <c r="AK23" s="140"/>
+      <c r="AL23" s="141"/>
       <c r="AM23" s="57" t="s">
         <v>115</v>
       </c>
@@ -60829,12 +60829,12 @@
         <f>Data!BQ23</f>
         <v>0</v>
       </c>
-      <c r="AJ24" s="168">
+      <c r="AJ24" s="139">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK24" s="169"/>
-      <c r="AL24" s="170"/>
+      <c r="AK24" s="140"/>
+      <c r="AL24" s="141"/>
       <c r="AM24" s="57" t="s">
         <v>115</v>
       </c>
@@ -60975,12 +60975,12 @@
         <f>Data!BQ24</f>
         <v>0</v>
       </c>
-      <c r="AJ25" s="168">
+      <c r="AJ25" s="139">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK25" s="169"/>
-      <c r="AL25" s="170"/>
+      <c r="AK25" s="140"/>
+      <c r="AL25" s="141"/>
       <c r="AM25" s="57" t="s">
         <v>105</v>
       </c>
@@ -61121,12 +61121,12 @@
         <f>Data!BQ25</f>
         <v>0</v>
       </c>
-      <c r="AJ26" s="168">
+      <c r="AJ26" s="139">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK26" s="169"/>
-      <c r="AL26" s="170"/>
+      <c r="AK26" s="140"/>
+      <c r="AL26" s="141"/>
       <c r="AM26" s="57" t="s">
         <v>106</v>
       </c>
@@ -61267,12 +61267,12 @@
         <f>Data!BQ26</f>
         <v>0</v>
       </c>
-      <c r="AJ27" s="168">
+      <c r="AJ27" s="139">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK27" s="169"/>
-      <c r="AL27" s="170"/>
+      <c r="AK27" s="140"/>
+      <c r="AL27" s="141"/>
       <c r="AM27" s="57" t="s">
         <v>112</v>
       </c>
@@ -61413,12 +61413,12 @@
         <f>Data!BQ27</f>
         <v>0</v>
       </c>
-      <c r="AJ28" s="168">
+      <c r="AJ28" s="139">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK28" s="169"/>
-      <c r="AL28" s="170"/>
+      <c r="AK28" s="140"/>
+      <c r="AL28" s="141"/>
       <c r="AM28" s="57" t="s">
         <v>112</v>
       </c>
@@ -61559,62 +61559,62 @@
         <f>Data!BQ28</f>
         <v>0</v>
       </c>
-      <c r="AJ29" s="159">
+      <c r="AJ29" s="153">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK29" s="160"/>
-      <c r="AL29" s="161"/>
+      <c r="AK29" s="154"/>
+      <c r="AL29" s="155"/>
       <c r="AM29" s="61" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:46" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="173"/>
-      <c r="B30" s="174"/>
-      <c r="C30" s="174"/>
-      <c r="D30" s="174"/>
-      <c r="E30" s="174"/>
-      <c r="F30" s="174"/>
-      <c r="G30" s="174"/>
-      <c r="H30" s="174"/>
-      <c r="I30" s="174"/>
-      <c r="J30" s="174"/>
-      <c r="K30" s="174"/>
-      <c r="L30" s="174"/>
-      <c r="M30" s="174"/>
-      <c r="N30" s="174"/>
-      <c r="O30" s="174"/>
-      <c r="P30" s="174"/>
-      <c r="Q30" s="174"/>
-      <c r="R30" s="174"/>
-      <c r="S30" s="174"/>
-      <c r="T30" s="174"/>
-      <c r="U30" s="174"/>
-      <c r="V30" s="174"/>
-      <c r="W30" s="174"/>
-      <c r="X30" s="174"/>
-      <c r="Y30" s="174"/>
-      <c r="Z30" s="174"/>
-      <c r="AA30" s="174"/>
-      <c r="AB30" s="174"/>
-      <c r="AC30" s="174"/>
-      <c r="AD30" s="174"/>
-      <c r="AE30" s="174"/>
-      <c r="AF30" s="174"/>
-      <c r="AG30" s="174"/>
-      <c r="AH30" s="174"/>
-      <c r="AI30" s="174"/>
-      <c r="AJ30" s="174"/>
-      <c r="AK30" s="174"/>
-      <c r="AL30" s="174"/>
-      <c r="AM30" s="175"/>
+      <c r="A30" s="156"/>
+      <c r="B30" s="157"/>
+      <c r="C30" s="157"/>
+      <c r="D30" s="157"/>
+      <c r="E30" s="157"/>
+      <c r="F30" s="157"/>
+      <c r="G30" s="157"/>
+      <c r="H30" s="157"/>
+      <c r="I30" s="157"/>
+      <c r="J30" s="157"/>
+      <c r="K30" s="157"/>
+      <c r="L30" s="157"/>
+      <c r="M30" s="157"/>
+      <c r="N30" s="157"/>
+      <c r="O30" s="157"/>
+      <c r="P30" s="157"/>
+      <c r="Q30" s="157"/>
+      <c r="R30" s="157"/>
+      <c r="S30" s="157"/>
+      <c r="T30" s="157"/>
+      <c r="U30" s="157"/>
+      <c r="V30" s="157"/>
+      <c r="W30" s="157"/>
+      <c r="X30" s="157"/>
+      <c r="Y30" s="157"/>
+      <c r="Z30" s="157"/>
+      <c r="AA30" s="157"/>
+      <c r="AB30" s="157"/>
+      <c r="AC30" s="157"/>
+      <c r="AD30" s="157"/>
+      <c r="AE30" s="157"/>
+      <c r="AF30" s="157"/>
+      <c r="AG30" s="157"/>
+      <c r="AH30" s="157"/>
+      <c r="AI30" s="157"/>
+      <c r="AJ30" s="157"/>
+      <c r="AK30" s="157"/>
+      <c r="AL30" s="157"/>
+      <c r="AM30" s="158"/>
     </row>
     <row r="31" spans="1:46" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="162" t="s">
+      <c r="A31" s="133" t="s">
         <v>117</v>
       </c>
-      <c r="B31" s="163"/>
+      <c r="B31" s="134"/>
       <c r="C31" s="62"/>
       <c r="D31" s="62"/>
       <c r="E31" s="62"/>
@@ -61788,12 +61788,12 @@
         <f>Data!BQ36</f>
         <v>0</v>
       </c>
-      <c r="AJ32" s="165">
+      <c r="AJ32" s="136">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK32" s="166"/>
-      <c r="AL32" s="167"/>
+      <c r="AK32" s="137"/>
+      <c r="AL32" s="138"/>
       <c r="AM32" s="53" t="s">
         <v>112</v>
       </c>
@@ -61934,12 +61934,12 @@
         <f>Data!BQ37</f>
         <v>0</v>
       </c>
-      <c r="AJ33" s="168">
+      <c r="AJ33" s="139">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK33" s="169"/>
-      <c r="AL33" s="170"/>
+      <c r="AK33" s="140"/>
+      <c r="AL33" s="141"/>
       <c r="AM33" s="57" t="s">
         <v>112</v>
       </c>
@@ -62080,12 +62080,12 @@
         <f>Data!BQ38</f>
         <v>0</v>
       </c>
-      <c r="AJ34" s="168">
+      <c r="AJ34" s="139">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK34" s="169"/>
-      <c r="AL34" s="170"/>
+      <c r="AK34" s="140"/>
+      <c r="AL34" s="141"/>
       <c r="AM34" s="57" t="s">
         <v>112</v>
       </c>
@@ -62226,12 +62226,12 @@
         <f>Data!BQ39</f>
         <v>0</v>
       </c>
-      <c r="AJ35" s="168">
+      <c r="AJ35" s="139">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK35" s="169"/>
-      <c r="AL35" s="170"/>
+      <c r="AK35" s="140"/>
+      <c r="AL35" s="141"/>
       <c r="AM35" s="57" t="s">
         <v>112</v>
       </c>
@@ -62372,12 +62372,12 @@
         <f>Data!BQ40</f>
         <v>0</v>
       </c>
-      <c r="AJ36" s="168">
+      <c r="AJ36" s="139">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK36" s="169"/>
-      <c r="AL36" s="170"/>
+      <c r="AK36" s="140"/>
+      <c r="AL36" s="141"/>
       <c r="AM36" s="57" t="s">
         <v>112</v>
       </c>
@@ -62518,12 +62518,12 @@
         <f>Data!BQ41</f>
         <v>0</v>
       </c>
-      <c r="AJ37" s="168">
+      <c r="AJ37" s="139">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK37" s="169"/>
-      <c r="AL37" s="170"/>
+      <c r="AK37" s="140"/>
+      <c r="AL37" s="141"/>
       <c r="AM37" s="57" t="s">
         <v>112</v>
       </c>
@@ -62664,12 +62664,12 @@
         <f>Data!BQ42</f>
         <v>0</v>
       </c>
-      <c r="AJ38" s="168">
+      <c r="AJ38" s="139">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK38" s="169"/>
-      <c r="AL38" s="170"/>
+      <c r="AK38" s="140"/>
+      <c r="AL38" s="141"/>
       <c r="AM38" s="57" t="s">
         <v>112</v>
       </c>
@@ -62810,12 +62810,12 @@
         <f>Data!BQ43</f>
         <v>0</v>
       </c>
-      <c r="AJ39" s="168">
+      <c r="AJ39" s="139">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK39" s="169"/>
-      <c r="AL39" s="170"/>
+      <c r="AK39" s="140"/>
+      <c r="AL39" s="141"/>
       <c r="AM39" s="57" t="s">
         <v>112</v>
       </c>
@@ -62956,12 +62956,12 @@
         <f>Data!BQ44</f>
         <v>0</v>
       </c>
-      <c r="AJ40" s="168">
+      <c r="AJ40" s="139">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK40" s="169"/>
-      <c r="AL40" s="170"/>
+      <c r="AK40" s="140"/>
+      <c r="AL40" s="141"/>
       <c r="AM40" s="57" t="s">
         <v>112</v>
       </c>
@@ -63102,12 +63102,12 @@
         <f>Data!BQ45</f>
         <v>0</v>
       </c>
-      <c r="AJ41" s="168">
+      <c r="AJ41" s="139">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK41" s="169"/>
-      <c r="AL41" s="170"/>
+      <c r="AK41" s="140"/>
+      <c r="AL41" s="141"/>
       <c r="AM41" s="57" t="s">
         <v>112</v>
       </c>
@@ -63248,99 +63248,99 @@
         <f>Data!BQ46</f>
         <v>0</v>
       </c>
-      <c r="AJ42" s="176">
+      <c r="AJ42" s="159">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK42" s="177"/>
-      <c r="AL42" s="178"/>
+      <c r="AK42" s="160"/>
+      <c r="AL42" s="161"/>
       <c r="AM42" s="61" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="43" spans="1:39" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="173"/>
-      <c r="B43" s="174"/>
-      <c r="C43" s="174"/>
-      <c r="D43" s="174"/>
-      <c r="E43" s="174"/>
-      <c r="F43" s="174"/>
-      <c r="G43" s="174"/>
-      <c r="H43" s="174"/>
-      <c r="I43" s="174"/>
-      <c r="J43" s="174"/>
-      <c r="K43" s="174"/>
-      <c r="L43" s="174"/>
-      <c r="M43" s="174"/>
-      <c r="N43" s="174"/>
-      <c r="O43" s="174"/>
-      <c r="P43" s="174"/>
-      <c r="Q43" s="174"/>
-      <c r="R43" s="174"/>
-      <c r="S43" s="174"/>
-      <c r="T43" s="174"/>
-      <c r="U43" s="174"/>
-      <c r="V43" s="174"/>
-      <c r="W43" s="174"/>
-      <c r="X43" s="174"/>
-      <c r="Y43" s="174"/>
-      <c r="Z43" s="174"/>
-      <c r="AA43" s="174"/>
-      <c r="AB43" s="174"/>
-      <c r="AC43" s="174"/>
-      <c r="AD43" s="174"/>
-      <c r="AE43" s="174"/>
-      <c r="AF43" s="174"/>
-      <c r="AG43" s="174"/>
-      <c r="AH43" s="174"/>
-      <c r="AI43" s="174"/>
-      <c r="AJ43" s="174"/>
-      <c r="AK43" s="174"/>
-      <c r="AL43" s="174"/>
-      <c r="AM43" s="175"/>
+      <c r="A43" s="156"/>
+      <c r="B43" s="157"/>
+      <c r="C43" s="157"/>
+      <c r="D43" s="157"/>
+      <c r="E43" s="157"/>
+      <c r="F43" s="157"/>
+      <c r="G43" s="157"/>
+      <c r="H43" s="157"/>
+      <c r="I43" s="157"/>
+      <c r="J43" s="157"/>
+      <c r="K43" s="157"/>
+      <c r="L43" s="157"/>
+      <c r="M43" s="157"/>
+      <c r="N43" s="157"/>
+      <c r="O43" s="157"/>
+      <c r="P43" s="157"/>
+      <c r="Q43" s="157"/>
+      <c r="R43" s="157"/>
+      <c r="S43" s="157"/>
+      <c r="T43" s="157"/>
+      <c r="U43" s="157"/>
+      <c r="V43" s="157"/>
+      <c r="W43" s="157"/>
+      <c r="X43" s="157"/>
+      <c r="Y43" s="157"/>
+      <c r="Z43" s="157"/>
+      <c r="AA43" s="157"/>
+      <c r="AB43" s="157"/>
+      <c r="AC43" s="157"/>
+      <c r="AD43" s="157"/>
+      <c r="AE43" s="157"/>
+      <c r="AF43" s="157"/>
+      <c r="AG43" s="157"/>
+      <c r="AH43" s="157"/>
+      <c r="AI43" s="157"/>
+      <c r="AJ43" s="157"/>
+      <c r="AK43" s="157"/>
+      <c r="AL43" s="157"/>
+      <c r="AM43" s="158"/>
     </row>
     <row r="44" spans="1:39" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="162" t="s">
+      <c r="A44" s="133" t="s">
         <v>124</v>
       </c>
-      <c r="B44" s="163"/>
-      <c r="C44" s="163"/>
-      <c r="D44" s="163"/>
-      <c r="E44" s="163"/>
-      <c r="F44" s="163"/>
-      <c r="G44" s="163"/>
-      <c r="H44" s="163"/>
-      <c r="I44" s="163"/>
-      <c r="J44" s="163"/>
-      <c r="K44" s="163"/>
-      <c r="L44" s="163"/>
-      <c r="M44" s="163"/>
-      <c r="N44" s="163"/>
-      <c r="O44" s="163"/>
-      <c r="P44" s="163"/>
-      <c r="Q44" s="163"/>
-      <c r="R44" s="163"/>
-      <c r="S44" s="163"/>
-      <c r="T44" s="163"/>
-      <c r="U44" s="163"/>
-      <c r="V44" s="163"/>
-      <c r="W44" s="163"/>
-      <c r="X44" s="163"/>
-      <c r="Y44" s="163"/>
-      <c r="Z44" s="163"/>
-      <c r="AA44" s="163"/>
-      <c r="AB44" s="163"/>
-      <c r="AC44" s="163"/>
-      <c r="AD44" s="163"/>
-      <c r="AE44" s="163"/>
-      <c r="AF44" s="163"/>
-      <c r="AG44" s="163"/>
-      <c r="AH44" s="163"/>
-      <c r="AI44" s="163"/>
-      <c r="AJ44" s="163"/>
-      <c r="AK44" s="163"/>
-      <c r="AL44" s="163"/>
-      <c r="AM44" s="164"/>
+      <c r="B44" s="134"/>
+      <c r="C44" s="134"/>
+      <c r="D44" s="134"/>
+      <c r="E44" s="134"/>
+      <c r="F44" s="134"/>
+      <c r="G44" s="134"/>
+      <c r="H44" s="134"/>
+      <c r="I44" s="134"/>
+      <c r="J44" s="134"/>
+      <c r="K44" s="134"/>
+      <c r="L44" s="134"/>
+      <c r="M44" s="134"/>
+      <c r="N44" s="134"/>
+      <c r="O44" s="134"/>
+      <c r="P44" s="134"/>
+      <c r="Q44" s="134"/>
+      <c r="R44" s="134"/>
+      <c r="S44" s="134"/>
+      <c r="T44" s="134"/>
+      <c r="U44" s="134"/>
+      <c r="V44" s="134"/>
+      <c r="W44" s="134"/>
+      <c r="X44" s="134"/>
+      <c r="Y44" s="134"/>
+      <c r="Z44" s="134"/>
+      <c r="AA44" s="134"/>
+      <c r="AB44" s="134"/>
+      <c r="AC44" s="134"/>
+      <c r="AD44" s="134"/>
+      <c r="AE44" s="134"/>
+      <c r="AF44" s="134"/>
+      <c r="AG44" s="134"/>
+      <c r="AH44" s="134"/>
+      <c r="AI44" s="134"/>
+      <c r="AJ44" s="134"/>
+      <c r="AK44" s="134"/>
+      <c r="AL44" s="134"/>
+      <c r="AM44" s="135"/>
     </row>
     <row r="45" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="50">
@@ -63477,12 +63477,12 @@
         <f>Data!BQ84</f>
         <v>0</v>
       </c>
-      <c r="AJ45" s="165">
+      <c r="AJ45" s="136">
         <f>SUM(E45:AI45)</f>
         <v>0</v>
       </c>
-      <c r="AK45" s="166"/>
-      <c r="AL45" s="167"/>
+      <c r="AK45" s="137"/>
+      <c r="AL45" s="138"/>
       <c r="AM45" s="53" t="s">
         <v>112</v>
       </c>
@@ -63623,12 +63623,12 @@
         <f>Data!BQ85</f>
         <v>0</v>
       </c>
-      <c r="AJ46" s="168">
+      <c r="AJ46" s="139">
         <f>SUM(E46:AI46)</f>
         <v>0</v>
       </c>
-      <c r="AK46" s="169"/>
-      <c r="AL46" s="170"/>
+      <c r="AK46" s="140"/>
+      <c r="AL46" s="141"/>
       <c r="AM46" s="57" t="s">
         <v>112</v>
       </c>
@@ -63769,12 +63769,12 @@
         <f>Data!BQ86</f>
         <v>0</v>
       </c>
-      <c r="AJ47" s="168">
+      <c r="AJ47" s="139">
         <f>SUM(E47:AI47)</f>
         <v>0</v>
       </c>
-      <c r="AK47" s="169"/>
-      <c r="AL47" s="170"/>
+      <c r="AK47" s="140"/>
+      <c r="AL47" s="141"/>
       <c r="AM47" s="57" t="s">
         <v>112</v>
       </c>
@@ -63784,10 +63784,10 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B48" s="171" t="s">
+      <c r="B48" s="162" t="s">
         <v>76</v>
       </c>
-      <c r="C48" s="172"/>
+      <c r="C48" s="163"/>
       <c r="D48" s="54" t="s">
         <v>112</v>
       </c>
@@ -63915,12 +63915,12 @@
         <f>Data!BQ87</f>
         <v>0</v>
       </c>
-      <c r="AJ48" s="168">
+      <c r="AJ48" s="139">
         <f>SUM(E48:AI48)</f>
         <v>0</v>
       </c>
-      <c r="AK48" s="169"/>
-      <c r="AL48" s="170"/>
+      <c r="AK48" s="140"/>
+      <c r="AL48" s="141"/>
       <c r="AM48" s="57" t="s">
         <v>112</v>
       </c>
@@ -64061,12 +64061,12 @@
         <f>Data!BQ88</f>
         <v>0</v>
       </c>
-      <c r="AJ49" s="168">
+      <c r="AJ49" s="139">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK49" s="169"/>
-      <c r="AL49" s="170"/>
+      <c r="AK49" s="140"/>
+      <c r="AL49" s="141"/>
       <c r="AM49" s="57" t="s">
         <v>112</v>
       </c>
@@ -64207,12 +64207,12 @@
         <f>Data!BQ89</f>
         <v>0</v>
       </c>
-      <c r="AJ50" s="168">
+      <c r="AJ50" s="139">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK50" s="169"/>
-      <c r="AL50" s="170"/>
+      <c r="AK50" s="140"/>
+      <c r="AL50" s="141"/>
       <c r="AM50" s="57" t="s">
         <v>112</v>
       </c>
@@ -64353,12 +64353,12 @@
         <f>Data!BQ90</f>
         <v>0</v>
       </c>
-      <c r="AJ51" s="168">
+      <c r="AJ51" s="139">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK51" s="169"/>
-      <c r="AL51" s="170"/>
+      <c r="AK51" s="140"/>
+      <c r="AL51" s="141"/>
       <c r="AM51" s="57" t="s">
         <v>112</v>
       </c>
@@ -64499,12 +64499,12 @@
         <f>Data!BQ91</f>
         <v>0</v>
       </c>
-      <c r="AJ52" s="168">
+      <c r="AJ52" s="139">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK52" s="169"/>
-      <c r="AL52" s="170"/>
+      <c r="AK52" s="140"/>
+      <c r="AL52" s="141"/>
       <c r="AM52" s="57" t="s">
         <v>112</v>
       </c>
@@ -64645,12 +64645,12 @@
         <f>Data!BQ92</f>
         <v>0</v>
       </c>
-      <c r="AJ53" s="168">
+      <c r="AJ53" s="139">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK53" s="169"/>
-      <c r="AL53" s="170"/>
+      <c r="AK53" s="140"/>
+      <c r="AL53" s="141"/>
       <c r="AM53" s="57" t="s">
         <v>112</v>
       </c>
@@ -64791,12 +64791,12 @@
         <f>Data!BQ93</f>
         <v>0</v>
       </c>
-      <c r="AJ54" s="168">
+      <c r="AJ54" s="139">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK54" s="169"/>
-      <c r="AL54" s="170"/>
+      <c r="AK54" s="140"/>
+      <c r="AL54" s="141"/>
       <c r="AM54" s="57" t="s">
         <v>112</v>
       </c>
@@ -64937,12 +64937,12 @@
         <f>Data!BQ94</f>
         <v>0</v>
       </c>
-      <c r="AJ55" s="159">
+      <c r="AJ55" s="153">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK55" s="160"/>
-      <c r="AL55" s="161"/>
+      <c r="AK55" s="154"/>
+      <c r="AL55" s="155"/>
       <c r="AM55" s="61" t="s">
         <v>112</v>
       </c>
@@ -65013,23 +65013,23 @@
       <c r="V57" s="76"/>
       <c r="W57" s="76"/>
       <c r="X57" s="82"/>
-      <c r="Y57" s="148" t="s">
+      <c r="Y57" s="164" t="s">
         <v>126</v>
       </c>
-      <c r="Z57" s="149"/>
-      <c r="AA57" s="149"/>
-      <c r="AB57" s="149"/>
-      <c r="AC57" s="149"/>
-      <c r="AD57" s="149"/>
-      <c r="AE57" s="149"/>
-      <c r="AF57" s="149"/>
-      <c r="AG57" s="149"/>
-      <c r="AH57" s="149"/>
-      <c r="AI57" s="149"/>
-      <c r="AJ57" s="149"/>
-      <c r="AK57" s="149"/>
-      <c r="AL57" s="149"/>
-      <c r="AM57" s="150"/>
+      <c r="Z57" s="165"/>
+      <c r="AA57" s="165"/>
+      <c r="AB57" s="165"/>
+      <c r="AC57" s="165"/>
+      <c r="AD57" s="165"/>
+      <c r="AE57" s="165"/>
+      <c r="AF57" s="165"/>
+      <c r="AG57" s="165"/>
+      <c r="AH57" s="165"/>
+      <c r="AI57" s="165"/>
+      <c r="AJ57" s="165"/>
+      <c r="AK57" s="165"/>
+      <c r="AL57" s="165"/>
+      <c r="AM57" s="166"/>
     </row>
     <row r="58" spans="1:39" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="70"/>
@@ -65056,23 +65056,23 @@
       <c r="V58" s="76"/>
       <c r="W58" s="76"/>
       <c r="X58" s="81"/>
-      <c r="Y58" s="156" t="s">
+      <c r="Y58" s="177" t="s">
         <v>127</v>
       </c>
-      <c r="Z58" s="157"/>
-      <c r="AA58" s="158"/>
-      <c r="AB58" s="153"/>
-      <c r="AC58" s="154"/>
-      <c r="AD58" s="154"/>
-      <c r="AE58" s="154"/>
-      <c r="AF58" s="154"/>
-      <c r="AG58" s="155"/>
+      <c r="Z58" s="178"/>
+      <c r="AA58" s="179"/>
+      <c r="AB58" s="171"/>
+      <c r="AC58" s="172"/>
+      <c r="AD58" s="172"/>
+      <c r="AE58" s="172"/>
+      <c r="AF58" s="172"/>
+      <c r="AG58" s="173"/>
       <c r="AH58" s="80"/>
       <c r="AI58" s="80"/>
-      <c r="AJ58" s="151"/>
-      <c r="AK58" s="151"/>
-      <c r="AL58" s="151"/>
-      <c r="AM58" s="152"/>
+      <c r="AJ58" s="167"/>
+      <c r="AK58" s="167"/>
+      <c r="AL58" s="167"/>
+      <c r="AM58" s="168"/>
     </row>
     <row r="59" spans="1:39" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="70"/>
@@ -65099,23 +65099,23 @@
       <c r="V59" s="76"/>
       <c r="W59" s="76"/>
       <c r="X59" s="81"/>
-      <c r="Y59" s="133" t="s">
+      <c r="Y59" s="180" t="s">
         <v>128</v>
       </c>
-      <c r="Z59" s="134"/>
-      <c r="AA59" s="135"/>
-      <c r="AB59" s="141"/>
-      <c r="AC59" s="142"/>
-      <c r="AD59" s="142"/>
-      <c r="AE59" s="142"/>
-      <c r="AF59" s="142"/>
-      <c r="AG59" s="143"/>
+      <c r="Z59" s="181"/>
+      <c r="AA59" s="182"/>
+      <c r="AB59" s="174"/>
+      <c r="AC59" s="175"/>
+      <c r="AD59" s="175"/>
+      <c r="AE59" s="175"/>
+      <c r="AF59" s="175"/>
+      <c r="AG59" s="176"/>
       <c r="AH59" s="79"/>
       <c r="AI59" s="79"/>
-      <c r="AJ59" s="139"/>
-      <c r="AK59" s="139"/>
-      <c r="AL59" s="139"/>
-      <c r="AM59" s="140"/>
+      <c r="AJ59" s="169"/>
+      <c r="AK59" s="169"/>
+      <c r="AL59" s="169"/>
+      <c r="AM59" s="170"/>
     </row>
     <row r="60" spans="1:39" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="70"/>
@@ -65142,23 +65142,23 @@
       <c r="V60" s="76"/>
       <c r="W60" s="76"/>
       <c r="X60" s="81"/>
-      <c r="Y60" s="133" t="s">
+      <c r="Y60" s="180" t="s">
         <v>129</v>
       </c>
-      <c r="Z60" s="134"/>
-      <c r="AA60" s="135"/>
-      <c r="AB60" s="141"/>
-      <c r="AC60" s="142"/>
-      <c r="AD60" s="142"/>
-      <c r="AE60" s="142"/>
-      <c r="AF60" s="142"/>
-      <c r="AG60" s="143"/>
+      <c r="Z60" s="181"/>
+      <c r="AA60" s="182"/>
+      <c r="AB60" s="174"/>
+      <c r="AC60" s="175"/>
+      <c r="AD60" s="175"/>
+      <c r="AE60" s="175"/>
+      <c r="AF60" s="175"/>
+      <c r="AG60" s="176"/>
       <c r="AH60" s="79"/>
       <c r="AI60" s="79"/>
-      <c r="AJ60" s="139"/>
-      <c r="AK60" s="139"/>
-      <c r="AL60" s="139"/>
-      <c r="AM60" s="140"/>
+      <c r="AJ60" s="169"/>
+      <c r="AK60" s="169"/>
+      <c r="AL60" s="169"/>
+      <c r="AM60" s="170"/>
     </row>
     <row r="61" spans="1:39" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="70"/>
@@ -65185,23 +65185,23 @@
       <c r="V61" s="76"/>
       <c r="W61" s="76"/>
       <c r="X61" s="81"/>
-      <c r="Y61" s="133" t="s">
+      <c r="Y61" s="180" t="s">
         <v>130</v>
       </c>
-      <c r="Z61" s="134"/>
-      <c r="AA61" s="135"/>
-      <c r="AB61" s="141"/>
-      <c r="AC61" s="142"/>
-      <c r="AD61" s="142"/>
-      <c r="AE61" s="142"/>
-      <c r="AF61" s="142"/>
-      <c r="AG61" s="143"/>
+      <c r="Z61" s="181"/>
+      <c r="AA61" s="182"/>
+      <c r="AB61" s="174"/>
+      <c r="AC61" s="175"/>
+      <c r="AD61" s="175"/>
+      <c r="AE61" s="175"/>
+      <c r="AF61" s="175"/>
+      <c r="AG61" s="176"/>
       <c r="AH61" s="79"/>
       <c r="AI61" s="79"/>
-      <c r="AJ61" s="139"/>
-      <c r="AK61" s="139"/>
-      <c r="AL61" s="139"/>
-      <c r="AM61" s="140"/>
+      <c r="AJ61" s="169"/>
+      <c r="AK61" s="169"/>
+      <c r="AL61" s="169"/>
+      <c r="AM61" s="170"/>
     </row>
     <row r="62" spans="1:39" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="70"/>
@@ -65228,47 +65228,71 @@
       <c r="V62" s="76"/>
       <c r="W62" s="76"/>
       <c r="X62" s="81"/>
-      <c r="Y62" s="145" t="s">
+      <c r="Y62" s="187" t="s">
         <v>131</v>
       </c>
-      <c r="Z62" s="146"/>
-      <c r="AA62" s="147"/>
-      <c r="AB62" s="136" t="s">
+      <c r="Z62" s="188"/>
+      <c r="AA62" s="189"/>
+      <c r="AB62" s="183" t="s">
         <v>136</v>
       </c>
-      <c r="AC62" s="137"/>
-      <c r="AD62" s="137"/>
-      <c r="AE62" s="137"/>
-      <c r="AF62" s="137"/>
-      <c r="AG62" s="144"/>
-      <c r="AH62" s="136" t="s">
+      <c r="AC62" s="184"/>
+      <c r="AD62" s="184"/>
+      <c r="AE62" s="184"/>
+      <c r="AF62" s="184"/>
+      <c r="AG62" s="186"/>
+      <c r="AH62" s="183" t="s">
         <v>135</v>
       </c>
-      <c r="AI62" s="137"/>
-      <c r="AJ62" s="137"/>
-      <c r="AK62" s="137"/>
-      <c r="AL62" s="137"/>
-      <c r="AM62" s="138"/>
+      <c r="AI62" s="184"/>
+      <c r="AJ62" s="184"/>
+      <c r="AK62" s="184"/>
+      <c r="AL62" s="184"/>
+      <c r="AM62" s="185"/>
     </row>
   </sheetData>
   <mergeCells count="73">
-    <mergeCell ref="A8:AM8"/>
-    <mergeCell ref="AJ9:AL9"/>
-    <mergeCell ref="AJ10:AL10"/>
-    <mergeCell ref="AJ11:AL11"/>
-    <mergeCell ref="A2:AM2"/>
-    <mergeCell ref="A3:AM3"/>
-    <mergeCell ref="AJ4:AM4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:AI5"/>
-    <mergeCell ref="AJ5:AM6"/>
-    <mergeCell ref="AJ12:AL12"/>
-    <mergeCell ref="AJ13:AL13"/>
-    <mergeCell ref="AJ14:AL14"/>
-    <mergeCell ref="AJ15:AL15"/>
-    <mergeCell ref="AJ16:AL16"/>
+    <mergeCell ref="Y60:AA60"/>
+    <mergeCell ref="AH62:AM62"/>
+    <mergeCell ref="AJ60:AM60"/>
+    <mergeCell ref="AJ61:AM61"/>
+    <mergeCell ref="AB60:AG60"/>
+    <mergeCell ref="AB61:AG61"/>
+    <mergeCell ref="AB62:AG62"/>
+    <mergeCell ref="Y61:AA61"/>
+    <mergeCell ref="Y62:AA62"/>
+    <mergeCell ref="Y57:AM57"/>
+    <mergeCell ref="AJ58:AM58"/>
+    <mergeCell ref="AJ59:AM59"/>
+    <mergeCell ref="AB58:AG58"/>
+    <mergeCell ref="AB59:AG59"/>
+    <mergeCell ref="Y58:AA58"/>
+    <mergeCell ref="Y59:AA59"/>
+    <mergeCell ref="AJ55:AL55"/>
+    <mergeCell ref="A44:AM44"/>
+    <mergeCell ref="AJ45:AL45"/>
+    <mergeCell ref="AJ46:AL46"/>
+    <mergeCell ref="AJ47:AL47"/>
+    <mergeCell ref="AJ48:AL48"/>
+    <mergeCell ref="AJ49:AL49"/>
+    <mergeCell ref="AJ50:AL50"/>
+    <mergeCell ref="AJ51:AL51"/>
+    <mergeCell ref="AJ52:AL52"/>
+    <mergeCell ref="AJ53:AL53"/>
+    <mergeCell ref="AJ54:AL54"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="A43:AM43"/>
+    <mergeCell ref="AJ32:AL32"/>
+    <mergeCell ref="AJ33:AL33"/>
+    <mergeCell ref="AJ34:AL34"/>
+    <mergeCell ref="AJ35:AL35"/>
+    <mergeCell ref="AJ36:AL36"/>
+    <mergeCell ref="AJ37:AL37"/>
+    <mergeCell ref="AJ38:AL38"/>
+    <mergeCell ref="AJ39:AL39"/>
+    <mergeCell ref="AJ40:AL40"/>
+    <mergeCell ref="AJ41:AL41"/>
+    <mergeCell ref="AJ42:AL42"/>
     <mergeCell ref="AJ17:AL17"/>
     <mergeCell ref="AJ18:AL18"/>
     <mergeCell ref="A31:B31"/>
@@ -65284,47 +65308,23 @@
     <mergeCell ref="AJ29:AL29"/>
     <mergeCell ref="A30:AM30"/>
     <mergeCell ref="AJ19:AL19"/>
-    <mergeCell ref="A43:AM43"/>
-    <mergeCell ref="AJ32:AL32"/>
-    <mergeCell ref="AJ33:AL33"/>
-    <mergeCell ref="AJ34:AL34"/>
-    <mergeCell ref="AJ35:AL35"/>
-    <mergeCell ref="AJ36:AL36"/>
-    <mergeCell ref="AJ37:AL37"/>
-    <mergeCell ref="AJ38:AL38"/>
-    <mergeCell ref="AJ39:AL39"/>
-    <mergeCell ref="AJ40:AL40"/>
-    <mergeCell ref="AJ41:AL41"/>
-    <mergeCell ref="AJ42:AL42"/>
-    <mergeCell ref="AJ55:AL55"/>
-    <mergeCell ref="A44:AM44"/>
-    <mergeCell ref="AJ45:AL45"/>
-    <mergeCell ref="AJ46:AL46"/>
-    <mergeCell ref="AJ47:AL47"/>
-    <mergeCell ref="AJ48:AL48"/>
-    <mergeCell ref="AJ49:AL49"/>
-    <mergeCell ref="AJ50:AL50"/>
-    <mergeCell ref="AJ51:AL51"/>
-    <mergeCell ref="AJ52:AL52"/>
-    <mergeCell ref="AJ53:AL53"/>
-    <mergeCell ref="AJ54:AL54"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="Y57:AM57"/>
-    <mergeCell ref="AJ58:AM58"/>
-    <mergeCell ref="AJ59:AM59"/>
-    <mergeCell ref="AB58:AG58"/>
-    <mergeCell ref="AB59:AG59"/>
-    <mergeCell ref="Y58:AA58"/>
-    <mergeCell ref="Y59:AA59"/>
-    <mergeCell ref="Y60:AA60"/>
-    <mergeCell ref="AH62:AM62"/>
-    <mergeCell ref="AJ60:AM60"/>
-    <mergeCell ref="AJ61:AM61"/>
-    <mergeCell ref="AB60:AG60"/>
-    <mergeCell ref="AB61:AG61"/>
-    <mergeCell ref="AB62:AG62"/>
-    <mergeCell ref="Y61:AA61"/>
-    <mergeCell ref="Y62:AA62"/>
+    <mergeCell ref="AJ12:AL12"/>
+    <mergeCell ref="AJ13:AL13"/>
+    <mergeCell ref="AJ14:AL14"/>
+    <mergeCell ref="AJ15:AL15"/>
+    <mergeCell ref="AJ16:AL16"/>
+    <mergeCell ref="A8:AM8"/>
+    <mergeCell ref="AJ9:AL9"/>
+    <mergeCell ref="AJ10:AL10"/>
+    <mergeCell ref="AJ11:AL11"/>
+    <mergeCell ref="A2:AM2"/>
+    <mergeCell ref="A3:AM3"/>
+    <mergeCell ref="AJ4:AM4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:AI5"/>
+    <mergeCell ref="AJ5:AM6"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="7.8740157480315001E-2" top="0" bottom="0" header="0.3" footer="0.3"/>
